--- a/04_RBC+Prices+MP/Datos/DataCOL.xlsx
+++ b/04_RBC+Prices+MP/Datos/DataCOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Dropbox\URosario\Topics in Macro\2025Topics\Codes\SOEData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarincong/Documents/Git Repos/CAEP/04_RBC+Prices+MP/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B55DB0-9CF3-4FA5-9C7B-2B6A17C9415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADEC04F-307B-314F-838E-2C76E04FBB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B812F19-A572-41B0-90ED-022F2B941229}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3B812F19-A572-41B0-90ED-022F2B941229}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NX</t>
-  </si>
-  <si>
-    <t>NX_Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Yprom</t>
   </si>
@@ -69,6 +48,33 @@
   </si>
   <si>
     <t>Nxprom</t>
+  </si>
+  <si>
+    <t>Y_obs</t>
+  </si>
+  <si>
+    <t>C_obs</t>
+  </si>
+  <si>
+    <t>I_obs</t>
+  </si>
+  <si>
+    <t>NX_obs</t>
+  </si>
+  <si>
+    <t>X_obs</t>
+  </si>
+  <si>
+    <t>M_obs</t>
+  </si>
+  <si>
+    <t>NX_Y_obs</t>
+  </si>
+  <si>
+    <t>Y_obs_norm</t>
+  </si>
+  <si>
+    <t>C_obs_norm</t>
   </si>
 </sst>
 </file>
@@ -107,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -425,4586 +432,5919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC43C700-5E37-433E-91EB-5805D755A630}">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="267" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.98520044861024481</v>
       </c>
       <c r="B2">
+        <v>1.9744504486102448</v>
+      </c>
+      <c r="C2">
         <v>0.79287768302896822</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <f>0.792877683028968+(1.74-0.82)</f>
+        <v>1.7128776830289683</v>
+      </c>
+      <c r="E2">
         <v>0.20294724695027622</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>-1.0624481368999628E-2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.13017333567562595</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.13740847261401623</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G33" si="0">+D2/A2</f>
+      <c r="I2">
+        <f t="shared" ref="I2:I33" si="0">+F2/A2</f>
         <v>-1.0784080928898135E-2</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <f>AVERAGE(A2:A189)</f>
         <v>1.0000000000002986</v>
       </c>
-      <c r="J2">
-        <f>AVERAGE(B2:B189)</f>
+      <c r="L2" s="3">
+        <f>AVERAGE(C2:C189)</f>
         <v>0.81563232066151869</v>
       </c>
-      <c r="K2">
-        <f>AVERAGE(C2:C189)</f>
+      <c r="M2" s="3">
+        <f>AVERAGE(E2:E189)</f>
         <v>0.19364934213308796</v>
       </c>
-      <c r="L2">
-        <f>AVERAGE(D2:D189)</f>
+      <c r="N2" s="3">
+        <f>AVERAGE(F2:F189)</f>
         <v>-9.2816627943079974E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.95721604297855833</v>
       </c>
       <c r="B3">
+        <v>1.9464660429785583</v>
+      </c>
+      <c r="C3">
         <v>0.78731210998942269</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <f>0.787312109989423+(1.74-0.82)</f>
+        <v>1.7073121099894228</v>
+      </c>
+      <c r="E3">
         <v>0.18532885457718937</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>-1.5424921588053725E-2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.12383133402345919</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.14094891976083329</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <f t="shared" si="0"/>
         <v>-1.6114357569745875E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.97681597833671496</v>
       </c>
       <c r="B4">
+        <v>1.9660659783367149</v>
+      </c>
+      <c r="C4">
         <v>0.82479662544548427</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <f>0.824796625445484+(1.74-0.82)</f>
+        <v>1.7447966254454843</v>
+      </c>
+      <c r="E4">
         <v>0.16960874118363894</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>-1.7589388292408248E-2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.11820516680057776</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.14184525159728226</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>-1.8006859718202796E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.97865847791584848</v>
       </c>
       <c r="B5">
+        <v>1.9679084779158484</v>
+      </c>
+      <c r="C5">
         <v>0.78962876312914954</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <f>0.78962876312915+(1.74-0.82)</f>
+        <v>1.7096287631291496</v>
+      </c>
+      <c r="E5">
         <v>0.20474554580387336</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>-1.5715831017174414E-2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.1268612805985532</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.14440862303928315</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>-1.6058544805786442E-2</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.99487458076180069</v>
       </c>
       <c r="B6">
+        <v>1.9841245807618006</v>
+      </c>
+      <c r="C6">
         <v>0.8005263981124876</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <f>0.800526398112488+(1.74-0.82)</f>
+        <v>1.7205263981124876</v>
+      </c>
+      <c r="E6">
         <v>0.19088158250614029</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>3.4666001431727933E-3</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.15743575919133806</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.1498136024226443</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>3.4844594587172283E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.0063025266579473</v>
       </c>
       <c r="B7">
+        <v>1.9955525266579472</v>
+      </c>
+      <c r="C7">
         <v>0.82110867725860626</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <f>0.821108677258606+(1.74-0.82)</f>
+        <v>1.7411086772586062</v>
+      </c>
+      <c r="E7">
         <v>0.19453415063069354</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>-9.3403012313525158E-3</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.14463694455402698</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.15413765512915448</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>-9.2818024241405703E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.0178711121330117</v>
       </c>
       <c r="B8">
+        <v>2.0071211121330119</v>
+      </c>
+      <c r="C8">
         <v>0.83605563864155097</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <f>0.836055638641551+(1.74-0.82)</f>
+        <v>1.7560556386415511</v>
+      </c>
+      <c r="E8">
         <v>0.19488717800694166</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>-1.3071704515480898E-2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.1407403282995304</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.15532976660833539</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>-1.2842200117152685E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.0125919993604722</v>
       </c>
       <c r="B9">
+        <v>2.0018419993604724</v>
+      </c>
+      <c r="C9">
         <v>0.82761650738254378</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <f>0.827616507382544+(1.74-0.82)</f>
+        <v>1.7476165073825438</v>
+      </c>
+      <c r="E9">
         <v>0.19509556542505535</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>-1.0120073447126954E-2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.14594478589091373</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.1568271756003872</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>-9.9942261577402741E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0086909881163066</v>
       </c>
       <c r="B10">
+        <v>1.9979409881163066</v>
+      </c>
+      <c r="C10">
         <v>0.80245798035998239</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <f>0.802457980359982+(1.74-0.82)</f>
+        <v>1.7224579803599824</v>
+      </c>
+      <c r="E10">
         <v>0.18652317657076056</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1.9709831185563687E-2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.16739607412488858</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.13530917440803783</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>1.9540009197832799E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.0122307124154375</v>
       </c>
       <c r="B11">
+        <v>2.0014807124154377</v>
+      </c>
+      <c r="C11">
         <v>0.82555415749573857</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <f>0.825554157495739+(1.74-0.82)</f>
+        <v>1.7455541574957385</v>
+      </c>
+      <c r="E11">
         <v>0.18724108361637304</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>-5.6452869667411587E-4</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.14678299019185839</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.14144785504495522</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>-5.5770753618708936E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.0190097750378158</v>
       </c>
       <c r="B12">
+        <v>2.0082597750378159</v>
+      </c>
+      <c r="C12">
         <v>0.83813751261826508</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <f>0.838137512618265+(1.74-0.82)</f>
+        <v>1.7581375126182652</v>
+      </c>
+      <c r="E12">
         <v>0.18574831147156209</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>-4.8760490520114164E-3</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.1427955959962742</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.14384871298906185</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>-4.7850856502632318E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.0249589820013369</v>
       </c>
       <c r="B13">
+        <v>2.0142089820013371</v>
+      </c>
+      <c r="C13">
         <v>0.83671792962899583</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <f>0.836717929628996+(1.74-0.82)</f>
+        <v>1.7567179296289959</v>
+      </c>
+      <c r="E13">
         <v>0.1895757312821679</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>-1.3346789098267753E-3</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.14848326634077175</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.14440446904421828</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>-1.3021778756655009E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.0157856341667291</v>
       </c>
       <c r="B14">
+        <v>2.0050356341667293</v>
+      </c>
+      <c r="C14">
         <v>0.83787066711065339</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <f>0.837870667110653+(1.74-0.82)</f>
+        <v>1.7578706671106534</v>
+      </c>
+      <c r="E14">
         <v>0.18868225854254445</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>-1.0767291486468766E-2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.13649362725478437</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.14629256178420949</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>-1.0599964327415803E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.0244617386354715</v>
       </c>
       <c r="B15">
+        <v>2.0137117386354717</v>
+      </c>
+      <c r="C15">
         <v>0.82572766819984733</v>
       </c>
-      <c r="C15">
+      <c r="D15">
+        <f>0.825727668199847+(1.74-0.82)</f>
+        <v>1.7457276681998475</v>
+      </c>
+      <c r="E15">
         <v>0.19787620934739542</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>8.5786108822877294E-4</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.15897524814859368</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.1545291309507838</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>8.3737738158127628E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.0159234067987306</v>
       </c>
       <c r="B16">
+        <v>2.0051734067987308</v>
+      </c>
+      <c r="C16">
         <v>0.80789384895721938</v>
       </c>
-      <c r="C16">
+      <c r="D16">
+        <f>0.807893848957219+(1.74-0.82)</f>
+        <v>1.7278938489572195</v>
+      </c>
+      <c r="E16">
         <v>0.20019175793724317</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>7.8377999042680557E-3</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.17034791558091031</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.15948470954130803</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>7.7149515916418287E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0209857638773858</v>
       </c>
       <c r="B17">
+        <v>2.010235763877386</v>
+      </c>
+      <c r="C17">
         <v>0.82053584413800085</v>
       </c>
-      <c r="C17">
+      <c r="D17">
+        <f>0.820535844138001+(1.74-0.82)</f>
+        <v>1.7405358441380008</v>
+      </c>
+      <c r="E17">
         <v>0.20594225575426789</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>-5.4923360148829148E-3</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.15506752153551892</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.16071114566711503</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>-5.3794442676896237E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.0214876761238791</v>
       </c>
       <c r="B18">
+        <v>2.0107376761238793</v>
+      </c>
+      <c r="C18">
         <v>0.82905838511541974</v>
       </c>
-      <c r="C18">
+      <c r="D18">
+        <f>0.82905838511542+(1.74-0.82)</f>
+        <v>1.7490583851154198</v>
+      </c>
+      <c r="E18">
         <v>0.21173672022728499</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>-1.9307429218825584E-2</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.13395966190570677</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.15968569805301613</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>-1.8901284538340439E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.008162706908049</v>
       </c>
       <c r="B19">
+        <v>1.997412706908049</v>
+      </c>
+      <c r="C19">
         <v>0.81818588393061753</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <f>0.818185883930618+(1.74-0.82)</f>
+        <v>1.7381858839306177</v>
+      </c>
+      <c r="E19">
         <v>0.19969404132778087</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>-9.7172183503494158E-3</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.14088157974345666</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.15081791803408845</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>-9.638541758950115E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0068126026930209</v>
       </c>
       <c r="B20">
+        <v>1.9960626026930208</v>
+      </c>
+      <c r="C20">
         <v>0.81463150370318205</v>
       </c>
-      <c r="C20">
+      <c r="D20">
+        <f>0.814631503703182+(1.74-0.82)</f>
+        <v>1.7346315037031821</v>
+      </c>
+      <c r="E20">
         <v>0.20430728629532999</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>-1.2126187305491171E-2</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.13397944158742117</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.14813448887578826</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>-1.2044135396255533E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0093648098877939</v>
       </c>
       <c r="B21">
+        <v>1.9986148098877938</v>
+      </c>
+      <c r="C21">
         <v>0.84491752841408851</v>
       </c>
-      <c r="C21">
+      <c r="D21">
+        <f>0.844917528414089+(1.74-0.82)</f>
+        <v>1.7649175284140886</v>
+      </c>
+      <c r="E21">
         <v>0.18309497655543558</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>-1.8647695081730226E-2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.13848593893838157</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>0.16144834199151148</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>-1.847468318595652E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.0056076036226678</v>
       </c>
       <c r="B22">
+        <v>1.9948576036226677</v>
+      </c>
+      <c r="C22">
         <v>0.83824021948749017</v>
       </c>
-      <c r="C22">
+      <c r="D22">
+        <f>0.83824021948749+(1.74-0.82)</f>
+        <v>1.7582402194874902</v>
+      </c>
+      <c r="E22">
         <v>0.18933468831548805</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>-2.1967304180310454E-2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0.13897617501995768</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.166982292540065</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>-2.184480716054053E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0024093871232118</v>
       </c>
       <c r="B23">
+        <v>1.9916593871232118</v>
+      </c>
+      <c r="C23">
         <v>0.82087812834403673</v>
       </c>
-      <c r="C23">
+      <c r="D23">
+        <f>0.820878128344037+(1.74-0.82)</f>
+        <v>1.7408781283440367</v>
+      </c>
+      <c r="E23">
         <v>0.20352404485938841</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>-2.1992786080213322E-2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0.13799324481093359</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>0.1677749593382023</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>-2.1939924309098739E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.99309218089766738</v>
       </c>
       <c r="B24">
+        <v>1.9823421808976673</v>
+      </c>
+      <c r="C24">
         <v>0.81120873967079743</v>
       </c>
-      <c r="C24">
+      <c r="D24">
+        <f>0.811208739670797+(1.74-0.82)</f>
+        <v>1.7312087396707976</v>
+      </c>
+      <c r="E24">
         <v>0.20307005045840876</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>-2.1186609231538811E-2</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.13215684090798946</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.16139576618290913</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>-2.133398050963204E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.97948981599723517</v>
       </c>
       <c r="B25">
+        <v>1.9687398159972351</v>
+      </c>
+      <c r="C25">
         <v>0.80975606804467171</v>
       </c>
-      <c r="C25">
+      <c r="D25">
+        <f>0.809756068044672+(1.74-0.82)</f>
+        <v>1.7297560680446717</v>
+      </c>
+      <c r="E25">
         <v>0.19496490315846879</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>-2.5231155205905326E-2</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.12301694311777518</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>0.15789965996547956</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>-2.5759487024596635E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.97939477483877901</v>
       </c>
       <c r="B26">
+        <v>1.968644774838779</v>
+      </c>
+      <c r="C26">
         <v>0.79523967525011863</v>
       </c>
-      <c r="C26">
+      <c r="D26">
+        <f>0.795239675250119+(1.74-0.82)</f>
+        <v>1.7152396752501187</v>
+      </c>
+      <c r="E26">
         <v>0.20202392556199461</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>-1.7868825973334224E-2</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>0.13208673152585859</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>0.1570580365135234</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>-1.824476343186093E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98743286734366897</v>
       </c>
       <c r="B27">
+        <v>1.9766828673436689</v>
+      </c>
+      <c r="C27">
         <v>0.81639570167422715</v>
       </c>
-      <c r="C27">
+      <c r="D27">
+        <f>0.816395701674227+(1.74-0.82)</f>
+        <v>1.7363957016742271</v>
+      </c>
+      <c r="E27">
         <v>0.19030958849175494</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>-1.9272422822313118E-2</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.12530570121312001</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>0.15003395951372525</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>-1.9517704402688765E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.97857433731934762</v>
       </c>
       <c r="B28">
+        <v>1.9678243373193476</v>
+      </c>
+      <c r="C28">
         <v>0.80617271345593355</v>
       </c>
-      <c r="C28">
+      <c r="D28">
+        <f>0.806172713455934+(1.74-0.82)</f>
+        <v>1.7261727134559335</v>
+      </c>
+      <c r="E28">
         <v>0.18805257440973994</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>-1.565095054632587E-2</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>0.13098453312191363</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>0.15010444149640742</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>-1.5993624550996521E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.99315369803617415</v>
       </c>
       <c r="B29">
+        <v>1.9824036980361741</v>
+      </c>
+      <c r="C29">
         <v>0.80938535260635225</v>
       </c>
-      <c r="C29">
+      <c r="D29">
+        <f>0.809385352606352+(1.74-0.82)</f>
+        <v>1.7293853526063523</v>
+      </c>
+      <c r="E29">
         <v>0.20185857246900521</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>-1.809022703918331E-2</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>0.12037395941023557</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>0.14408176907001449</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>-1.821493196365705E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98788969600293264</v>
       </c>
       <c r="B30">
+        <v>1.9771396960029326</v>
+      </c>
+      <c r="C30">
         <v>0.801289384213973</v>
       </c>
-      <c r="C30">
+      <c r="D30">
+        <f>0.801289384213973+(1.74-0.82)</f>
+        <v>1.7212893842139732</v>
+      </c>
+      <c r="E30">
         <v>0.20244044534662228</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>-1.5840133557662645E-2</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>0.13364699490787921</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>0.15499212768127363</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>-1.6034313974275547E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98162325205403356</v>
       </c>
       <c r="B31">
+        <v>1.9708732520540335</v>
+      </c>
+      <c r="C31">
         <v>0.79688956134304956</v>
       </c>
-      <c r="C31">
+      <c r="D31">
+        <f>0.79688956134305+(1.74-0.82)</f>
+        <v>1.7168895613430495</v>
+      </c>
+      <c r="E31">
         <v>0.19968008461897147</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>-1.4946393907987465E-2</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0.13570873051885299</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>0.15550694615313149</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>-1.5226201984022216E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98782484000172843</v>
       </c>
       <c r="B32">
+        <v>1.9770748400017284</v>
+      </c>
+      <c r="C32">
         <v>0.80990445494015118</v>
       </c>
-      <c r="C32">
+      <c r="D32">
+        <f>0.809904454940151+(1.74-0.82)</f>
+        <v>1.7299044549401512</v>
+      </c>
+      <c r="E32">
         <v>0.19321743486611956</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>-1.5297049804542301E-2</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>0.12684804645059694</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.14382369912029214</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>-1.5485589332330957E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.99447375586110986</v>
       </c>
       <c r="B33">
+        <v>1.9837237558611098</v>
+      </c>
+      <c r="C33">
         <v>0.81744560219283002</v>
       </c>
-      <c r="C33">
+      <c r="D33">
+        <f>0.81744560219283+(1.74-0.82)</f>
+        <v>1.73744560219283</v>
+      </c>
+      <c r="E33">
         <v>0.18525532465762987</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>-8.2271709893500244E-3</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>0.1325341430536523</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>0.13625799400517885</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>-8.2728889936629427E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98714161153130675</v>
       </c>
       <c r="B34">
+        <v>1.9763916115313067</v>
+      </c>
+      <c r="C34">
         <v>0.80036735604872156</v>
       </c>
-      <c r="C34">
+      <c r="D34">
+        <f>0.800367356048722+(1.74-0.82)</f>
+        <v>1.7203673560487216</v>
+      </c>
+      <c r="E34">
         <v>0.17951717928366695</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>7.2570761989182442E-3</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>0.13607795665851438</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>0.10873380032335246</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G65" si="1">+D34/A34</f>
+      <c r="I34">
+        <f t="shared" ref="I34:I65" si="1">+F34/A34</f>
         <v>7.3516060047966979E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98182201244932088</v>
       </c>
       <c r="B35">
+        <v>1.9710720124493208</v>
+      </c>
+      <c r="C35">
         <v>0.8037530117980628</v>
       </c>
-      <c r="C35">
+      <c r="D35">
+        <f>0.803753011798063+(1.74-0.82)</f>
+        <v>1.7237530117980628</v>
+      </c>
+      <c r="E35">
         <v>0.17369226610541449</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>4.3767345458435858E-3</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>0.14657684932003573</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>0.13255732986569674</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>4.4577677932939007E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.97780867404248717</v>
       </c>
       <c r="B36">
+        <v>1.9670586740424871</v>
+      </c>
+      <c r="C36">
         <v>0.80526305052208491</v>
       </c>
-      <c r="C36">
+      <c r="D36">
+        <f>0.805263050522085+(1.74-0.82)</f>
+        <v>1.725263050522085</v>
+      </c>
+      <c r="E36">
         <v>0.18389320877764204</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>-1.1347585257239778E-2</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0.13497571596061289</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>0.14517123251298761</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>-1.1605118218399758E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98866883006908601</v>
       </c>
       <c r="B37">
+        <v>1.977918830069086</v>
+      </c>
+      <c r="C37">
         <v>0.81542895793112091</v>
       </c>
-      <c r="C37">
+      <c r="D37">
+        <f>0.815428957931121+(1.74-0.82)</f>
+        <v>1.7354289579311208</v>
+      </c>
+      <c r="E37">
         <v>0.19347299688351791</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>-2.0233124745552805E-2</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>0.13812294761928784</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>0.16450526223325981</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>-2.0465017334610376E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.0023704466433649</v>
       </c>
       <c r="B38">
+        <v>1.9916204466433649</v>
+      </c>
+      <c r="C38">
         <v>0.82663904185617987</v>
       </c>
-      <c r="C38">
+      <c r="D38">
+        <f>0.82663904185618+(1.74-0.82)</f>
+        <v>1.7466390418561799</v>
+      </c>
+      <c r="E38">
         <v>0.18954981019882963</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>-1.3818405411644558E-2</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>0.13868024357085512</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>0.15268655481725579</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>-1.378572708115868E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.0109311888955954</v>
       </c>
       <c r="B39">
+        <v>2.0001811888955956</v>
+      </c>
+      <c r="C39">
         <v>0.84043365053411867</v>
       </c>
-      <c r="C39">
+      <c r="D39">
+        <f>0.840433650534119+(1.74-0.82)</f>
+        <v>1.7604336505341187</v>
+      </c>
+      <c r="E39">
         <v>0.19236365040877101</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>-2.1866112047294273E-2</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>0.12658535030971144</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>0.149751793256169</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <f t="shared" si="1"/>
         <v>-2.1629673995103647E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.0052630874281565</v>
       </c>
       <c r="B40">
+        <v>1.9945130874281565</v>
+      </c>
+      <c r="C40">
         <v>0.79069876679393891</v>
       </c>
-      <c r="C40">
+      <c r="D40">
+        <f>0.790698766793939+(1.74-0.82)</f>
+        <v>1.7106987667939388</v>
+      </c>
+      <c r="E40">
         <v>0.20121394721441019</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>1.335037341980741E-2</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>0.16470474179679107</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.14593678322352857</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <f t="shared" si="1"/>
         <v>1.3280477107701943E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.986010283788195</v>
       </c>
       <c r="B41">
+        <v>1.975260283788195</v>
+      </c>
+      <c r="C41">
         <v>0.77221942913509123</v>
       </c>
-      <c r="C41">
+      <c r="D41">
+        <f>0.772219429135091+(1.74-0.82)</f>
+        <v>1.6922194291350912</v>
+      </c>
+      <c r="E41">
         <v>0.19510269225141139</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>1.8688162401692382E-2</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>0.16575975136387497</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>0.14065097790918643</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>1.8953313884205684E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.0109547040243054</v>
       </c>
       <c r="B42">
+        <v>2.0002047040243056</v>
+      </c>
+      <c r="C42">
         <v>0.81934210436987742</v>
       </c>
-      <c r="C42">
+      <c r="D42">
+        <f>0.819342104369877+(1.74-0.82)</f>
+        <v>1.7393421043698774</v>
+      </c>
+      <c r="E42">
         <v>0.19374087092712386</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>-2.128271272695853E-3</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>0.14932117239117412</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>0.14595226036086972</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <f t="shared" si="1"/>
         <v>-2.1052093276027577E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1.0121330823890826</v>
       </c>
       <c r="B43">
+        <v>2.0013830823890828</v>
+      </c>
+      <c r="C43">
         <v>0.82292550780957407</v>
       </c>
-      <c r="C43">
+      <c r="D43">
+        <f>0.822925507809574+(1.74-0.82)</f>
+        <v>1.742925507809574</v>
+      </c>
+      <c r="E43">
         <v>0.1973227267017888</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>-8.1151521222802558E-3</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>0.14615671610844727</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.15194431398408215</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>-8.017870637253453E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.01443672223939</v>
       </c>
       <c r="B44">
+        <v>2.0036867222393901</v>
+      </c>
+      <c r="C44">
         <v>0.81535714005325488</v>
       </c>
-      <c r="C44">
+      <c r="D44">
+        <f>0.815357140053255+(1.74-0.82)</f>
+        <v>1.7353571400532548</v>
+      </c>
+      <c r="E44">
         <v>0.19153538908287712</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>7.5441931032579623E-3</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>0.1638265163139272</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>0.154582808098196</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>7.4368296591274816E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.0092887840082909</v>
       </c>
       <c r="B45">
+        <v>1.9985387840082909</v>
+      </c>
+      <c r="C45">
         <v>0.84130169202451377</v>
       </c>
-      <c r="C45">
+      <c r="D45">
+        <f>0.841301692024514+(1.74-0.82)</f>
+        <v>1.7613016920245137</v>
+      </c>
+      <c r="E45">
         <v>0.19246839890949724</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>-2.4481306925720092E-2</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>0.13050183578068694</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>0.15766549295431215</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>-2.4255998197557489E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.0138048632898684</v>
       </c>
       <c r="B46">
+        <v>2.0030548632898686</v>
+      </c>
+      <c r="C46">
         <v>0.81638244278360095</v>
       </c>
-      <c r="C46">
+      <c r="D46">
+        <f>0.816382442783601+(1.74-0.82)</f>
+        <v>1.736382442783601</v>
+      </c>
+      <c r="E46">
         <v>0.20765373456438407</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>-1.0231314058116614E-2</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>0.14383889412197437</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>0.1522402256774017</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <f t="shared" si="1"/>
         <v>-1.0091995440735288E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.0116898463800919</v>
       </c>
       <c r="B47">
+        <v>2.000939846380092</v>
+      </c>
+      <c r="C47">
         <v>0.80838327918368513</v>
       </c>
-      <c r="C47">
+      <c r="D47">
+        <f>0.808383279183685+(1.74-0.82)</f>
+        <v>1.7283832791836851</v>
+      </c>
+      <c r="E47">
         <v>0.21763098135115314</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>-1.4324414154746418E-2</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>0.14061860591416167</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>0.15613502163141124</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <f t="shared" si="1"/>
         <v>-1.4158898802830068E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.0095352344548729</v>
       </c>
       <c r="B48">
+        <v>1.9987852344548729</v>
+      </c>
+      <c r="C48">
         <v>0.82688461985519202</v>
       </c>
-      <c r="C48">
+      <c r="D48">
+        <f>0.826884619855192+(1.74-0.82)</f>
+        <v>1.7468846198551922</v>
+      </c>
+      <c r="E48">
         <v>0.21074300507637359</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>-2.809239047669268E-2</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>0.12828615379187983</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>0.16010473313982135</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <f t="shared" si="1"/>
         <v>-2.7827053002129204E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1.0042859611965671</v>
       </c>
       <c r="B49">
+        <v>1.9935359611965671</v>
+      </c>
+      <c r="C49">
         <v>0.82337400702121999</v>
       </c>
-      <c r="C49">
+      <c r="D49">
+        <f>0.82337400702122+(1.74-0.82)</f>
+        <v>1.74337400702122</v>
+      </c>
+      <c r="E49">
         <v>0.2082394200261731</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>-2.7327465850825988E-2</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>0.12850212866760313</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>0.15903660336753087</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <f t="shared" si="1"/>
         <v>-2.7210841241140513E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.99475859520436316</v>
       </c>
       <c r="B50">
+        <v>1.9840085952043631</v>
+      </c>
+      <c r="C50">
         <v>0.83800022291643594</v>
       </c>
-      <c r="C50">
+      <c r="D50">
+        <f>0.838000222916436+(1.74-0.82)</f>
+        <v>1.758000222916436</v>
+      </c>
+      <c r="E50">
         <v>0.19193243292663575</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>-3.5174060638708537E-2</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>0.10812495373991746</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>0.14362030953817095</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <f t="shared" si="1"/>
         <v>-3.5359393533546078E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1.0078678401254795</v>
       </c>
       <c r="B51">
+        <v>1.9971178401254794</v>
+      </c>
+      <c r="C51">
         <v>0.83866130409533513</v>
       </c>
-      <c r="C51">
+      <c r="D51">
+        <f>0.838661304095335+(1.74-0.82)</f>
+        <v>1.7586613040953352</v>
+      </c>
+      <c r="E51">
         <v>0.20017319764933872</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>-3.0966661619194369E-2</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>0.11573226223633254</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>0.14491175677898979</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <f t="shared" si="1"/>
         <v>-3.072492283843388E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.0105986699904008</v>
       </c>
       <c r="B52">
+        <v>1.9998486699904008</v>
+      </c>
+      <c r="C52">
         <v>0.80274890828900691</v>
       </c>
-      <c r="C52">
+      <c r="D52">
+        <f>0.802748908289007+(1.74-0.82)</f>
+        <v>1.7227489082890068</v>
+      </c>
+      <c r="E52">
         <v>0.20604348064498967</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>1.8062810564042353E-3</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>0.15300549807416525</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>0.14918092651929094</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <f t="shared" si="1"/>
         <v>1.7873376544433729E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.99936940448038314</v>
       </c>
       <c r="B53">
+        <v>1.9886194044803831</v>
+      </c>
+      <c r="C53">
         <v>0.80883993363063778</v>
       </c>
-      <c r="C53">
+      <c r="D53">
+        <f>0.808839933630638+(1.74-0.82)</f>
+        <v>1.7288399336306379</v>
+      </c>
+      <c r="E53">
         <v>0.19117815568852214</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>-6.4868483877678074E-4</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>0.14224166054419146</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>0.13465010829918589</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <f t="shared" si="1"/>
         <v>-6.490941546425078E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.0162943545600918</v>
       </c>
       <c r="B54">
+        <v>2.0055443545600919</v>
+      </c>
+      <c r="C54">
         <v>0.82881767304561615</v>
       </c>
-      <c r="C54">
+      <c r="D54">
+        <f>0.828817673045616+(1.74-0.82)</f>
+        <v>1.7488176730456162</v>
+      </c>
+      <c r="E54">
         <v>0.19932256252549369</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>-1.1845881011018078E-2</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>0.14925005833320351</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>0.16654983808873758</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <f t="shared" si="1"/>
         <v>-1.1655954751559776E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1.0046647498638368</v>
       </c>
       <c r="B55">
+        <v>1.9939147498638368</v>
+      </c>
+      <c r="C55">
         <v>0.81309996672265927</v>
       </c>
-      <c r="C55">
+      <c r="D55">
+        <f>0.813099966722659+(1.74-0.82)</f>
+        <v>1.7330999667226594</v>
+      </c>
+      <c r="E55">
         <v>0.18581151514698604</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>5.7532679941914855E-3</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>0.15108960889958256</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>0.14286046744636982</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <f t="shared" si="1"/>
         <v>5.7265550473142727E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.99725261266564758</v>
       </c>
       <c r="B56">
+        <v>1.9865026126656475</v>
+      </c>
+      <c r="C56">
         <v>0.8206773789918016</v>
       </c>
-      <c r="C56">
+      <c r="D56">
+        <f>0.820677378991802+(1.74-0.82)</f>
+        <v>1.7406773789918017</v>
+      </c>
+      <c r="E56">
         <v>0.17937594746125235</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>-2.8007137874063726E-3</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>0.13782758143120385</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>0.13549187272215402</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <f t="shared" si="1"/>
         <v>-2.8084296314051151E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.99450540068145266</v>
       </c>
       <c r="B57">
+        <v>1.9837554006814526</v>
+      </c>
+      <c r="C57">
         <v>0.80901087213744116</v>
       </c>
-      <c r="C57">
+      <c r="D57">
+        <f>0.809010872137441+(1.74-0.82)</f>
+        <v>1.7290108721374411</v>
+      </c>
+      <c r="E57">
         <v>0.17756913437376312</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>7.9253941702483732E-3</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>0.13418936970764214</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>0.10764553535026437</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <f t="shared" si="1"/>
         <v>7.9691816302030673E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.97328034232133476</v>
       </c>
       <c r="B58">
+        <v>1.9625303423213347</v>
+      </c>
+      <c r="C58">
         <v>0.80249595734565116</v>
       </c>
-      <c r="C58">
+      <c r="D58">
+        <f>0.802495957345651+(1.74-0.82)</f>
+        <v>1.7224959573456511</v>
+      </c>
+      <c r="E58">
         <v>0.16218120147337425</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>8.6031835023093473E-3</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>0.13988960881580945</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>0.12728161380184311</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <f t="shared" si="1"/>
         <v>8.8393684000544117E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.0086085811867509</v>
       </c>
       <c r="B59">
+        <v>1.9978585811867509</v>
+      </c>
+      <c r="C59">
         <v>0.83025898297345446</v>
       </c>
-      <c r="C59">
+      <c r="D59">
+        <f>0.830258982973454+(1.74-0.82)</f>
+        <v>1.7502589829734545</v>
+      </c>
+      <c r="E59">
         <v>0.16221171982333144</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>1.6137878389964999E-2</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>0.14602908176066323</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>0.12359786201173077</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <f t="shared" si="1"/>
         <v>1.6000139886750534E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.96713192304290097</v>
       </c>
       <c r="B60">
+        <v>1.9563819230429009</v>
+      </c>
+      <c r="C60">
         <v>0.77270764498769384</v>
       </c>
-      <c r="C60">
+      <c r="D60">
+        <f>0.772707644987694+(1.74-0.82)</f>
+        <v>1.6927076449876939</v>
+      </c>
+      <c r="E60">
         <v>0.16580895240621477</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>2.8615325648992357E-2</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>0.14919918223736134</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>0.11190853360660812</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <f t="shared" si="1"/>
         <v>2.9587820407126621E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.99966540598149045</v>
       </c>
       <c r="B61">
+        <v>1.9889154059814904</v>
+      </c>
+      <c r="C61">
         <v>0.81766281549713771</v>
       </c>
-      <c r="C61">
+      <c r="D61">
+        <f>0.817662815497138+(1.74-0.82)</f>
+        <v>1.7376628154971376</v>
+      </c>
+      <c r="E61">
         <v>0.15627130582256488</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>2.5731284661787868E-2</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>0.15278195832728425</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>0.12531875406268261</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <f t="shared" si="1"/>
         <v>2.5739897077387011E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98727447104913857</v>
       </c>
       <c r="B62">
+        <v>1.9765244710491385</v>
+      </c>
+      <c r="C62">
         <v>0.8137893685603913</v>
       </c>
-      <c r="C62">
+      <c r="D62">
+        <f>0.813789368560391+(1.74-0.82)</f>
+        <v>1.7337893685603913</v>
+      </c>
+      <c r="E62">
         <v>0.15882249588521619</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>1.4662606603531081E-2</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>0.14527690670137985</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>0.13030338139730005</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <f t="shared" si="1"/>
         <v>1.4851601083080467E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98822995487133092</v>
       </c>
       <c r="B63">
+        <v>1.9774799548713309</v>
+      </c>
+      <c r="C63">
         <v>0.81575140917937639</v>
       </c>
-      <c r="C63">
+      <c r="D63">
+        <f>0.815751409179376+(1.74-0.82)</f>
+        <v>1.7357514091793764</v>
+      </c>
+      <c r="E63">
         <v>0.15887862874177264</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>1.3599916950181895E-2</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>0.14780089444063016</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>0.13670373881393263</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <f t="shared" si="1"/>
         <v>1.3761895076285788E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98164239675575082</v>
       </c>
       <c r="B64">
+        <v>1.9708923967557508</v>
+      </c>
+      <c r="C64">
         <v>0.81473556110539835</v>
       </c>
-      <c r="C64">
+      <c r="D64">
+        <f>0.814735561105398+(1.74-0.82)</f>
+        <v>1.7347355611053983</v>
+      </c>
+      <c r="E64">
         <v>0.16966067655430195</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>-2.7538409039494782E-3</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>0.14737486575909356</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>0.15696350412056745</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <f t="shared" si="1"/>
         <v>-2.8053402267981709E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98050187659570121</v>
       </c>
       <c r="B65">
+        <v>1.9697518765957012</v>
+      </c>
+      <c r="C65">
         <v>0.80472373202056202</v>
       </c>
-      <c r="C65">
+      <c r="D65">
+        <f>0.804723732020562+(1.74-0.82)</f>
+        <v>1.724723732020562</v>
+      </c>
+      <c r="E65">
         <v>0.17581378279050286</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>-3.563821536367584E-5</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>0.14739561427004577</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>0.15236357261177866</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <f t="shared" si="1"/>
         <v>-3.634691193800831E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.99790576983397195</v>
       </c>
       <c r="B66">
+        <v>1.9871557698339719</v>
+      </c>
+      <c r="C66">
         <v>0.78770070781083013</v>
       </c>
-      <c r="C66">
+      <c r="D66">
+        <f>0.78770070781083+(1.74-0.82)</f>
+        <v>1.7077007078108302</v>
+      </c>
+      <c r="E66">
         <v>0.20500479283397324</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>5.2002691891685771E-3</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>0.16178250106221995</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>0.16676062199488575</v>
       </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G97" si="2">+D66/A66</f>
+      <c r="I66">
+        <f t="shared" ref="I66:I97" si="2">+F66/A66</f>
         <v>5.2111826049806081E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.99345574030920503</v>
       </c>
       <c r="B67">
+        <v>1.982705740309205</v>
+      </c>
+      <c r="C67">
         <v>0.79838562973419913</v>
       </c>
-      <c r="C67">
+      <c r="D67">
+        <f>0.798385629734199+(1.74-0.82)</f>
+        <v>1.7183856297341991</v>
+      </c>
+      <c r="E67">
         <v>0.20845359795583412</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>-1.338348738082823E-2</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>0.14711929542026136</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>0.16774769749574875</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <f t="shared" si="2"/>
         <v>-1.3471649352655336E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.99562737123098621</v>
       </c>
       <c r="B68">
+        <v>1.9848773712309862</v>
+      </c>
+      <c r="C68">
         <v>0.80397324384840674</v>
       </c>
-      <c r="C68">
+      <c r="D68">
+        <f>0.803973243848407+(1.74-0.82)</f>
+        <v>1.7239732438484068</v>
+      </c>
+      <c r="E68">
         <v>0.19731501338095411</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>-5.6608859983746374E-3</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>0.14253094656899556</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>0.1512603116925299</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <f t="shared" si="2"/>
         <v>-5.6857476621756196E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.9918636797719298</v>
       </c>
       <c r="B69">
+        <v>1.9811136797719298</v>
+      </c>
+      <c r="C69">
         <v>0.79251645047515895</v>
       </c>
-      <c r="C69">
+      <c r="D69">
+        <f>0.792516450475159+(1.74-0.82)</f>
+        <v>1.7125164504751589</v>
+      </c>
+      <c r="E69">
         <v>0.20631866928486903</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>-6.9714399880981825E-3</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>0.15047145675793205</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>0.16367503035356826</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <f t="shared" si="2"/>
         <v>-7.0286271493489941E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.99263008164669486</v>
       </c>
       <c r="B70">
+        <v>1.9818800816466948</v>
+      </c>
+      <c r="C70">
         <v>0.80763369293584697</v>
       </c>
-      <c r="C70">
+      <c r="D70">
+        <f>0.807633692935847+(1.74-0.82)</f>
+        <v>1.7276336929358469</v>
+      </c>
+      <c r="E70">
         <v>0.21485405800675461</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>-2.9857669295906719E-2</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>0.12631796627028893</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>0.162303186496499</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <f t="shared" si="2"/>
         <v>-3.0079351661774348E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.99981442627439243</v>
       </c>
       <c r="B71">
+        <v>1.9890644262743924</v>
+      </c>
+      <c r="C71">
         <v>0.81478535238385519</v>
       </c>
-      <c r="C71">
+      <c r="D71">
+        <f>0.814785352383855+(1.74-0.82)</f>
+        <v>1.7347853523838552</v>
+      </c>
+      <c r="E71">
         <v>0.21910236360527291</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>-3.4073289714735666E-2</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>0.12808636325904185</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>0.1684447991514921</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <f t="shared" si="2"/>
         <v>-3.4079613995672109E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1.0100431837391319</v>
       </c>
       <c r="B72">
+        <v>1.9992931837391319</v>
+      </c>
+      <c r="C72">
         <v>0.8254730603260555</v>
       </c>
-      <c r="C72">
+      <c r="D72">
+        <f>0.825473060326055+(1.74-0.82)</f>
+        <v>1.7454730603260555</v>
+      </c>
+      <c r="E72">
         <v>0.22420430979475919</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>-3.9634186381682757E-2</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>0.12932811701263</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>0.17509208959208009</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <f t="shared" si="2"/>
         <v>-3.9240090938447679E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1.0041970368260742</v>
       </c>
       <c r="B73">
+        <v>1.9934470368260742</v>
+      </c>
+      <c r="C73">
         <v>0.81621750633183299</v>
       </c>
-      <c r="C73">
+      <c r="D73">
+        <f>0.816217506331833+(1.74-0.82)</f>
+        <v>1.736217506331833</v>
+      </c>
+      <c r="E73">
         <v>0.21682245954294077</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>-2.8842929048699562E-2</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>0.13360967037169499</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>0.16672428830965424</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <f t="shared" si="2"/>
         <v>-2.8722380161429539E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.0143842169856203</v>
       </c>
       <c r="B74">
+        <v>2.0036342169856205</v>
+      </c>
+      <c r="C74">
         <v>0.83833538519866468</v>
       </c>
-      <c r="C74">
+      <c r="D74">
+        <f>0.838335385198665+(1.74-0.82)</f>
+        <v>1.7583353851986647</v>
+      </c>
+      <c r="E74">
         <v>0.21195151115759361</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>-3.5902679370637985E-2</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>0.1236406989704202</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>0.1626825723199026</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <f t="shared" si="2"/>
         <v>-3.5393570571639658E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1.0171598549940839</v>
       </c>
       <c r="B75">
+        <v>2.0064098549940841</v>
+      </c>
+      <c r="C75">
         <v>0.83838157996546714</v>
       </c>
-      <c r="C75">
+      <c r="D75">
+        <f>0.838381579965467+(1.74-0.82)</f>
+        <v>1.7583815799654672</v>
+      </c>
+      <c r="E75">
         <v>0.21075864622230697</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>-3.198037119369021E-2</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>0.13030105968518799</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>0.16377585175172898</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <f t="shared" si="2"/>
         <v>-3.1440850753863284E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.0133084739219225</v>
       </c>
       <c r="B76">
+        <v>2.0025584739219227</v>
+      </c>
+      <c r="C76">
         <v>0.8308555547294042</v>
       </c>
-      <c r="C76">
+      <c r="D76">
+        <f>0.830855554729404+(1.74-0.82)</f>
+        <v>1.7508555547294042</v>
+      </c>
+      <c r="E76">
         <v>0.20633434611891271</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>-2.3881426926394445E-2</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>0.13451312701060469</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>0.15857636036767325</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <f t="shared" si="2"/>
         <v>-2.3567775796804951E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.0222151720644543</v>
       </c>
       <c r="B77">
+        <v>2.0114651720644545</v>
+      </c>
+      <c r="C77">
         <v>0.83397068676982067</v>
       </c>
-      <c r="C77">
+      <c r="D77">
+        <f>0.833970686769821+(1.74-0.82)</f>
+        <v>1.7539706867698208</v>
+      </c>
+      <c r="E77">
         <v>0.21114092656833341</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>-2.2896441273699747E-2</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>0.13511559932574177</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>0.15828772048760936</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <f t="shared" si="2"/>
         <v>-2.2398847032820253E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1.0128283788381651</v>
       </c>
       <c r="B78">
+        <v>2.0020783788381653</v>
+      </c>
+      <c r="C78">
         <v>0.81492741734551499</v>
       </c>
-      <c r="C78">
+      <c r="D78">
+        <f>0.814927417345515+(1.74-0.82)</f>
+        <v>1.7349274173455149</v>
+      </c>
+      <c r="E78">
         <v>0.20984413716375883</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>-1.1943175671108697E-2</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>0.14224829143837467</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>0.15400486892355941</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <f t="shared" si="2"/>
         <v>-1.1791904651021867E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.0109090262287417</v>
       </c>
       <c r="B79">
+        <v>2.0001590262287419</v>
+      </c>
+      <c r="C79">
         <v>0.81659170853215002</v>
       </c>
-      <c r="C79">
+      <c r="D79">
+        <f>0.81659170853215+(1.74-0.82)</f>
+        <v>1.7365917085321501</v>
+      </c>
+      <c r="E79">
         <v>0.20825608583883332</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>-1.3938768142241653E-2</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>0.14020360352841696</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>0.15297571609874527</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <f t="shared" si="2"/>
         <v>-1.3788350663205655E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1.0087902678681751</v>
       </c>
       <c r="B80">
+        <v>1.998040267868175</v>
+      </c>
+      <c r="C80">
         <v>0.82375044415555687</v>
       </c>
-      <c r="C80">
+      <c r="D80">
+        <f>0.823750444155557+(1.74-0.82)</f>
+        <v>1.7437504441555569</v>
+      </c>
+      <c r="E80">
         <v>0.20662968628678985</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>-2.158986257417167E-2</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>0.13619682091405674</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>0.15547889873136683</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <f t="shared" si="2"/>
         <v>-2.1401735585530997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.0064093674606216</v>
       </c>
       <c r="B81">
+        <v>1.9956593674606216</v>
+      </c>
+      <c r="C81">
         <v>0.82279493978391804</v>
       </c>
-      <c r="C81">
+      <c r="D81">
+        <f>0.822794939783918+(1.74-0.82)</f>
+        <v>1.7427949397839182</v>
+      </c>
+      <c r="E81">
         <v>0.20442446242494691</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>-2.0810034748243361E-2</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>0.13880984664185167</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>0.1562397419340622</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <f t="shared" si="2"/>
         <v>-2.0677505020398779E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.99917005153652383</v>
       </c>
       <c r="B82">
+        <v>1.9884200515365238</v>
+      </c>
+      <c r="C82">
         <v>0.8212238488184096</v>
       </c>
-      <c r="C82">
+      <c r="D82">
+        <f>0.82122384881841+(1.74-0.82)</f>
+        <v>1.7412238488184095</v>
+      </c>
+      <c r="E82">
         <v>0.19341355077746258</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>-1.5467348059348351E-2</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>0.13451665504690707</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>0.14579448920146049</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <f t="shared" si="2"/>
         <v>-1.5480195824086863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1.0288863719360286</v>
       </c>
       <c r="B83">
+        <v>2.0181363719360288</v>
+      </c>
+      <c r="C83">
         <v>0.84397408429829412</v>
       </c>
-      <c r="C83">
+      <c r="D83">
+        <f>0.843974084298294+(1.74-0.82)</f>
+        <v>1.7639740842982943</v>
+      </c>
+      <c r="E83">
         <v>0.20796025987620292</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>-2.3047972238468439E-2</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>0.14010237550435109</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>0.15858753707337059</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <f t="shared" si="2"/>
         <v>-2.2400891747744379E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.0333045423658138</v>
       </c>
       <c r="B84">
+        <v>2.022554542365814</v>
+      </c>
+      <c r="C84">
         <v>0.84506205252122946</v>
       </c>
-      <c r="C84">
+      <c r="D84">
+        <f>0.845062052521229+(1.74-0.82)</f>
+        <v>1.7650620525212295</v>
+      </c>
+      <c r="E84">
         <v>0.21848291540337572</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>-3.0240425558791362E-2</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>0.14092464407449889</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>0.16619381653440232</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <f t="shared" si="2"/>
         <v>-2.9265743368894963E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1.0394155618061696</v>
       </c>
       <c r="B85">
+        <v>2.0286655618061697</v>
+      </c>
+      <c r="C85">
         <v>0.8504283064311422</v>
       </c>
-      <c r="C85">
+      <c r="D85">
+        <f>0.850428306431142+(1.74-0.82)</f>
+        <v>1.7704283064311421</v>
+      </c>
+      <c r="E85">
         <v>0.23229119330025411</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>-4.3303937925226743E-2</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>0.13699076685738806</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>0.1750969221311604</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <f t="shared" si="2"/>
         <v>-4.166181411598114E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1.04148683411211</v>
       </c>
       <c r="B86">
+        <v>2.0307368341121101</v>
+      </c>
+      <c r="C86">
         <v>0.84909633191519895</v>
       </c>
-      <c r="C86">
+      <c r="D86">
+        <f>0.849096331915199+(1.74-0.82)</f>
+        <v>1.7690963319151991</v>
+      </c>
+      <c r="E86">
         <v>0.23299469714923277</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>-4.0604194952321759E-2</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>0.13649932172364776</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>0.17165864118672647</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <f t="shared" si="2"/>
         <v>-3.8986757798947801E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1.0404646195979783</v>
       </c>
       <c r="B87">
+        <v>2.0297146195979785</v>
+      </c>
+      <c r="C87">
         <v>0.83579557635716728</v>
       </c>
-      <c r="C87">
+      <c r="D87">
+        <f>0.835795576357167+(1.74-0.82)</f>
+        <v>1.7557955763571673</v>
+      </c>
+      <c r="E87">
         <v>0.23445179259582011</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>-2.9782749355009075E-2</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>0.14146450700844038</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>0.16576482436150072</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <f t="shared" si="2"/>
         <v>-2.8624471023836192E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1.0150976511913328</v>
       </c>
       <c r="B88">
+        <v>2.004347651191333</v>
+      </c>
+      <c r="C88">
         <v>0.8260781472430031</v>
       </c>
-      <c r="C88">
+      <c r="D88">
+        <f>0.826078147243003+(1.74-0.82)</f>
+        <v>1.7460781472430031</v>
+      </c>
+      <c r="E88">
         <v>0.20934649380436832</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>-2.0326989856038646E-2</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>0.14403100534879057</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>0.15827529500102175</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <f t="shared" si="2"/>
         <v>-2.0024664456845712E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98734034028146311</v>
       </c>
       <c r="B89">
+        <v>1.9765903402814631</v>
+      </c>
+      <c r="C89">
         <v>0.79816422209723192</v>
       </c>
-      <c r="C89">
+      <c r="D89">
+        <f>0.798164222097232+(1.74-0.82)</f>
+        <v>1.718164222097232</v>
+      </c>
+      <c r="E89">
         <v>0.18839475725375587</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>7.8136093047531663E-4</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>0.14561704065507733</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>0.14047196867867423</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <f t="shared" si="2"/>
         <v>7.913795259824717E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.97417288185202544</v>
       </c>
       <c r="B90">
+        <v>1.9634228818520254</v>
+      </c>
+      <c r="C90">
         <v>0.79042276551907165</v>
       </c>
-      <c r="C90">
+      <c r="D90">
+        <f>0.790422765519072+(1.74-0.82)</f>
+        <v>1.7104227655190716</v>
+      </c>
+      <c r="E90">
         <v>0.16835265678005559</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>1.5397459552898202E-2</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>0.14343472653751974</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>0.12585439215698682</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <f t="shared" si="2"/>
         <v>1.5805674577622907E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.96396656624098753</v>
       </c>
       <c r="B91">
+        <v>1.9532165662409875</v>
+      </c>
+      <c r="C91">
         <v>0.78290799050046733</v>
       </c>
-      <c r="C91">
+      <c r="D91">
+        <f>0.782907990500467+(1.74-0.82)</f>
+        <v>1.7029079905004674</v>
+      </c>
+      <c r="E91">
         <v>0.15394094376669357</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>2.7117631973826634E-2</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>0.14373972309657967</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>0.11745493358352818</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <f t="shared" si="2"/>
         <v>2.813129928309914E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.97680965868767444</v>
       </c>
       <c r="B92">
+        <v>1.9660596586876744</v>
+      </c>
+      <c r="C92">
         <v>0.79492419498051281</v>
       </c>
-      <c r="C92">
+      <c r="D92">
+        <f>0.794924194980513+(1.74-0.82)</f>
+        <v>1.714924194980513</v>
+      </c>
+      <c r="E92">
         <v>0.15409194509470051</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>2.7793518612461127E-2</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>0.14540446930633444</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>0.12016856019422389</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <f t="shared" si="2"/>
         <v>2.8453361783708404E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.97394271413145539</v>
       </c>
       <c r="B93">
+        <v>1.9631927141314554</v>
+      </c>
+      <c r="C93">
         <v>0.81130616416040602</v>
       </c>
-      <c r="C93">
+      <c r="D93">
+        <f>0.811306164160406+(1.74-0.82)</f>
+        <v>1.7313061641604062</v>
+      </c>
+      <c r="E93">
         <v>0.13615732402664249</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>2.6479225944406881E-2</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>0.14333293798500807</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>0.12833296859962046</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <f t="shared" si="2"/>
         <v>2.7187662641966145E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.99146458372667468</v>
       </c>
       <c r="B94">
+        <v>1.9807145837266746</v>
+      </c>
+      <c r="C94">
         <v>0.81282206423502523</v>
       </c>
-      <c r="C94">
+      <c r="D94">
+        <f>0.812822064235025+(1.74-0.82)</f>
+        <v>1.7328220642350254</v>
+      </c>
+      <c r="E94">
         <v>0.16327937639723472</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>1.5363143094414722E-2</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>0.14636896359913237</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>0.13543568233908151</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <f t="shared" si="2"/>
         <v>1.5495402807701307E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.98912120199896236</v>
       </c>
       <c r="B95">
+        <v>1.9783712019989623</v>
+      </c>
+      <c r="C95">
         <v>0.81587287156483945</v>
       </c>
-      <c r="C95">
+      <c r="D95">
+        <f>0.815872871564839+(1.74-0.82)</f>
+        <v>1.7358728715648395</v>
+      </c>
+      <c r="E95">
         <v>0.16537623438823201</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>7.8720960458908973E-3</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>0.14169072740963379</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>0.13797141387466549</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <f t="shared" si="2"/>
         <v>7.9586768840682037E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.99161546243514742</v>
       </c>
       <c r="B96">
+        <v>1.9808654624351474</v>
+      </c>
+      <c r="C96">
         <v>0.81816142617220378</v>
       </c>
-      <c r="C96">
+      <c r="D96">
+        <f>0.818161426172204+(1.74-0.82)</f>
+        <v>1.7381614261722038</v>
+      </c>
+      <c r="E96">
         <v>0.16794431894716755</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>5.509717315776097E-3</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>0.14068765797599694</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>0.13919587554798621</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <f t="shared" si="2"/>
         <v>5.5563043583907786E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.98673198658701899</v>
       </c>
       <c r="B97">
+        <v>1.975981986587019</v>
+      </c>
+      <c r="C97">
         <v>0.81767044846589643</v>
       </c>
-      <c r="C97">
+      <c r="D97">
+        <f>0.817670448465896+(1.74-0.82)</f>
+        <v>1.7376704484658965</v>
+      </c>
+      <c r="E97">
         <v>0.1617974744425324</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>7.2640636785901713E-3</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>0.14351715614040733</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>0.14389732571582767</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <f t="shared" si="2"/>
         <v>7.3617393348275328E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.98980545422181088</v>
       </c>
       <c r="B98">
+        <v>1.9790554542218108</v>
+      </c>
+      <c r="C98">
         <v>0.82116978172336752</v>
       </c>
-      <c r="C98">
+      <c r="D98">
+        <f>0.821169781723368+(1.74-0.82)</f>
+        <v>1.7411697817233676</v>
+      </c>
+      <c r="E98">
         <v>0.17161035707590808</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>-2.9746845774647201E-3</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>0.1435939283233576</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>0.15224662360301452</v>
       </c>
-      <c r="G98">
-        <f t="shared" ref="G98:G129" si="3">+D98/A98</f>
+      <c r="I98">
+        <f t="shared" ref="I98:I129" si="3">+F98/A98</f>
         <v>-3.005322475014476E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.9875732605515104</v>
       </c>
       <c r="B99">
+        <v>1.9768232605515104</v>
+      </c>
+      <c r="C99">
         <v>0.81699433901789886</v>
       </c>
-      <c r="C99">
+      <c r="D99">
+        <f>0.816994339017899+(1.74-0.82)</f>
+        <v>1.7369943390178988</v>
+      </c>
+      <c r="E99">
         <v>0.18412026266023895</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <v>-1.3541341126627415E-2</v>
       </c>
-      <c r="E99">
+      <c r="G99">
         <v>0.13931142184656786</v>
       </c>
-      <c r="F99">
+      <c r="H99">
         <v>0.15441712516736367</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <f t="shared" si="3"/>
         <v>-1.3711733263277352E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.99041389108451305</v>
       </c>
       <c r="B100">
+        <v>1.979663891084513</v>
+      </c>
+      <c r="C100">
         <v>0.80355023242186419</v>
       </c>
-      <c r="C100">
+      <c r="D100">
+        <f>0.803550232421864+(1.74-0.82)</f>
+        <v>1.7235502324218643</v>
+      </c>
+      <c r="E100">
         <v>0.19054533134730042</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <v>-3.6816726846515546E-3</v>
       </c>
-      <c r="E100">
+      <c r="G100">
         <v>0.14488603828113866</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>0.14910776821932167</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <f t="shared" si="3"/>
         <v>-3.7173071963076836E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.99060466042223538</v>
       </c>
       <c r="B101">
+        <v>1.9798546604222353</v>
+      </c>
+      <c r="C101">
         <v>0.81124787851521607</v>
       </c>
-      <c r="C101">
+      <c r="D101">
+        <f>0.811247878515216+(1.74-0.82)</f>
+        <v>1.7312478785152161</v>
+      </c>
+      <c r="E101">
         <v>0.18602990482186998</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>-6.673122914850671E-3</v>
       </c>
-      <c r="E101">
+      <c r="G101">
         <v>0.13858652091634988</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>0.14579457891576869</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <f t="shared" si="3"/>
         <v>-6.7364138101332158E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97516424710084415</v>
       </c>
       <c r="B102">
+        <v>1.9644142471008441</v>
+      </c>
+      <c r="C102">
         <v>0.79349368898277672</v>
       </c>
-      <c r="C102">
+      <c r="D102">
+        <f>0.793493688982777+(1.74-0.82)</f>
+        <v>1.7134936889827768</v>
+      </c>
+      <c r="E102">
         <v>0.17843468935085305</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <v>3.2358687672143782E-3</v>
       </c>
-      <c r="E102">
+      <c r="G102">
         <v>0.13773239484967675</v>
       </c>
-      <c r="F102">
+      <c r="H102">
         <v>0.13555869424919961</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <f t="shared" si="3"/>
         <v>3.3182807684291045E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.0018348198690195</v>
       </c>
       <c r="B103">
+        <v>1.9910848198690194</v>
+      </c>
+      <c r="C103">
         <v>0.81389766519996154</v>
       </c>
-      <c r="C103">
+      <c r="D103">
+        <f>0.813897665199962+(1.74-0.82)</f>
+        <v>1.7338976651999616</v>
+      </c>
+      <c r="E103">
         <v>0.20596474367957401</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <v>-1.8027589010516099E-2</v>
       </c>
-      <c r="E103">
+      <c r="G103">
         <v>0.13396700874136311</v>
       </c>
-      <c r="F103">
+      <c r="H103">
         <v>0.14790113278917533</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <f t="shared" si="3"/>
         <v>-1.7994572211887223E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.9903839407989512</v>
       </c>
       <c r="B104">
+        <v>1.9796339407989512</v>
+      </c>
+      <c r="C104">
         <v>0.81674827013896112</v>
       </c>
-      <c r="C104">
+      <c r="D104">
+        <f>0.816748270138961+(1.74-0.82)</f>
+        <v>1.7367482701389612</v>
+      </c>
+      <c r="E104">
         <v>0.19743231973024344</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>-2.3796649070253362E-2</v>
       </c>
-      <c r="E104">
+      <c r="G104">
         <v>0.12743515353076518</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>0.14830403710333404</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <f t="shared" si="3"/>
         <v>-2.4027700864228878E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.98462012137793664</v>
       </c>
       <c r="B105">
+        <v>1.9738701213779366</v>
+      </c>
+      <c r="C105">
         <v>0.80940784879105154</v>
       </c>
-      <c r="C105">
+      <c r="D105">
+        <f>0.809407848791052+(1.74-0.82)</f>
+        <v>1.7294078487910516</v>
+      </c>
+      <c r="E105">
         <v>0.19562742805498018</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>-2.0415155468095081E-2</v>
       </c>
-      <c r="E105">
+      <c r="G105">
         <v>0.13043653747750483</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>0.14847690587274573</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <f t="shared" si="3"/>
         <v>-2.0734042525481691E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.98372634984856688</v>
       </c>
       <c r="B106">
+        <v>1.9729763498485668</v>
+      </c>
+      <c r="C106">
         <v>0.80921599717871961</v>
       </c>
-      <c r="C106">
+      <c r="D106">
+        <f>0.80921599717872+(1.74-0.82)</f>
+        <v>1.7292159971787195</v>
+      </c>
+      <c r="E106">
         <v>0.20024374814528065</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>-2.5733395475433379E-2</v>
       </c>
-      <c r="E106">
+      <c r="G106">
         <v>0.12779038588461339</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>0.15013674807342145</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <f t="shared" si="3"/>
         <v>-2.6159099509121347E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.9908720098167727</v>
       </c>
       <c r="B107">
+        <v>1.9801220098167727</v>
+      </c>
+      <c r="C107">
         <v>0.79993366727365089</v>
       </c>
-      <c r="C107">
+      <c r="D107">
+        <f>0.799933667273651+(1.74-0.82)</f>
+        <v>1.7199336672736509</v>
+      </c>
+      <c r="E107">
         <v>0.20125072212158887</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <v>-1.0312379578467062E-2</v>
       </c>
-      <c r="E107">
+      <c r="G107">
         <v>0.13438932463923953</v>
       </c>
-      <c r="F107">
+      <c r="H107">
         <v>0.14139220247910472</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <f t="shared" si="3"/>
         <v>-1.0407378022893167E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.99261404997770519</v>
       </c>
       <c r="B108">
+        <v>1.9818640499777052</v>
+      </c>
+      <c r="C108">
         <v>0.80471310272696006</v>
       </c>
-      <c r="C108">
+      <c r="D108">
+        <f>0.80471310272696+(1.74-0.82)</f>
+        <v>1.7247131027269602</v>
+      </c>
+      <c r="E108">
         <v>0.19122113789873493</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>-3.3201906479898013E-3</v>
       </c>
-      <c r="E108">
+      <c r="G108">
         <v>0.14504010942317361</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>0.14950444670347876</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <f t="shared" si="3"/>
         <v>-3.344895881802575E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.99454390409132287</v>
       </c>
       <c r="B109">
+        <v>1.9837939040913228</v>
+      </c>
+      <c r="C109">
         <v>0.80487444533903563</v>
       </c>
-      <c r="C109">
+      <c r="D109">
+        <f>0.804874445339036+(1.74-0.82)</f>
+        <v>1.7248744453390357</v>
+      </c>
+      <c r="E109">
         <v>0.20787511738168377</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>-1.8205658629396521E-2</v>
       </c>
-      <c r="E109">
+      <c r="G109">
         <v>0.13292400562538362</v>
       </c>
-      <c r="F109">
+      <c r="H109">
         <v>0.14745635457449802</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <f t="shared" si="3"/>
         <v>-1.8305535386122888E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1.0022243754564588</v>
       </c>
       <c r="B110">
+        <v>1.9914743754564588</v>
+      </c>
+      <c r="C110">
         <v>0.81054773763000609</v>
       </c>
-      <c r="C110">
+      <c r="D110">
+        <f>0.810547737630006+(1.74-0.82)</f>
+        <v>1.730547737630006</v>
+      </c>
+      <c r="E110">
         <v>0.20460907675718962</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>-1.2932438930736895E-2</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>0.13825810257724633</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>0.14892829848555644</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <f t="shared" si="3"/>
         <v>-1.2903736176688848E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.99053577258163727</v>
       </c>
       <c r="B111">
+        <v>1.9797857725816372</v>
+      </c>
+      <c r="C111">
         <v>0.80375520961212454</v>
       </c>
-      <c r="C111">
+      <c r="D111">
+        <f>0.803755209612125+(1.74-0.82)</f>
+        <v>1.7237552096121247</v>
+      </c>
+      <c r="E111">
         <v>0.19406028891808724</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>-7.2797259485745114E-3</v>
       </c>
-      <c r="E111">
+      <c r="G111">
         <v>0.14018138109761158</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>0.14708778492201363</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <f t="shared" si="3"/>
         <v>-7.3492812173772716E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.99044123441004572</v>
       </c>
       <c r="B112">
+        <v>1.9796912344100457</v>
+      </c>
+      <c r="C112">
         <v>0.79460181911811267</v>
       </c>
-      <c r="C112">
+      <c r="D112">
+        <f>0.794601819118113+(1.74-0.82)</f>
+        <v>1.7146018191181127</v>
+      </c>
+      <c r="E112">
         <v>0.19938493604898391</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>-3.5455207570508629E-3</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>0.14100852079117496</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>0.14384672908711754</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <f t="shared" si="3"/>
         <v>-3.5797386395799093E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.009648118300289</v>
       </c>
       <c r="B113">
+        <v>1.998898118300289</v>
+      </c>
+      <c r="C113">
         <v>0.81691521364972552</v>
       </c>
-      <c r="C113">
+      <c r="D113">
+        <f>0.816915213649726+(1.74-0.82)</f>
+        <v>1.7369152136497257</v>
+      </c>
+      <c r="E113">
         <v>0.20845945080072087</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>-1.5726546150157394E-2</v>
       </c>
-      <c r="E113">
+      <c r="G113">
         <v>0.14053948975854341</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>0.15444891477977379</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <f t="shared" si="3"/>
         <v>-1.5576264507512323E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.99514824799110357</v>
       </c>
       <c r="B114">
+        <v>1.9843982479911035</v>
+      </c>
+      <c r="C114">
         <v>0.79823275212396216</v>
       </c>
-      <c r="C114">
+      <c r="D114">
+        <f>0.798232752123962+(1.74-0.82)</f>
+        <v>1.7182327521239622</v>
+      </c>
+      <c r="E114">
         <v>0.20327606474420776</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>-6.3605688770663471E-3</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>0.13878544034748694</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>0.14396198716298586</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <f t="shared" si="3"/>
         <v>-6.3915792344571452E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.0040718308854188</v>
       </c>
       <c r="B115">
+        <v>1.9933218308854188</v>
+      </c>
+      <c r="C115">
         <v>0.82763858512652122</v>
       </c>
-      <c r="C115">
+      <c r="D115">
+        <f>0.827638585126521+(1.74-0.82)</f>
+        <v>1.7476385851265213</v>
+      </c>
+      <c r="E115">
         <v>0.17884394303893314</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <v>-2.410697280035512E-3</v>
       </c>
-      <c r="E115">
+      <c r="G115">
         <v>0.14304724102424457</v>
       </c>
-      <c r="F115">
+      <c r="H115">
         <v>0.14803963357129699</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <f t="shared" si="3"/>
         <v>-2.4009211352037344E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.98920758462858416</v>
       </c>
       <c r="B116">
+        <v>1.9784575846285841</v>
+      </c>
+      <c r="C116">
         <v>0.81561328771255903</v>
       </c>
-      <c r="C116">
+      <c r="D116">
+        <f>0.815613287712559+(1.74-0.82)</f>
+        <v>1.735613287712559</v>
+      </c>
+      <c r="E116">
         <v>0.17349500728772382</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <v>9.928962830130228E-5</v>
       </c>
-      <c r="E116">
+      <c r="G116">
         <v>0.141438204552085</v>
       </c>
-      <c r="F116">
+      <c r="H116">
         <v>0.14437118737451415</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <f t="shared" si="3"/>
         <v>1.0037289426827672E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.99681234110535755</v>
       </c>
       <c r="B117">
+        <v>1.9860623411053575</v>
+      </c>
+      <c r="C117">
         <v>0.82378032179604932</v>
       </c>
-      <c r="C117">
+      <c r="D117">
+        <f>0.823780321796049+(1.74-0.82)</f>
+        <v>1.7437803217960495</v>
+      </c>
+      <c r="E117">
         <v>0.18245347202765766</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <v>-9.4214527183494323E-3</v>
       </c>
-      <c r="E117">
+      <c r="G117">
         <v>0.13683263086042566</v>
       </c>
-      <c r="F117">
+      <c r="H117">
         <v>0.14672672273637591</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <f t="shared" si="3"/>
         <v>-9.4515811350229222E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.0063810691351414</v>
       </c>
       <c r="B118">
+        <v>1.9956310691351413</v>
+      </c>
+      <c r="C118">
         <v>0.81696866251975819</v>
       </c>
-      <c r="C118">
+      <c r="D118">
+        <f>0.816968662519758+(1.74-0.82)</f>
+        <v>1.7369686625197582</v>
+      </c>
+      <c r="E118">
         <v>0.19440300577616063</v>
       </c>
-      <c r="D118">
+      <c r="F118">
         <v>-4.9905991607774591E-3</v>
       </c>
-      <c r="E118">
+      <c r="G118">
         <v>0.14341161741698494</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>0.14899024462570745</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <f t="shared" si="3"/>
         <v>-4.9589557214805863E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1.0044668696839665</v>
       </c>
       <c r="B119">
+        <v>1.9937168696839664</v>
+      </c>
+      <c r="C119">
         <v>0.82325309096105515</v>
       </c>
-      <c r="C119">
+      <c r="D119">
+        <f>0.823253090961055+(1.74-0.82)</f>
+        <v>1.7432530909610553</v>
+      </c>
+      <c r="E119">
         <v>0.19099348153761261</v>
       </c>
-      <c r="D119">
+      <c r="F119">
         <v>-9.7797028147012799E-3</v>
       </c>
-      <c r="E119">
+      <c r="G119">
         <v>0.14568416242540788</v>
       </c>
-      <c r="F119">
+      <c r="H119">
         <v>0.15604220788064785</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <f t="shared" si="3"/>
         <v>-9.7362124225941361E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1.0118328718508725</v>
       </c>
       <c r="B120">
+        <v>2.0010828718508726</v>
+      </c>
+      <c r="C120">
         <v>0.82855296594256511</v>
       </c>
-      <c r="C120">
+      <c r="D120">
+        <f>0.828552965942565+(1.74-0.82)</f>
+        <v>1.7485529659425652</v>
+      </c>
+      <c r="E120">
         <v>0.19748581629124265</v>
       </c>
-      <c r="D120">
+      <c r="F120">
         <v>-1.4205910382935311E-2</v>
       </c>
-      <c r="E120">
+      <c r="G120">
         <v>0.14399741782404296</v>
       </c>
-      <c r="F120">
+      <c r="H120">
         <v>0.15763670508174946</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <f t="shared" si="3"/>
         <v>-1.4039779471632968E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1.0176062969954884</v>
       </c>
       <c r="B121">
+        <v>2.0068562969954886</v>
+      </c>
+      <c r="C121">
         <v>0.81752923751388251</v>
       </c>
-      <c r="C121">
+      <c r="D121">
+        <f>0.817529237513883+(1.74-0.82)</f>
+        <v>1.7375292375138827</v>
+      </c>
+      <c r="E121">
         <v>0.20636143651666222</v>
       </c>
-      <c r="D121">
+      <c r="F121">
         <v>-6.2843770350562989E-3</v>
       </c>
-      <c r="E121">
+      <c r="G121">
         <v>0.14579125439246626</v>
       </c>
-      <c r="F121">
+      <c r="H121">
         <v>0.1527775316935798</v>
       </c>
-      <c r="G121">
+      <c r="I121">
         <f t="shared" si="3"/>
         <v>-6.175646763990259E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.0214112992739803</v>
       </c>
       <c r="B122">
+        <v>2.0106612992739805</v>
+      </c>
+      <c r="C122">
         <v>0.81589263795184452</v>
       </c>
-      <c r="C122">
+      <c r="D122">
+        <f>0.815892637951845+(1.74-0.82)</f>
+        <v>1.7358926379518445</v>
+      </c>
+      <c r="E122">
         <v>0.22123829530427014</v>
       </c>
-      <c r="D122">
+      <c r="F122">
         <v>-1.5719633982134329E-2</v>
       </c>
-      <c r="E122">
+      <c r="G122">
         <v>0.13835270766436406</v>
       </c>
-      <c r="F122">
+      <c r="H122">
         <v>0.15407730590817048</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <f t="shared" si="3"/>
         <v>-1.5390111694777464E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.0199388784548589</v>
       </c>
       <c r="B123">
+        <v>2.0091888784548591</v>
+      </c>
+      <c r="C123">
         <v>0.82064611698807277</v>
       </c>
-      <c r="C123">
+      <c r="D123">
+        <f>0.820646116988073+(1.74-0.82)</f>
+        <v>1.7406461169880729</v>
+      </c>
+      <c r="E123">
         <v>0.21498676948849621</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <v>-1.5694008021710115E-2</v>
       </c>
-      <c r="E123">
+      <c r="G123">
         <v>0.14050332288443512</v>
       </c>
-      <c r="F123">
+      <c r="H123">
         <v>0.15583120971338163</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <f t="shared" si="3"/>
         <v>-1.5387204422960637E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.0291815825608186</v>
       </c>
       <c r="B124">
+        <v>2.0184315825608188</v>
+      </c>
+      <c r="C124">
         <v>0.82776574542958714</v>
       </c>
-      <c r="C124">
+      <c r="D124">
+        <f>0.827765745429587+(1.74-0.82)</f>
+        <v>1.7477657454295872</v>
+      </c>
+      <c r="E124">
         <v>0.21208387220181291</v>
       </c>
-      <c r="D124">
+      <c r="F124">
         <v>-1.066803507058145E-2</v>
       </c>
-      <c r="E124">
+      <c r="G124">
         <v>0.1492601727709934</v>
       </c>
-      <c r="F124">
+      <c r="H124">
         <v>0.16041073839316816</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <f t="shared" si="3"/>
         <v>-1.0365551863099952E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.033027403960757</v>
       </c>
       <c r="B125">
+        <v>2.0222774039607572</v>
+      </c>
+      <c r="C125">
         <v>0.82641282918083103</v>
       </c>
-      <c r="C125">
+      <c r="D125">
+        <f>0.826412829180831+(1.74-0.82)</f>
+        <v>1.746412829180831</v>
+      </c>
+      <c r="E125">
         <v>0.20782773593957274</v>
       </c>
-      <c r="D125">
+      <c r="F125">
         <v>-1.2131611596467862E-3</v>
       </c>
-      <c r="E125">
+      <c r="G125">
         <v>0.15682197065540684</v>
       </c>
-      <c r="F125">
+      <c r="H125">
         <v>0.1605340392262109</v>
       </c>
-      <c r="G125">
+      <c r="I125">
         <f t="shared" si="3"/>
         <v>-1.1743746148411686E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.0242510153577467</v>
       </c>
       <c r="B126">
+        <v>2.0135010153577468</v>
+      </c>
+      <c r="C126">
         <v>0.83506009126778669</v>
       </c>
-      <c r="C126">
+      <c r="D126">
+        <f>0.835060091267787+(1.74-0.82)</f>
+        <v>1.7550600912677867</v>
+      </c>
+      <c r="E126">
         <v>0.19717400709249924</v>
       </c>
-      <c r="D126">
+      <c r="F126">
         <v>-7.9830830025392763E-3</v>
       </c>
-      <c r="E126">
+      <c r="G126">
         <v>0.15242470237247724</v>
       </c>
-      <c r="F126">
+      <c r="H126">
         <v>0.16086509927561465</v>
       </c>
-      <c r="G126">
+      <c r="I126">
         <f t="shared" si="3"/>
         <v>-7.7940689175211358E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.0181074345078969</v>
       </c>
       <c r="B127">
+        <v>2.0073574345078971</v>
+      </c>
+      <c r="C127">
         <v>0.83376682651914757</v>
       </c>
-      <c r="C127">
+      <c r="D127">
+        <f>0.833766826519148+(1.74-0.82)</f>
+        <v>1.7537668265191475</v>
+      </c>
+      <c r="E127">
         <v>0.19516557755588793</v>
       </c>
-      <c r="D127">
+      <c r="F127">
         <v>-1.0824969567138631E-2</v>
       </c>
-      <c r="E127">
+      <c r="G127">
         <v>0.1474321566847776</v>
       </c>
-      <c r="F127">
+      <c r="H127">
         <v>0.15796999043694418</v>
       </c>
-      <c r="G127">
+      <c r="I127">
         <f t="shared" si="3"/>
         <v>-1.0632443296488539E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.0164555292763939</v>
       </c>
       <c r="B128">
+        <v>2.0057055292763941</v>
+      </c>
+      <c r="C128">
         <v>0.84432901564077234</v>
       </c>
-      <c r="C128">
+      <c r="D128">
+        <f>0.844329015640772+(1.74-0.82)</f>
+        <v>1.7643290156407723</v>
+      </c>
+      <c r="E128">
         <v>0.19085220342582679</v>
       </c>
-      <c r="D128">
+      <c r="F128">
         <v>-1.8725689790205197E-2</v>
       </c>
-      <c r="E128">
+      <c r="G128">
         <v>0.1445284151522323</v>
       </c>
-      <c r="F128">
+      <c r="H128">
         <v>0.16123984012198658</v>
       </c>
-      <c r="G128">
+      <c r="I128">
         <f t="shared" si="3"/>
         <v>-1.8422537190127597E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.99196011383068239</v>
       </c>
       <c r="B129">
+        <v>1.9812101138306824</v>
+      </c>
+      <c r="C129">
         <v>0.84354716951747288</v>
       </c>
-      <c r="C129">
+      <c r="D129">
+        <f>0.843547169517473+(1.74-0.82)</f>
+        <v>1.7635471695174729</v>
+      </c>
+      <c r="E129">
         <v>0.18801691307704615</v>
       </c>
-      <c r="D129">
+      <c r="F129">
         <v>-3.960396876383665E-2</v>
       </c>
-      <c r="E129">
+      <c r="G129">
         <v>0.13214830797525012</v>
       </c>
-      <c r="F129">
+      <c r="H129">
         <v>0.16561992578911541</v>
       </c>
-      <c r="G129">
+      <c r="I129">
         <f t="shared" si="3"/>
         <v>-3.9924960904825904E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98186294456148993</v>
       </c>
       <c r="B130">
+        <v>1.9711129445614899</v>
+      </c>
+      <c r="C130">
         <v>0.8053041847974669</v>
       </c>
-      <c r="C130">
+      <c r="D130">
+        <f>0.805304184797467+(1.74-0.82)</f>
+        <v>1.7253041847974671</v>
+      </c>
+      <c r="E130">
         <v>0.19022700946166674</v>
       </c>
-      <c r="D130">
+      <c r="F130">
         <v>-1.3668249697643714E-2</v>
       </c>
-      <c r="E130">
+      <c r="G130">
         <v>0.13553519322966598</v>
       </c>
-      <c r="F130">
+      <c r="H130">
         <v>0.14851085773942335</v>
       </c>
-      <c r="G130">
-        <f t="shared" ref="G130:G161" si="4">+D130/A130</f>
+      <c r="I130">
+        <f t="shared" ref="I130:I161" si="4">+F130/A130</f>
         <v>-1.3920730763241192E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.97997521939410426</v>
       </c>
       <c r="B131">
+        <v>1.9692252193941042</v>
+      </c>
+      <c r="C131">
         <v>0.78912715197005556</v>
       </c>
-      <c r="C131">
+      <c r="D131">
+        <f>0.789127151970056+(1.74-0.82)</f>
+        <v>1.7091271519700557</v>
+      </c>
+      <c r="E131">
         <v>0.18918112970823164</v>
       </c>
-      <c r="D131">
+      <c r="F131">
         <v>1.6669377158170517E-3</v>
       </c>
-      <c r="E131">
+      <c r="G131">
         <v>0.13099559554821913</v>
       </c>
-      <c r="F131">
+      <c r="H131">
         <v>0.13159027518179037</v>
       </c>
-      <c r="G131">
+      <c r="I131">
         <f t="shared" si="4"/>
         <v>1.7009998649227889E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98035877012917716</v>
       </c>
       <c r="B132">
+        <v>1.9696087701291771</v>
+      </c>
+      <c r="C132">
         <v>0.7855433014645492</v>
       </c>
-      <c r="C132">
+      <c r="D132">
+        <f>0.785543301464549+(1.74-0.82)</f>
+        <v>1.7055433014645494</v>
+      </c>
+      <c r="E132">
         <v>0.18904379899497764</v>
       </c>
-      <c r="D132">
+      <c r="F132">
         <v>5.7716696696503145E-3</v>
       </c>
-      <c r="E132">
+      <c r="G132">
         <v>0.13080708147024578</v>
       </c>
-      <c r="F132">
+      <c r="H132">
         <v>0.1280709631390024</v>
       </c>
-      <c r="G132">
+      <c r="I132">
         <f t="shared" si="4"/>
         <v>5.8873035520351485E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98041714726655727</v>
       </c>
       <c r="B133">
+        <v>1.9696671472665572</v>
+      </c>
+      <c r="C133">
         <v>0.79767118886578103</v>
       </c>
-      <c r="C133">
+      <c r="D133">
+        <f>0.797671188865781+(1.74-0.82)</f>
+        <v>1.717671188865781</v>
+      </c>
+      <c r="E133">
         <v>0.18015424471588939</v>
       </c>
-      <c r="D133">
+      <c r="F133">
         <v>2.5917136848868372E-3</v>
       </c>
-      <c r="E133">
+      <c r="G133">
         <v>0.13285632210516143</v>
       </c>
-      <c r="F133">
+      <c r="H133">
         <v>0.13265287419721419</v>
       </c>
-      <c r="G133">
+      <c r="I133">
         <f t="shared" si="4"/>
         <v>2.6434805757045762E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.97626565473703053</v>
       </c>
       <c r="B134">
+        <v>1.9655156547370305</v>
+      </c>
+      <c r="C134">
         <v>0.79801272333889772</v>
       </c>
-      <c r="C134">
+      <c r="D134">
+        <f>0.798012723338898+(1.74-0.82)</f>
+        <v>1.7180127233388978</v>
+      </c>
+      <c r="E134">
         <v>0.1825811637783516</v>
       </c>
-      <c r="D134">
+      <c r="F134">
         <v>-4.3282323802187883E-3</v>
       </c>
-      <c r="E134">
+      <c r="G134">
         <v>0.12891040137043958</v>
       </c>
-      <c r="F134">
+      <c r="H134">
         <v>0.1348889240880686</v>
       </c>
-      <c r="G134">
+      <c r="I134">
         <f t="shared" si="4"/>
         <v>-4.4334575934504754E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.97949865137126579</v>
       </c>
       <c r="B135">
+        <v>1.9687486513712658</v>
+      </c>
+      <c r="C135">
         <v>0.79339825846826495</v>
       </c>
-      <c r="C135">
+      <c r="D135">
+        <f>0.793398258468265+(1.74-0.82)</f>
+        <v>1.713398258468265</v>
+      </c>
+      <c r="E135">
         <v>0.18780618353715273</v>
       </c>
-      <c r="D135">
+      <c r="F135">
         <v>-1.7057906341518825E-3</v>
       </c>
-      <c r="E135">
+      <c r="G135">
         <v>0.13272979068831114</v>
       </c>
-      <c r="F135">
+      <c r="H135">
         <v>0.1366696317222223</v>
       </c>
-      <c r="G135">
+      <c r="I135">
         <f t="shared" si="4"/>
         <v>-1.7414936016132659E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.97748923828150858</v>
       </c>
       <c r="B136">
+        <v>1.9667392382815085</v>
+      </c>
+      <c r="C136">
         <v>0.80046156217874787</v>
       </c>
-      <c r="C136">
+      <c r="D136">
+        <f>0.800461562178748+(1.74-0.82)</f>
+        <v>1.7204615621787478</v>
+      </c>
+      <c r="E136">
         <v>0.18392904371368105</v>
       </c>
-      <c r="D136">
+      <c r="F136">
         <v>-6.9013676109203337E-3</v>
       </c>
-      <c r="E136">
+      <c r="G136">
         <v>0.12960282256895284</v>
       </c>
-      <c r="F136">
+      <c r="H136">
         <v>0.13791577970104651</v>
       </c>
-      <c r="G136">
+      <c r="I136">
         <f t="shared" si="4"/>
         <v>-7.0603003497546422E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98930798204308523</v>
       </c>
       <c r="B137">
+        <v>1.9785579820430852</v>
+      </c>
+      <c r="C137">
         <v>0.80405674401097482</v>
       </c>
-      <c r="C137">
+      <c r="D137">
+        <f>0.804056744010975+(1.74-0.82)</f>
+        <v>1.7240567440109749</v>
+      </c>
+      <c r="E137">
         <v>0.19254320559135732</v>
       </c>
-      <c r="D137">
+      <c r="F137">
         <v>-7.2919675592469091E-3</v>
       </c>
-      <c r="E137">
+      <c r="G137">
         <v>0.13154761060304998</v>
       </c>
-      <c r="F137">
+      <c r="H137">
         <v>0.14064096538848003</v>
       </c>
-      <c r="G137">
+      <c r="I137">
         <f t="shared" si="4"/>
         <v>-7.370776028904351E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.99637507447039475</v>
       </c>
       <c r="B138">
+        <v>1.9856250744703947</v>
+      </c>
+      <c r="C138">
         <v>0.80909137657341812</v>
       </c>
-      <c r="C138">
+      <c r="D138">
+        <f>0.809091376573418+(1.74-0.82)</f>
+        <v>1.7290913765734182</v>
+      </c>
+      <c r="E138">
         <v>0.19320547318425277</v>
       </c>
-      <c r="D138">
+      <c r="F138">
         <v>-5.9217752872761376E-3</v>
       </c>
-      <c r="E138">
+      <c r="G138">
         <v>0.14042278580308057</v>
       </c>
-      <c r="F138">
+      <c r="H138">
         <v>0.14747848495521279</v>
       </c>
-      <c r="G138">
+      <c r="I138">
         <f t="shared" si="4"/>
         <v>-5.943319377417937E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.99853084064452879</v>
       </c>
       <c r="B139">
+        <v>1.9877808406445288</v>
+      </c>
+      <c r="C139">
         <v>0.815809150904241</v>
       </c>
-      <c r="C139">
+      <c r="D139">
+        <f>0.815809150904241+(1.74-0.82)</f>
+        <v>1.735809150904241</v>
+      </c>
+      <c r="E139">
         <v>0.19308909126697757</v>
       </c>
-      <c r="D139">
+      <c r="F139">
         <v>-1.0367401526689773E-2</v>
       </c>
-      <c r="E139">
+      <c r="G139">
         <v>0.14243459174361528</v>
       </c>
-      <c r="F139">
+      <c r="H139">
         <v>0.15243576841359249</v>
       </c>
-      <c r="G139">
+      <c r="I139">
         <f t="shared" si="4"/>
         <v>-1.0382655301861136E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.0098049707748622</v>
       </c>
       <c r="B140">
+        <v>1.9990549707748622</v>
+      </c>
+      <c r="C140">
         <v>0.82191903214550499</v>
       </c>
-      <c r="C140">
+      <c r="D140">
+        <f>0.821919032145505+(1.74-0.82)</f>
+        <v>1.7419190321455051</v>
+      </c>
+      <c r="E140">
         <v>0.19869919895389213</v>
       </c>
-      <c r="D140">
+      <c r="F140">
         <v>-1.0813260324534918E-2</v>
       </c>
-      <c r="E140">
+      <c r="G140">
         <v>0.14024563717072819</v>
       </c>
-      <c r="F140">
+      <c r="H140">
         <v>0.15146356441759135</v>
       </c>
-      <c r="G140">
+      <c r="I140">
         <f t="shared" si="4"/>
         <v>-1.0708266088487847E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.0059446554721099</v>
       </c>
       <c r="B141">
+        <v>1.9951946554721098</v>
+      </c>
+      <c r="C141">
         <v>0.82156156501018041</v>
       </c>
-      <c r="C141">
+      <c r="D141">
+        <f>0.82156156501018+(1.74-0.82)</f>
+        <v>1.7415615650101803</v>
+      </c>
+      <c r="E141">
         <v>0.19716535162416238</v>
       </c>
-      <c r="D141">
+      <c r="F141">
         <v>-1.2782261162232911E-2</v>
       </c>
-      <c r="E141">
+      <c r="G141">
         <v>0.14255284111825667</v>
       </c>
-      <c r="F141">
+      <c r="H141">
         <v>0.15454237513065486</v>
       </c>
-      <c r="G141">
+      <c r="I141">
         <f t="shared" si="4"/>
         <v>-1.2706724065484438E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.0096541533610708</v>
       </c>
       <c r="B142">
+        <v>1.9989041533610707</v>
+      </c>
+      <c r="C142">
         <v>0.82864259326383194</v>
       </c>
-      <c r="C142">
+      <c r="D142">
+        <f>0.828642593263832+(1.74-0.82)</f>
+        <v>1.7486425932638321</v>
+      </c>
+      <c r="E142">
         <v>0.18869793553535583</v>
       </c>
-      <c r="D142">
+      <c r="F142">
         <v>-7.6863754381169824E-3</v>
       </c>
-      <c r="E142">
+      <c r="G142">
         <v>0.14595503183948583</v>
       </c>
-      <c r="F142">
+      <c r="H142">
         <v>0.15319787012212577</v>
       </c>
-      <c r="G142">
+      <c r="I142">
         <f t="shared" si="4"/>
         <v>-7.6128795315995633E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.99996290524835452</v>
       </c>
       <c r="B143">
+        <v>1.9892129052483545</v>
+      </c>
+      <c r="C143">
         <v>0.8212004470008788</v>
       </c>
-      <c r="C143">
+      <c r="D143">
+        <f>0.821200447000879+(1.74-0.82)</f>
+        <v>1.7412004470008788</v>
+      </c>
+      <c r="E143">
         <v>0.19306366551821114</v>
       </c>
-      <c r="D143">
+      <c r="F143">
         <v>-1.4301207270735417E-2</v>
       </c>
-      <c r="E143">
+      <c r="G143">
         <v>0.1398378608588686</v>
       </c>
-      <c r="F143">
+      <c r="H143">
         <v>0.15288854301322488</v>
       </c>
-      <c r="G143">
+      <c r="I143">
         <f t="shared" si="4"/>
         <v>-1.430173779014684E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.98770277442342547</v>
       </c>
       <c r="B144">
+        <v>1.9769527744234254</v>
+      </c>
+      <c r="C144">
         <v>0.80901118363478575</v>
       </c>
-      <c r="C144">
+      <c r="D144">
+        <f>0.809011183634786+(1.74-0.82)</f>
+        <v>1.7290111836347859</v>
+      </c>
+      <c r="E144">
         <v>0.1897566008302019</v>
       </c>
-      <c r="D144">
+      <c r="F144">
         <v>-1.1065010041562184E-2</v>
       </c>
-      <c r="E144">
+      <c r="G144">
         <v>0.14445266593823411</v>
       </c>
-      <c r="F144">
+      <c r="H144">
         <v>0.15382155411283491</v>
       </c>
-      <c r="G144">
+      <c r="I144">
         <f t="shared" si="4"/>
         <v>-1.1202773069075784E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.98900487535266279</v>
       </c>
       <c r="B145">
+        <v>1.9782548753526628</v>
+      </c>
+      <c r="C145">
         <v>0.81697603754039361</v>
       </c>
-      <c r="C145">
+      <c r="D145">
+        <f>0.816976037540394+(1.74-0.82)</f>
+        <v>1.7369760375403938</v>
+      </c>
+      <c r="E145">
         <v>0.18454606226560433</v>
       </c>
-      <c r="D145">
+      <c r="F145">
         <v>-1.2517224453335141E-2</v>
       </c>
-      <c r="E145">
+      <c r="G145">
         <v>0.13795151924431739</v>
       </c>
-      <c r="F145">
+      <c r="H145">
         <v>0.14928439521082268</v>
       </c>
-      <c r="G145">
+      <c r="I145">
         <f t="shared" si="4"/>
         <v>-1.2656382961582172E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.99002318171023163</v>
       </c>
       <c r="B146">
+        <v>1.9792731817102316</v>
+      </c>
+      <c r="C146">
         <v>0.80867095184356175</v>
       </c>
-      <c r="C146">
+      <c r="D146">
+        <f>0.808670951843562+(1.74-0.82)</f>
+        <v>1.7286709518435619</v>
+      </c>
+      <c r="E146">
         <v>0.19548815520615825</v>
       </c>
-      <c r="D146">
+      <c r="F146">
         <v>-1.4135925339488375E-2</v>
       </c>
-      <c r="E146">
+      <c r="G146">
         <v>0.14011404751971099</v>
       </c>
-      <c r="F146">
+      <c r="H146">
         <v>0.15287423010922443</v>
       </c>
-      <c r="G146">
+      <c r="I146">
         <f t="shared" si="4"/>
         <v>-1.4278378123499131E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.0106718500420815</v>
       </c>
       <c r="B147">
+        <v>1.9999218500420815</v>
+      </c>
+      <c r="C147">
         <v>0.83384559557935012</v>
       </c>
-      <c r="C147">
+      <c r="D147">
+        <f>0.83384559557935+(1.74-0.82)</f>
+        <v>1.7538455955793502</v>
+      </c>
+      <c r="E147">
         <v>0.18994539160225263</v>
       </c>
-      <c r="D147">
+      <c r="F147">
         <v>-1.3119137139521259E-2</v>
       </c>
-      <c r="E147">
+      <c r="G147">
         <v>0.14406070598442663</v>
       </c>
-      <c r="F147">
+      <c r="H147">
         <v>0.1551221072488207</v>
       </c>
-      <c r="G147">
+      <c r="I147">
         <f t="shared" si="4"/>
         <v>-1.2980610015976021E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.0070102624617405</v>
       </c>
       <c r="B148">
+        <v>1.9962602624617405</v>
+      </c>
+      <c r="C148">
         <v>0.83804421452384259</v>
       </c>
-      <c r="C148">
+      <c r="D148">
+        <f>0.838044214523843+(1.74-0.82)</f>
+        <v>1.7580442145238426</v>
+      </c>
+      <c r="E148">
         <v>0.18573643407081644</v>
       </c>
-      <c r="D148">
+      <c r="F148">
         <v>-1.6770386132918508E-2</v>
       </c>
-      <c r="E148">
+      <c r="G148">
         <v>0.14167534448091071</v>
       </c>
-      <c r="F148">
+      <c r="H148">
         <v>0.15538686822592174</v>
       </c>
-      <c r="G148">
+      <c r="I148">
         <f t="shared" si="4"/>
         <v>-1.6653639747346335E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.0102212341738461</v>
       </c>
       <c r="B149">
+        <v>1.9994712341738461</v>
+      </c>
+      <c r="C149">
         <v>0.8123280404003036</v>
       </c>
-      <c r="C149">
+      <c r="D149">
+        <f>0.812328040400304+(1.74-0.82)</f>
+        <v>1.7323280404003036</v>
+      </c>
+      <c r="E149">
         <v>0.2007514715895887</v>
       </c>
-      <c r="D149">
+      <c r="F149">
         <v>-2.8582778160461675E-3</v>
       </c>
-      <c r="E149">
+      <c r="G149">
         <v>0.14895422075373566</v>
       </c>
-      <c r="F149">
+      <c r="H149">
         <v>0.15301733570439074</v>
       </c>
-      <c r="G149">
+      <c r="I149">
         <f t="shared" si="4"/>
         <v>-2.8293582824792363E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1.0153478651582173</v>
       </c>
       <c r="B150">
+        <v>2.0045978651582175</v>
+      </c>
+      <c r="C150">
         <v>0.83319470623116243</v>
       </c>
-      <c r="C150">
+      <c r="D150">
+        <f>0.833194706231162+(1.74-0.82)</f>
+        <v>1.7531947062311626</v>
+      </c>
+      <c r="E150">
         <v>0.19924545265625834</v>
       </c>
-      <c r="D150">
+      <c r="F150">
         <v>-1.7092293729203484E-2</v>
       </c>
-      <c r="E150">
+      <c r="G150">
         <v>0.14103246213004036</v>
       </c>
-      <c r="F150">
+      <c r="H150">
         <v>0.15624501613147079</v>
       </c>
-      <c r="G150">
+      <c r="I150">
         <f t="shared" si="4"/>
         <v>-1.6833928858992642E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.006799569846466</v>
       </c>
       <c r="B151">
+        <v>1.996049569846466</v>
+      </c>
+      <c r="C151">
         <v>0.82807775943736905</v>
       </c>
-      <c r="C151">
+      <c r="D151">
+        <f>0.828077759437369+(1.74-0.82)</f>
+        <v>1.7480777594373691</v>
+      </c>
+      <c r="E151">
         <v>0.19966005646091964</v>
       </c>
-      <c r="D151">
+      <c r="F151">
         <v>-2.0938246051822679E-2</v>
       </c>
-      <c r="E151">
+      <c r="G151">
         <v>0.13945025126814137</v>
       </c>
-      <c r="F151">
+      <c r="H151">
         <v>0.15747815196670967</v>
       </c>
-      <c r="G151">
+      <c r="I151">
         <f t="shared" si="4"/>
         <v>-2.0796836509391535E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.0117149458901196</v>
       </c>
       <c r="B152">
+        <v>2.0009649458901198</v>
+      </c>
+      <c r="C152">
         <v>0.82275757356778323</v>
       </c>
-      <c r="C152">
+      <c r="D152">
+        <f>0.822757573567783+(1.74-0.82)</f>
+        <v>1.7427575735677832</v>
+      </c>
+      <c r="E152">
         <v>0.20191615850495342</v>
       </c>
-      <c r="D152">
+      <c r="F152">
         <v>-1.2958786182617088E-2</v>
       </c>
-      <c r="E152">
+      <c r="G152">
         <v>0.14295583713370996</v>
       </c>
-      <c r="F152">
+      <c r="H152">
         <v>0.1551567966593754</v>
       </c>
-      <c r="G152">
+      <c r="I152">
         <f t="shared" si="4"/>
         <v>-1.2808732573596394E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1.0117035129913337</v>
       </c>
       <c r="B153">
+        <v>2.0009535129913338</v>
+      </c>
+      <c r="C153">
         <v>0.84189258848447956</v>
       </c>
-      <c r="C153">
+      <c r="D153">
+        <f>0.84189258848448+(1.74-0.82)</f>
+        <v>1.7618925884844796</v>
+      </c>
+      <c r="E153">
         <v>0.20185707637237499</v>
       </c>
-      <c r="D153">
+      <c r="F153">
         <v>-3.20461518655209E-2</v>
       </c>
-      <c r="E153">
+      <c r="G153">
         <v>0.13619198193420298</v>
       </c>
-      <c r="F153">
+      <c r="H153">
         <v>0.16276742522317786</v>
       </c>
-      <c r="G153">
+      <c r="I153">
         <f t="shared" si="4"/>
         <v>-3.1675437965782184E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.0109716833510696</v>
       </c>
       <c r="B154">
+        <v>2.0002216833510698</v>
+      </c>
+      <c r="C154">
         <v>0.82252477730533402</v>
       </c>
-      <c r="C154">
+      <c r="D154">
+        <f>0.822524777305334+(1.74-0.82)</f>
+        <v>1.7425247773053341</v>
+      </c>
+      <c r="E154">
         <v>0.20192078445120015</v>
       </c>
-      <c r="D154">
+      <c r="F154">
         <v>-1.3473878405464601E-2</v>
       </c>
-      <c r="E154">
+      <c r="G154">
         <v>0.13943556355137929</v>
       </c>
-      <c r="F154">
+      <c r="H154">
         <v>0.15288592267876247</v>
       </c>
-      <c r="G154">
+      <c r="I154">
         <f t="shared" si="4"/>
         <v>-1.3327651631945528E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.0093690747398369</v>
       </c>
       <c r="B155">
+        <v>1.9986190747398369</v>
+      </c>
+      <c r="C155">
         <v>0.8051126948302173</v>
       </c>
-      <c r="C155">
+      <c r="D155">
+        <f>0.805112694830217+(1.74-0.82)</f>
+        <v>1.7251126948302173</v>
+      </c>
+      <c r="E155">
         <v>0.20284515990584639</v>
       </c>
-      <c r="D155">
+      <c r="F155">
         <v>1.4112200037732503E-3</v>
       </c>
-      <c r="E155">
+      <c r="G155">
         <v>0.14595736529141448</v>
       </c>
-      <c r="F155">
+      <c r="H155">
         <v>0.14789955023942949</v>
       </c>
-      <c r="G155">
+      <c r="I155">
         <f t="shared" si="4"/>
         <v>1.3981209045234417E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.0152343736749341</v>
       </c>
       <c r="B156">
+        <v>2.0044843736749343</v>
+      </c>
+      <c r="C156">
         <v>0.83516841891387394</v>
       </c>
-      <c r="C156">
+      <c r="D156">
+        <f>0.835168418913874+(1.74-0.82)</f>
+        <v>1.7551684189138741</v>
+      </c>
+      <c r="E156">
         <v>0.20280668945272232</v>
       </c>
-      <c r="D156">
+      <c r="F156">
         <v>-2.2740734691662184E-2</v>
       </c>
-      <c r="E156">
+      <c r="G156">
         <v>0.13697383429134782</v>
       </c>
-      <c r="F156">
+      <c r="H156">
         <v>0.15749174641131836</v>
       </c>
-      <c r="G156">
+      <c r="I156">
         <f t="shared" si="4"/>
         <v>-2.2399492453496751E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.0032871032612896</v>
       </c>
       <c r="B157">
+        <v>1.9925371032612895</v>
+      </c>
+      <c r="C157">
         <v>0.82428610574132921</v>
       </c>
-      <c r="C157">
+      <c r="D157">
+        <f>0.824286105741329+(1.74-0.82)</f>
+        <v>1.7442861057413293</v>
+      </c>
+      <c r="E157">
         <v>0.19181693106409786</v>
       </c>
-      <c r="D157">
+      <c r="F157">
         <v>-1.2815933544137514E-2</v>
       </c>
-      <c r="E157">
+      <c r="G157">
         <v>0.13801045620803953</v>
       </c>
-      <c r="F157">
+      <c r="H157">
         <v>0.15014521671737172</v>
       </c>
-      <c r="G157">
+      <c r="I157">
         <f t="shared" si="4"/>
         <v>-1.2773944270267188E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.0092659338085355</v>
       </c>
       <c r="B158">
+        <v>1.9985159338085354</v>
+      </c>
+      <c r="C158">
         <v>0.82343252740968964</v>
       </c>
-      <c r="C158">
+      <c r="D158">
+        <f>0.82343252740969+(1.74-0.82)</f>
+        <v>1.7434325274096896</v>
+      </c>
+      <c r="E158">
         <v>0.19026527232389728</v>
       </c>
-      <c r="D158">
+      <c r="F158">
         <v>-4.4318659250514592E-3</v>
       </c>
-      <c r="E158">
+      <c r="G158">
         <v>0.13972118675645509</v>
       </c>
-      <c r="F158">
+      <c r="H158">
         <v>0.14554281419775997</v>
       </c>
-      <c r="G158">
+      <c r="I158">
         <f t="shared" si="4"/>
         <v>-4.3911775643982196E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.0057548527718847</v>
       </c>
       <c r="B159">
+        <v>1.9950048527718847</v>
+      </c>
+      <c r="C159">
         <v>0.82074210410377579</v>
       </c>
-      <c r="C159">
+      <c r="D159">
+        <f>0.820742104103776+(1.74-0.82)</f>
+        <v>1.7407421041037758</v>
+      </c>
+      <c r="E159">
         <v>0.19130546383118718</v>
       </c>
-      <c r="D159">
+      <c r="F159">
         <v>-6.2927151630782774E-3</v>
       </c>
-      <c r="E159">
+      <c r="G159">
         <v>0.13549352539601217</v>
       </c>
-      <c r="F159">
+      <c r="H159">
         <v>0.14365585448406229</v>
       </c>
-      <c r="G159">
+      <c r="I159">
         <f t="shared" si="4"/>
         <v>-6.2567087255263071E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.0050434512903763</v>
       </c>
       <c r="B160">
+        <v>1.9942934512903763</v>
+      </c>
+      <c r="C160">
         <v>0.82090222850824668</v>
       </c>
-      <c r="C160">
+      <c r="D160">
+        <f>0.820902228508247+(1.74-0.82)</f>
+        <v>1.7409022285082467</v>
+      </c>
+      <c r="E160">
         <v>0.18716279650327045</v>
       </c>
-      <c r="D160">
+      <c r="F160">
         <v>-3.0215737211408134E-3</v>
       </c>
-      <c r="E160">
+      <c r="G160">
         <v>0.13800671413269258</v>
       </c>
-      <c r="F160">
+      <c r="H160">
         <v>0.14282567141773267</v>
       </c>
-      <c r="G160">
+      <c r="I160">
         <f t="shared" si="4"/>
         <v>-3.0064110335343329E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.0036734218595402</v>
       </c>
       <c r="B161">
+        <v>1.9929234218595402</v>
+      </c>
+      <c r="C161">
         <v>0.80923593495718449</v>
       </c>
-      <c r="C161">
+      <c r="D161">
+        <f>0.809235934957184+(1.74-0.82)</f>
+        <v>1.7292359349571846</v>
+      </c>
+      <c r="E161">
         <v>0.19697039798570648</v>
       </c>
-      <c r="D161">
+      <c r="F161">
         <v>-2.5329110833507418E-3</v>
       </c>
-      <c r="E161">
+      <c r="G161">
         <v>0.14252189180923705</v>
       </c>
-      <c r="F161">
+      <c r="H161">
         <v>0.14666726044690723</v>
       </c>
-      <c r="G161">
+      <c r="I161">
         <f t="shared" si="4"/>
         <v>-2.5236406864873741E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.99993372852459395</v>
       </c>
       <c r="B162">
+        <v>1.9891837285245939</v>
+      </c>
+      <c r="C162">
         <v>0.81554928622145495</v>
       </c>
-      <c r="C162">
+      <c r="D162">
+        <f>0.815549286221455+(1.74-0.82)</f>
+        <v>1.735549286221455</v>
+      </c>
+      <c r="E162">
         <v>0.19200298020830139</v>
       </c>
-      <c r="D162">
+      <c r="F162">
         <v>-7.618537905162398E-3</v>
       </c>
-      <c r="E162">
+      <c r="G162">
         <v>0.14130324797641847</v>
       </c>
-      <c r="F162">
+      <c r="H162">
         <v>0.14869756142757465</v>
       </c>
-      <c r="G162">
-        <f t="shared" ref="G162:G189" si="5">+D162/A162</f>
+      <c r="I162">
+        <f t="shared" ref="I162:I189" si="5">+F162/A162</f>
         <v>-7.6190428303719486E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.99832821198296351</v>
       </c>
       <c r="B163">
+        <v>1.9875782119829635</v>
+      </c>
+      <c r="C163">
         <v>0.80591906080359099</v>
       </c>
-      <c r="C163">
+      <c r="D163">
+        <f>0.805919060803591+(1.74-0.82)</f>
+        <v>1.725919060803591</v>
+      </c>
+      <c r="E163">
         <v>0.19327630094158385</v>
       </c>
-      <c r="D163">
+      <c r="F163">
         <v>-8.6714976221133333E-4</v>
       </c>
-      <c r="E163">
+      <c r="G163">
         <v>0.14314401485025088</v>
       </c>
-      <c r="F163">
+      <c r="H163">
         <v>0.14530279933105883</v>
       </c>
-      <c r="G163">
+      <c r="I163">
         <f t="shared" si="5"/>
         <v>-8.6860188042660585E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.0019122965638534</v>
       </c>
       <c r="B164">
+        <v>1.9911622965638534</v>
+      </c>
+      <c r="C164">
         <v>0.80220825948799745</v>
       </c>
-      <c r="C164">
+      <c r="D164">
+        <f>0.802208259487997+(1.74-0.82)</f>
+        <v>1.7222082594879975</v>
+      </c>
+      <c r="E164">
         <v>0.19734837637609051</v>
       </c>
-      <c r="D164">
+      <c r="F164">
         <v>2.3556606997654217E-3</v>
       </c>
-      <c r="E164">
+      <c r="G164">
         <v>0.14308863066986088</v>
       </c>
-      <c r="F164">
+      <c r="H164">
         <v>0.14324863149710704</v>
       </c>
-      <c r="G164">
+      <c r="I164">
         <f t="shared" si="5"/>
         <v>2.351164575826016E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.99899492013592095</v>
       </c>
       <c r="B165">
+        <v>1.9882449201359209</v>
+      </c>
+      <c r="C165">
         <v>0.79657767139661373</v>
       </c>
-      <c r="C165">
+      <c r="D165">
+        <f>0.796577671396614+(1.74-0.82)</f>
+        <v>1.7165776713966139</v>
+      </c>
+      <c r="E165">
         <v>0.19774136327798544</v>
       </c>
-      <c r="D165">
+      <c r="F165">
         <v>4.6758854613217771E-3</v>
       </c>
-      <c r="E165">
+      <c r="G165">
         <v>0.14341456279333231</v>
       </c>
-      <c r="F165">
+      <c r="H165">
         <v>0.14165661380521916</v>
       </c>
-      <c r="G165">
+      <c r="I165">
         <f t="shared" si="5"/>
         <v>4.6805898279098221E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.99968713852673474</v>
       </c>
       <c r="B166">
+        <v>1.9889371385267347</v>
+      </c>
+      <c r="C166">
         <v>0.81007679579813996</v>
       </c>
-      <c r="C166">
+      <c r="D166">
+        <f>0.81007679579814+(1.74-0.82)</f>
+        <v>1.73007679579814</v>
+      </c>
+      <c r="E166">
         <v>0.19075141089886041</v>
       </c>
-      <c r="D166">
+      <c r="F166">
         <v>-1.14106817026563E-3</v>
       </c>
-      <c r="E166">
+      <c r="G166">
         <v>0.14273871229599269</v>
       </c>
-      <c r="F166">
+      <c r="H166">
         <v>0.14470080196005619</v>
       </c>
-      <c r="G166">
+      <c r="I166">
         <f t="shared" si="5"/>
         <v>-1.1414252782598086E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.0081971287066214</v>
       </c>
       <c r="B167">
+        <v>1.9974471287066213</v>
+      </c>
+      <c r="C167">
         <v>0.81759413322731433</v>
       </c>
-      <c r="C167">
+      <c r="D167">
+        <f>0.817594133227314+(1.74-0.82)</f>
+        <v>1.7375941332273144</v>
+      </c>
+      <c r="E167">
         <v>0.20022719051579699</v>
       </c>
-      <c r="D167">
+      <c r="F167">
         <v>-9.624195036489952E-3</v>
       </c>
-      <c r="E167">
+      <c r="G167">
         <v>0.14119796715130109</v>
       </c>
-      <c r="F167">
+      <c r="H167">
         <v>0.15033629320490965</v>
       </c>
-      <c r="G167">
+      <c r="I167">
         <f t="shared" si="5"/>
         <v>-9.5459456910341276E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1.0131346283180935</v>
       </c>
       <c r="B168">
+        <v>2.0023846283180937</v>
+      </c>
+      <c r="C168">
         <v>0.81236613925051659</v>
       </c>
-      <c r="C168">
+      <c r="D168">
+        <f>0.812366139250517+(1.74-0.82)</f>
+        <v>1.7323661392505167</v>
+      </c>
+      <c r="E168">
         <v>0.20259429232572254</v>
       </c>
-      <c r="D168">
+      <c r="F168">
         <v>-1.825803258145603E-3</v>
       </c>
-      <c r="E168">
+      <c r="G168">
         <v>0.14664347764184987</v>
       </c>
-      <c r="F168">
+      <c r="H168">
         <v>0.14895750337836774</v>
       </c>
-      <c r="G168">
+      <c r="I168">
         <f t="shared" si="5"/>
         <v>-1.8021329121645185E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.0105376647235502</v>
       </c>
       <c r="B169">
+        <v>1.9997876647235502</v>
+      </c>
+      <c r="C169">
         <v>0.82267416652476166</v>
       </c>
-      <c r="C169">
+      <c r="D169">
+        <f>0.822674166524762+(1.74-0.82)</f>
+        <v>1.7426741665247616</v>
+      </c>
+      <c r="E169">
         <v>0.20422190692663564</v>
       </c>
-      <c r="D169">
+      <c r="F169">
         <v>-1.6358408727847079E-2</v>
       </c>
-      <c r="E169">
+      <c r="G169">
         <v>0.14904804972275634</v>
       </c>
-      <c r="F169">
+      <c r="H169">
         <v>0.16062096457746905</v>
       </c>
-      <c r="G169">
+      <c r="I169">
         <f t="shared" si="5"/>
         <v>-1.618782683604594E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1.0175711013959639</v>
       </c>
       <c r="B170">
+        <v>2.006821101395964</v>
+      </c>
+      <c r="C170">
         <v>0.82029871870093751</v>
       </c>
-      <c r="C170">
+      <c r="D170">
+        <f>0.820298718700938+(1.74-0.82)</f>
+        <v>1.7402987187009376</v>
+      </c>
+      <c r="E170">
         <v>0.20779768181079319</v>
       </c>
-      <c r="D170">
+      <c r="F170">
         <v>-1.0525299115766856E-2</v>
       </c>
-      <c r="E170">
+      <c r="G170">
         <v>0.15125271936381632</v>
       </c>
-      <c r="F170">
+      <c r="H170">
         <v>0.15852362047999663</v>
       </c>
-      <c r="G170">
+      <c r="I170">
         <f t="shared" si="5"/>
         <v>-1.0343551523159052E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.0208713907984581</v>
       </c>
       <c r="B171">
+        <v>2.0101213907984583</v>
+      </c>
+      <c r="C171">
         <v>0.81731121813153307</v>
       </c>
-      <c r="C171">
+      <c r="D171">
+        <f>0.817311218131533+(1.74-0.82)</f>
+        <v>1.7373112181315331</v>
+      </c>
+      <c r="E171">
         <v>0.21255319644835091</v>
       </c>
-      <c r="D171">
+      <c r="F171">
         <v>-8.9930237814258573E-3</v>
       </c>
-      <c r="E171">
+      <c r="G171">
         <v>0.15519622367461508</v>
       </c>
-      <c r="F171">
+      <c r="H171">
         <v>0.16054985495878024</v>
       </c>
-      <c r="G171">
+      <c r="I171">
         <f t="shared" si="5"/>
         <v>-8.8091642713115006E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.0265791285709742</v>
       </c>
       <c r="B172">
+        <v>2.0158291285709744</v>
+      </c>
+      <c r="C172">
         <v>0.83088856803834343</v>
       </c>
-      <c r="C172">
+      <c r="D172">
+        <f>0.830888568038343+(1.74-0.82)</f>
+        <v>1.7508885680383435</v>
+      </c>
+      <c r="E172">
         <v>0.21039061817059201</v>
       </c>
-      <c r="D172">
+      <c r="F172">
         <v>-1.4700057637961228E-2</v>
       </c>
-      <c r="E172">
+      <c r="G172">
         <v>0.15118326103507576</v>
       </c>
-      <c r="F172">
+      <c r="H172">
         <v>0.1614236703095733</v>
       </c>
-      <c r="G172">
+      <c r="I172">
         <f t="shared" si="5"/>
         <v>-1.431945889882264E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.0222191339474254</v>
       </c>
       <c r="B173">
+        <v>2.0114691339474255</v>
+      </c>
+      <c r="C173">
         <v>0.83405460551310473</v>
       </c>
-      <c r="C173">
+      <c r="D173">
+        <f>0.834054605513105+(1.74-0.82)</f>
+        <v>1.7540546055131048</v>
+      </c>
+      <c r="E173">
         <v>0.19998554361182883</v>
       </c>
-      <c r="D173">
+      <c r="F173">
         <v>-1.1821015177508193E-2</v>
       </c>
-      <c r="E173">
+      <c r="G173">
         <v>0.14667718336353214</v>
       </c>
-      <c r="F173">
+      <c r="H173">
         <v>0.15583284604750597</v>
       </c>
-      <c r="G173">
+      <c r="I173">
         <f t="shared" si="5"/>
         <v>-1.1564071523353201E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.0034543697626361</v>
       </c>
       <c r="B174">
+        <v>1.9927043697626361</v>
+      </c>
+      <c r="C174">
         <v>0.82001086333929729</v>
       </c>
-      <c r="C174">
+      <c r="D174">
+        <f>0.820010863339297+(1.74-0.82)</f>
+        <v>1.7400108633392972</v>
+      </c>
+      <c r="E174">
         <v>0.18651970187818734</v>
       </c>
-      <c r="D174">
+      <c r="F174">
         <v>-3.076195454848496E-3</v>
       </c>
-      <c r="E174">
+      <c r="G174">
         <v>0.14291349772187395</v>
       </c>
-      <c r="F174">
+      <c r="H174">
         <v>0.14633443519529249</v>
       </c>
-      <c r="G174">
+      <c r="I174">
         <f t="shared" si="5"/>
         <v>-3.0656057191481064E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.81621388798288308</v>
       </c>
       <c r="B175">
+        <v>1.805463887982883</v>
+      </c>
+      <c r="C175">
         <v>0.68181539901661548</v>
       </c>
-      <c r="C175">
+      <c r="D175">
+        <f>0.681815399016615+(1.74-0.82)</f>
+        <v>1.6018153990166155</v>
+      </c>
+      <c r="E175">
         <v>0.11299540525006002</v>
       </c>
-      <c r="D175">
+      <c r="F175">
         <v>2.1403083716207583E-2</v>
       </c>
-      <c r="E175">
+      <c r="G175">
         <v>0.10349250949694858</v>
       </c>
-      <c r="F175">
+      <c r="H175">
         <v>9.580515682387325E-2</v>
       </c>
-      <c r="G175">
+      <c r="I175">
         <f t="shared" si="5"/>
         <v>2.6222395907892746E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.90957481318961442</v>
       </c>
       <c r="B176">
+        <v>1.8988248131896144</v>
+      </c>
+      <c r="C176">
         <v>0.74796171867971051</v>
       </c>
-      <c r="C176">
+      <c r="D176">
+        <f>0.747961718679711+(1.74-0.82)</f>
+        <v>1.6679617186797104</v>
+      </c>
+      <c r="E176">
         <v>0.1583970672625972</v>
       </c>
-      <c r="D176">
+      <c r="F176">
         <v>3.2160272473067131E-3</v>
       </c>
-      <c r="E176">
+      <c r="G176">
         <v>0.10557044334890948</v>
       </c>
-      <c r="F176">
+      <c r="H176">
         <v>0.112830681078081</v>
       </c>
-      <c r="G176">
+      <c r="I176">
         <f t="shared" si="5"/>
         <v>3.5357479128396711E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.96272030604095882</v>
       </c>
       <c r="B177">
+        <v>1.9519703060409588</v>
+      </c>
+      <c r="C177">
         <v>0.79518841688726238</v>
       </c>
-      <c r="C177">
+      <c r="D177">
+        <f>0.795188416887262+(1.74-0.82)</f>
+        <v>1.7151884168872624</v>
+      </c>
+      <c r="E177">
         <v>0.17159260575850141</v>
       </c>
-      <c r="D177">
+      <c r="F177">
         <v>-4.0607166048049759E-3</v>
       </c>
-      <c r="E177">
+      <c r="G177">
         <v>0.11106594652839397</v>
       </c>
-      <c r="F177">
+      <c r="H177">
         <v>0.12534137616186738</v>
       </c>
-      <c r="G177">
+      <c r="I177">
         <f t="shared" si="5"/>
         <v>-4.217960896144444E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.99055749177960273</v>
       </c>
       <c r="B178">
+        <v>1.9798074917796027</v>
+      </c>
+      <c r="C178">
         <v>0.79429702949129377</v>
       </c>
-      <c r="C178">
+      <c r="D178">
+        <f>0.794297029491294+(1.74-0.82)</f>
+        <v>1.7142970294912938</v>
+      </c>
+      <c r="E178">
         <v>0.19582800869725606</v>
       </c>
-      <c r="D178">
+      <c r="F178">
         <v>4.3245359105290038E-4</v>
       </c>
-      <c r="E178">
+      <c r="G178">
         <v>0.128223592484948</v>
       </c>
-      <c r="F178">
+      <c r="H178">
         <v>0.13303465869586525</v>
       </c>
-      <c r="G178">
+      <c r="I178">
         <f t="shared" si="5"/>
         <v>4.365759631739987E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.95839130032092967</v>
       </c>
       <c r="B179">
+        <v>1.9476413003209296</v>
+      </c>
+      <c r="C179">
         <v>0.79866858264310503</v>
       </c>
-      <c r="C179">
+      <c r="D179">
+        <f>0.798668582643105+(1.74-0.82)</f>
+        <v>1.718668582643105</v>
+      </c>
+      <c r="E179">
         <v>0.18268428726907984</v>
       </c>
-      <c r="D179">
+      <c r="F179">
         <v>-2.2961569591255199E-2</v>
       </c>
-      <c r="E179">
+      <c r="G179">
         <v>0.12128897953581297</v>
       </c>
-      <c r="F179">
+      <c r="H179">
         <v>0.14541550316340796</v>
       </c>
-      <c r="G179">
+      <c r="I179">
         <f t="shared" si="5"/>
         <v>-2.3958449522200609E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1.0040712810223305</v>
       </c>
       <c r="B180">
+        <v>1.9933212810223304</v>
+      </c>
+      <c r="C180">
         <v>0.8368698499304642</v>
       </c>
-      <c r="C180">
+      <c r="D180">
+        <f>0.836869849930464+(1.74-0.82)</f>
+        <v>1.7568698499304642</v>
+      </c>
+      <c r="E180">
         <v>0.18657219855178822</v>
       </c>
-      <c r="D180">
+      <c r="F180">
         <v>-1.9370767459921973E-2</v>
       </c>
-      <c r="E180">
+      <c r="G180">
         <v>0.13653468580374661</v>
       </c>
-      <c r="F180">
+      <c r="H180">
         <v>0.15527836733751102</v>
       </c>
-      <c r="G180">
+      <c r="I180">
         <f t="shared" si="5"/>
         <v>-1.9292223396927502E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.035492726408874</v>
       </c>
       <c r="B181">
+        <v>2.0247427264088742</v>
+      </c>
+      <c r="C181">
         <v>0.85482031309092077</v>
       </c>
-      <c r="C181">
+      <c r="D181">
+        <f>0.854820313090921+(1.74-0.82)</f>
+        <v>1.7748203130909208</v>
+      </c>
+      <c r="E181">
         <v>0.19580555387188966</v>
       </c>
-      <c r="D181">
+      <c r="F181">
         <v>-1.5133140553936414E-2</v>
       </c>
-      <c r="E181">
+      <c r="G181">
         <v>0.14889379644406567</v>
       </c>
-      <c r="F181">
+      <c r="H181">
         <v>0.16147110959659375</v>
       </c>
-      <c r="G181">
+      <c r="I181">
         <f t="shared" si="5"/>
         <v>-1.4614434431054566E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.0337651059286568</v>
       </c>
       <c r="B182">
+        <v>2.023015105928657</v>
+      </c>
+      <c r="C182">
         <v>0.86175413974784687</v>
       </c>
-      <c r="C182">
+      <c r="D182">
+        <f>0.861754139747847+(1.74-0.82)</f>
+        <v>1.7817541397478469</v>
+      </c>
+      <c r="E182">
         <v>0.21136749807998029</v>
       </c>
-      <c r="D182">
+      <c r="F182">
         <v>-3.9356531899170377E-2</v>
       </c>
-      <c r="E182">
+      <c r="G182">
         <v>0.14599729474381498</v>
       </c>
-      <c r="F182">
+      <c r="H182">
         <v>0.17475213516419341</v>
       </c>
-      <c r="G182">
+      <c r="I182">
         <f t="shared" si="5"/>
         <v>-3.8071058573616132E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1.0375260988390202</v>
       </c>
       <c r="B183">
+        <v>2.0267760988390204</v>
+      </c>
+      <c r="C183">
         <v>0.86425334642397245</v>
       </c>
-      <c r="C183">
+      <c r="D183">
+        <f>0.864253346423972+(1.74-0.82)</f>
+        <v>1.7842533464239725</v>
+      </c>
+      <c r="E183">
         <v>0.2067240992118371</v>
       </c>
-      <c r="D183">
+      <c r="F183">
         <v>-3.3451346796789294E-2</v>
       </c>
-      <c r="E183">
+      <c r="G183">
         <v>0.1475206933781287</v>
       </c>
-      <c r="F183">
+      <c r="H183">
         <v>0.17242266953034915</v>
       </c>
-      <c r="G183">
+      <c r="I183">
         <f t="shared" si="5"/>
         <v>-3.2241450922748799E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.0383838096986544</v>
       </c>
       <c r="B184">
+        <v>2.0276338096986546</v>
+      </c>
+      <c r="C184">
         <v>0.86813953480215722</v>
       </c>
-      <c r="C184">
+      <c r="D184">
+        <f>0.868139534802157+(1.74-0.82)</f>
+        <v>1.7881395348021574</v>
+      </c>
+      <c r="E184">
         <v>0.21125401353742262</v>
       </c>
-      <c r="D184">
+      <c r="F184">
         <v>-4.1009738640925442E-2</v>
       </c>
-      <c r="E184">
+      <c r="G184">
         <v>0.14962891646766824</v>
       </c>
-      <c r="F184">
+      <c r="H184">
         <v>0.17823356722041162</v>
       </c>
-      <c r="G184">
+      <c r="I184">
         <f t="shared" si="5"/>
         <v>-3.9493815540928678E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1.019921871303751</v>
       </c>
       <c r="B185">
+        <v>2.0091718713037512</v>
+      </c>
+      <c r="C185">
         <v>0.83701276919640311</v>
       </c>
-      <c r="C185">
+      <c r="D185">
+        <f>0.837012769196403+(1.74-0.82)</f>
+        <v>1.757012769196403</v>
+      </c>
+      <c r="E185">
         <v>0.21368796420213917</v>
       </c>
-      <c r="D185">
+      <c r="F185">
         <v>-3.0778862094791276E-2</v>
       </c>
-      <c r="E185">
+      <c r="G185">
         <v>0.14145471661524875</v>
       </c>
-      <c r="F185">
+      <c r="H185">
         <v>0.16542028796736702</v>
       </c>
-      <c r="G185">
+      <c r="I185">
         <f t="shared" si="5"/>
         <v>-3.0177666506403196E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1.0247298858377043</v>
       </c>
       <c r="B186">
+        <v>2.0139798858377045</v>
+      </c>
+      <c r="C186">
         <v>0.82942595029313571</v>
       </c>
-      <c r="C186">
+      <c r="D186">
+        <f>0.829425950293136+(1.74-0.82)</f>
+        <v>1.7494259502931357</v>
+      </c>
+      <c r="E186">
         <v>0.20537108450399022</v>
       </c>
-      <c r="D186">
+      <c r="F186">
         <v>-1.0067148959421623E-2</v>
       </c>
-      <c r="E186">
+      <c r="G186">
         <v>0.14552484799123863</v>
       </c>
-      <c r="F186">
+      <c r="H186">
         <v>0.15463582886904725</v>
       </c>
-      <c r="G186">
+      <c r="I186">
         <f t="shared" si="5"/>
         <v>-9.8241976725328452E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1.0011648638225168</v>
       </c>
       <c r="B187">
+        <v>1.9904148638225168</v>
+      </c>
+      <c r="C187">
         <v>0.79971004855821815</v>
       </c>
-      <c r="C187">
+      <c r="D187">
+        <f>0.799710048558218+(1.74-0.82)</f>
+        <v>1.7197100485582182</v>
+      </c>
+      <c r="E187">
         <v>0.19335699894868374</v>
       </c>
-      <c r="D187">
+      <c r="F187">
         <v>8.097816315614903E-3</v>
       </c>
-      <c r="E187">
+      <c r="G187">
         <v>0.14601758299535589</v>
       </c>
-      <c r="F187">
+      <c r="H187">
         <v>0.14144602989659183</v>
       </c>
-      <c r="G187">
+      <c r="I187">
         <f t="shared" si="5"/>
         <v>8.0883944375523525E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.99547600470232922</v>
       </c>
       <c r="B188">
+        <v>1.9847260047023292</v>
+      </c>
+      <c r="C188">
         <v>0.78763682277923919</v>
       </c>
-      <c r="C188">
+      <c r="D188">
+        <f>0.787636822779239+(1.74-0.82)</f>
+        <v>1.7076368227792393</v>
+      </c>
+      <c r="E188">
         <v>0.18849966998266077</v>
       </c>
-      <c r="D188">
+      <c r="F188">
         <v>1.9339511940429266E-2</v>
       </c>
-      <c r="E188">
+      <c r="G188">
         <v>0.14381680958972665</v>
       </c>
-      <c r="F188">
+      <c r="H188">
         <v>0.13171137186686693</v>
       </c>
-      <c r="G188">
+      <c r="I188">
         <f t="shared" si="5"/>
         <v>1.9427401413067948E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.98677779604600069</v>
       </c>
       <c r="B189">
+        <v>1.9760277960460007</v>
+      </c>
+      <c r="C189">
         <v>0.79237736116528723</v>
       </c>
-      <c r="C189">
+      <c r="D189">
+        <f>0.792377361165287+(1.74-0.82)</f>
+        <v>1.7123773611652873</v>
+      </c>
+      <c r="E189">
         <v>0.18035855664844572</v>
       </c>
-      <c r="D189">
+      <c r="F189">
         <v>1.404187823226774E-2</v>
       </c>
-      <c r="E189">
+      <c r="G189">
         <v>0.14546396562306776</v>
       </c>
-      <c r="F189">
+      <c r="H189">
         <v>0.13779614815317057</v>
       </c>
-      <c r="G189">
+      <c r="I189">
         <f t="shared" si="5"/>
         <v>1.4230030599120969E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <f>1.74-0.82</f>
+        <v>0.92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_RBC+Prices+MP/Datos/DataCOL.xlsx
+++ b/04_RBC+Prices+MP/Datos/DataCOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarincong/Documents/Git Repos/CAEP/04_RBC+Prices+MP/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADEC04F-307B-314F-838E-2C76E04FBB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD1F2BF-52EF-A945-9A3F-9E1C0BCCE60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3B812F19-A572-41B0-90ED-022F2B941229}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Yprom</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>C_obs_norm</t>
+  </si>
+  <si>
+    <t>I_obs_norm</t>
   </si>
 </sst>
 </file>
@@ -432,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC43C700-5E37-433E-91EB-5805D755A630}">
-  <dimension ref="A1:Q191"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="267" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,7 +448,7 @@
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -459,34 +462,37 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.98520044861024481</v>
       </c>
@@ -497,43 +503,46 @@
         <v>0.79287768302896822</v>
       </c>
       <c r="D2">
-        <f>0.792877683028968+(1.74-0.82)</f>
-        <v>1.7128776830289683</v>
+        <f>0.792877683028968+(1.74412-0.82)</f>
+        <v>1.7169976830289682</v>
       </c>
       <c r="E2">
         <v>0.20294724695027622</v>
       </c>
       <c r="F2">
+        <v>0.30039690481718828</v>
+      </c>
+      <c r="G2">
         <v>-1.0624481368999628E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.13017333567562595</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.13740847261401623</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I33" si="0">+F2/A2</f>
+      <c r="J2">
+        <f>+G2/A2</f>
         <v>-1.0784080928898135E-2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>AVERAGE(A2:A189)</f>
         <v>1.0000000000002986</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <f>AVERAGE(C2:C189)</f>
         <v>0.81563232066151869</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <f>AVERAGE(E2:E189)</f>
         <v>0.19364934213308796</v>
       </c>
-      <c r="N2" s="3">
-        <f>AVERAGE(F2:F189)</f>
+      <c r="O2" s="3">
+        <f>AVERAGE(G2:G189)</f>
         <v>-9.2816627943079974E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.95721604297855833</v>
       </c>
@@ -544,27 +553,30 @@
         <v>0.78731210998942269</v>
       </c>
       <c r="D3">
-        <f>0.787312109989423+(1.74-0.82)</f>
-        <v>1.7073121099894228</v>
+        <f>0.787312109989423+(1.74412-0.82)</f>
+        <v>1.7114321099894227</v>
       </c>
       <c r="E3">
         <v>0.18532885457718937</v>
       </c>
       <c r="F3">
+        <v>0.2827785124441014</v>
+      </c>
+      <c r="G3">
         <v>-1.5424921588053725E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.12383133402345919</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.14094891976083329</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
+      <c r="J3">
+        <f>+G3/A3</f>
         <v>-1.6114357569745875E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.97681597833671496</v>
       </c>
@@ -575,27 +587,30 @@
         <v>0.82479662544548427</v>
       </c>
       <c r="D4">
-        <f>0.824796625445484+(1.74-0.82)</f>
-        <v>1.7447966254454843</v>
+        <f>0.824796625445484+(1.74412-0.82)</f>
+        <v>1.7489166254454842</v>
       </c>
       <c r="E4">
         <v>0.16960874118363894</v>
       </c>
       <c r="F4">
+        <v>0.26705839905055095</v>
+      </c>
+      <c r="G4">
         <v>-1.7589388292408248E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.11820516680057776</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.14184525159728226</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="J4">
+        <f>+G4/A4</f>
         <v>-1.8006859718202796E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.97865847791584848</v>
       </c>
@@ -606,34 +621,37 @@
         <v>0.78962876312914954</v>
       </c>
       <c r="D5">
-        <f>0.78962876312915+(1.74-0.82)</f>
-        <v>1.7096287631291496</v>
+        <f>0.78962876312915+(1.74412-0.82)</f>
+        <v>1.7137487631291495</v>
       </c>
       <c r="E5">
         <v>0.20474554580387336</v>
       </c>
       <c r="F5">
+        <v>0.3021952036707854</v>
+      </c>
+      <c r="G5">
         <v>-1.5715831017174414E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1268612805985532</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.14440862303928315</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
+      <c r="J5">
+        <f>+G5/A5</f>
         <v>-1.6058544805786442E-2</v>
       </c>
-      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.99487458076180069</v>
       </c>
@@ -644,27 +662,30 @@
         <v>0.8005263981124876</v>
       </c>
       <c r="D6">
-        <f>0.800526398112488+(1.74-0.82)</f>
-        <v>1.7205263981124876</v>
+        <f>0.800526398112488+(1.74412-0.82)</f>
+        <v>1.7246463981124875</v>
       </c>
       <c r="E6">
         <v>0.19088158250614029</v>
       </c>
       <c r="F6">
+        <v>0.28833124037305236</v>
+      </c>
+      <c r="G6">
         <v>3.4666001431727933E-3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.15743575919133806</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.1498136024226443</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="J6">
+        <f>+G6/A6</f>
         <v>3.4844594587172283E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.0063025266579473</v>
       </c>
@@ -675,27 +696,30 @@
         <v>0.82110867725860626</v>
       </c>
       <c r="D7">
-        <f>0.821108677258606+(1.74-0.82)</f>
-        <v>1.7411086772586062</v>
+        <f>0.821108677258606+(1.74412-0.82)</f>
+        <v>1.7452286772586061</v>
       </c>
       <c r="E7">
         <v>0.19453415063069354</v>
       </c>
       <c r="F7">
+        <v>0.29198380849760558</v>
+      </c>
+      <c r="G7">
         <v>-9.3403012313525158E-3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.14463694455402698</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.15413765512915448</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
+      <c r="J7">
+        <f>+G7/A7</f>
         <v>-9.2818024241405703E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.0178711121330117</v>
       </c>
@@ -706,27 +730,30 @@
         <v>0.83605563864155097</v>
       </c>
       <c r="D8">
-        <f>0.836055638641551+(1.74-0.82)</f>
-        <v>1.7560556386415511</v>
+        <f>0.836055638641551+(1.74412-0.82)</f>
+        <v>1.760175638641551</v>
       </c>
       <c r="E8">
         <v>0.19488717800694166</v>
       </c>
       <c r="F8">
+        <v>0.29233683587385373</v>
+      </c>
+      <c r="G8">
         <v>-1.3071704515480898E-2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.1407403282995304</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.15532976660833539</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="J8">
+        <f>+G8/A8</f>
         <v>-1.2842200117152685E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.0125919993604722</v>
       </c>
@@ -737,27 +764,30 @@
         <v>0.82761650738254378</v>
       </c>
       <c r="D9">
-        <f>0.827616507382544+(1.74-0.82)</f>
-        <v>1.7476165073825438</v>
+        <f>0.827616507382544+(1.74412-0.82)</f>
+        <v>1.7517365073825437</v>
       </c>
       <c r="E9">
         <v>0.19509556542505535</v>
       </c>
       <c r="F9">
+        <v>0.29254522329196742</v>
+      </c>
+      <c r="G9">
         <v>-1.0120073447126954E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.14594478589091373</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1568271756003872</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="J9">
+        <f>+G9/A9</f>
         <v>-9.9942261577402741E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0086909881163066</v>
       </c>
@@ -768,27 +798,30 @@
         <v>0.80245798035998239</v>
       </c>
       <c r="D10">
-        <f>0.802457980359982+(1.74-0.82)</f>
-        <v>1.7224579803599824</v>
+        <f>0.802457980359982+(1.74412-0.82)</f>
+        <v>1.7265779803599823</v>
       </c>
       <c r="E10">
         <v>0.18652317657076056</v>
       </c>
       <c r="F10">
+        <v>0.28397283443767263</v>
+      </c>
+      <c r="G10">
         <v>1.9709831185563687E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.16739607412488858</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.13530917440803783</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+      <c r="J10">
+        <f>+G10/A10</f>
         <v>1.9540009197832799E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.0122307124154375</v>
       </c>
@@ -799,27 +832,30 @@
         <v>0.82555415749573857</v>
       </c>
       <c r="D11">
-        <f>0.825554157495739+(1.74-0.82)</f>
-        <v>1.7455541574957385</v>
+        <f>0.825554157495739+(1.74412-0.82)</f>
+        <v>1.7496741574957384</v>
       </c>
       <c r="E11">
         <v>0.18724108361637304</v>
       </c>
       <c r="F11">
+        <v>0.2846907414832851</v>
+      </c>
+      <c r="G11">
         <v>-5.6452869667411587E-4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.14678299019185839</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.14144785504495522</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+      <c r="J11">
+        <f>+G11/A11</f>
         <v>-5.5770753618708936E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.0190097750378158</v>
       </c>
@@ -830,27 +866,30 @@
         <v>0.83813751261826508</v>
       </c>
       <c r="D12">
-        <f>0.838137512618265+(1.74-0.82)</f>
-        <v>1.7581375126182652</v>
+        <f>0.838137512618265+(1.74412-0.82)</f>
+        <v>1.7622575126182651</v>
       </c>
       <c r="E12">
         <v>0.18574831147156209</v>
       </c>
       <c r="F12">
+        <v>0.28319796933847413</v>
+      </c>
+      <c r="G12">
         <v>-4.8760490520114164E-3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.1427955959962742</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.14384871298906185</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="J12">
+        <f>+G12/A12</f>
         <v>-4.7850856502632318E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.0249589820013369</v>
       </c>
@@ -861,27 +900,30 @@
         <v>0.83671792962899583</v>
       </c>
       <c r="D13">
-        <f>0.836717929628996+(1.74-0.82)</f>
-        <v>1.7567179296289959</v>
+        <f>0.836717929628996+(1.74412-0.82)</f>
+        <v>1.7608379296289958</v>
       </c>
       <c r="E13">
         <v>0.1895757312821679</v>
       </c>
       <c r="F13">
+        <v>0.28702538914907993</v>
+      </c>
+      <c r="G13">
         <v>-1.3346789098267753E-3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.14848326634077175</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.14440446904421828</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="J13">
+        <f>+G13/A13</f>
         <v>-1.3021778756655009E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.0157856341667291</v>
       </c>
@@ -892,27 +934,30 @@
         <v>0.83787066711065339</v>
       </c>
       <c r="D14">
-        <f>0.837870667110653+(1.74-0.82)</f>
-        <v>1.7578706671106534</v>
+        <f>0.837870667110653+(1.74412-0.82)</f>
+        <v>1.7619906671106533</v>
       </c>
       <c r="E14">
         <v>0.18868225854254445</v>
       </c>
       <c r="F14">
+        <v>0.28613191640945645</v>
+      </c>
+      <c r="G14">
         <v>-1.0767291486468766E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.13649362725478437</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.14629256178420949</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="J14">
+        <f>+G14/A14</f>
         <v>-1.0599964327415803E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.0244617386354715</v>
       </c>
@@ -923,27 +968,30 @@
         <v>0.82572766819984733</v>
       </c>
       <c r="D15">
-        <f>0.825727668199847+(1.74-0.82)</f>
-        <v>1.7457276681998475</v>
+        <f>0.825727668199847+(1.74412-0.82)</f>
+        <v>1.7498476681998474</v>
       </c>
       <c r="E15">
         <v>0.19787620934739542</v>
       </c>
       <c r="F15">
+        <v>0.29532586721430742</v>
+      </c>
+      <c r="G15">
         <v>8.5786108822877294E-4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.15897524814859368</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.1545291309507838</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
+      <c r="J15">
+        <f>+G15/A15</f>
         <v>8.3737738158127628E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.0159234067987306</v>
       </c>
@@ -954,27 +1002,30 @@
         <v>0.80789384895721938</v>
       </c>
       <c r="D16">
-        <f>0.807893848957219+(1.74-0.82)</f>
-        <v>1.7278938489572195</v>
+        <f>0.807893848957219+(1.74412-0.82)</f>
+        <v>1.7320138489572194</v>
       </c>
       <c r="E16">
         <v>0.20019175793724317</v>
       </c>
       <c r="F16">
+        <v>0.29764141580415521</v>
+      </c>
+      <c r="G16">
         <v>7.8377999042680557E-3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.17034791558091031</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.15948470954130803</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
+      <c r="J16">
+        <f>+G16/A16</f>
         <v>7.7149515916418287E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.0209857638773858</v>
       </c>
@@ -985,27 +1036,30 @@
         <v>0.82053584413800085</v>
       </c>
       <c r="D17">
-        <f>0.820535844138001+(1.74-0.82)</f>
-        <v>1.7405358441380008</v>
+        <f>0.820535844138001+(1.74412-0.82)</f>
+        <v>1.7446558441380007</v>
       </c>
       <c r="E17">
         <v>0.20594225575426789</v>
       </c>
       <c r="F17">
+        <v>0.3033919136211799</v>
+      </c>
+      <c r="G17">
         <v>-5.4923360148829148E-3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.15506752153551892</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.16071114566711503</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
+      <c r="J17">
+        <f>+G17/A17</f>
         <v>-5.3794442676896237E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.0214876761238791</v>
       </c>
@@ -1016,27 +1070,30 @@
         <v>0.82905838511541974</v>
       </c>
       <c r="D18">
-        <f>0.82905838511542+(1.74-0.82)</f>
-        <v>1.7490583851154198</v>
+        <f>0.82905838511542+(1.74412-0.82)</f>
+        <v>1.7531783851154197</v>
       </c>
       <c r="E18">
         <v>0.21173672022728499</v>
       </c>
       <c r="F18">
+        <v>0.30918637809419702</v>
+      </c>
+      <c r="G18">
         <v>-1.9307429218825584E-2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.13395966190570677</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.15968569805301613</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
+      <c r="J18">
+        <f>+G18/A18</f>
         <v>-1.8901284538340439E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.008162706908049</v>
       </c>
@@ -1047,27 +1104,30 @@
         <v>0.81818588393061753</v>
       </c>
       <c r="D19">
-        <f>0.818185883930618+(1.74-0.82)</f>
-        <v>1.7381858839306177</v>
+        <f>0.818185883930618+(1.74412-0.82)</f>
+        <v>1.7423058839306176</v>
       </c>
       <c r="E19">
         <v>0.19969404132778087</v>
       </c>
       <c r="F19">
+        <v>0.29714369919469291</v>
+      </c>
+      <c r="G19">
         <v>-9.7172183503494158E-3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.14088157974345666</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.15081791803408845</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
+      <c r="J19">
+        <f>+G19/A19</f>
         <v>-9.638541758950115E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.0068126026930209</v>
       </c>
@@ -1078,27 +1138,30 @@
         <v>0.81463150370318205</v>
       </c>
       <c r="D20">
-        <f>0.814631503703182+(1.74-0.82)</f>
-        <v>1.7346315037031821</v>
+        <f>0.814631503703182+(1.74412-0.82)</f>
+        <v>1.738751503703182</v>
       </c>
       <c r="E20">
         <v>0.20430728629532999</v>
       </c>
       <c r="F20">
+        <v>0.30175694416224202</v>
+      </c>
+      <c r="G20">
         <v>-1.2126187305491171E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.13397944158742117</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.14813448887578826</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
+      <c r="J20">
+        <f>+G20/A20</f>
         <v>-1.2044135396255533E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0093648098877939</v>
       </c>
@@ -1109,27 +1172,30 @@
         <v>0.84491752841408851</v>
       </c>
       <c r="D21">
-        <f>0.844917528414089+(1.74-0.82)</f>
-        <v>1.7649175284140886</v>
+        <f>0.844917528414089+(1.74412-0.82)</f>
+        <v>1.7690375284140885</v>
       </c>
       <c r="E21">
         <v>0.18309497655543558</v>
       </c>
       <c r="F21">
+        <v>0.28054463442234762</v>
+      </c>
+      <c r="G21">
         <v>-1.8647695081730226E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.13848593893838157</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.16144834199151148</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
+      <c r="J21">
+        <f>+G21/A21</f>
         <v>-1.847468318595652E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.0056076036226678</v>
       </c>
@@ -1140,27 +1206,30 @@
         <v>0.83824021948749017</v>
       </c>
       <c r="D22">
-        <f>0.83824021948749+(1.74-0.82)</f>
-        <v>1.7582402194874902</v>
+        <f>0.83824021948749+(1.74412-0.82)</f>
+        <v>1.7623602194874901</v>
       </c>
       <c r="E22">
         <v>0.18933468831548805</v>
       </c>
       <c r="F22">
+        <v>0.28678434618240012</v>
+      </c>
+      <c r="G22">
         <v>-2.1967304180310454E-2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.13897617501995768</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.166982292540065</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
+      <c r="J22">
+        <f>+G22/A22</f>
         <v>-2.184480716054053E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.0024093871232118</v>
       </c>
@@ -1171,27 +1240,30 @@
         <v>0.82087812834403673</v>
       </c>
       <c r="D23">
-        <f>0.820878128344037+(1.74-0.82)</f>
-        <v>1.7408781283440367</v>
+        <f>0.820878128344037+(1.74412-0.82)</f>
+        <v>1.7449981283440366</v>
       </c>
       <c r="E23">
         <v>0.20352404485938841</v>
       </c>
       <c r="F23">
+        <v>0.30097370272630042</v>
+      </c>
+      <c r="G23">
         <v>-2.1992786080213322E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.13799324481093359</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1677749593382023</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
+      <c r="J23">
+        <f>+G23/A23</f>
         <v>-2.1939924309098739E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.99309218089766738</v>
       </c>
@@ -1202,27 +1274,30 @@
         <v>0.81120873967079743</v>
       </c>
       <c r="D24">
-        <f>0.811208739670797+(1.74-0.82)</f>
-        <v>1.7312087396707976</v>
+        <f>0.811208739670797+(1.74412-0.82)</f>
+        <v>1.7353287396707975</v>
       </c>
       <c r="E24">
         <v>0.20307005045840876</v>
       </c>
       <c r="F24">
+        <v>0.30051970832532082</v>
+      </c>
+      <c r="G24">
         <v>-2.1186609231538811E-2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.13215684090798946</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.16139576618290913</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
+      <c r="J24">
+        <f>+G24/A24</f>
         <v>-2.133398050963204E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.97948981599723517</v>
       </c>
@@ -1233,27 +1308,30 @@
         <v>0.80975606804467171</v>
       </c>
       <c r="D25">
-        <f>0.809756068044672+(1.74-0.82)</f>
-        <v>1.7297560680446717</v>
+        <f>0.809756068044672+(1.74412-0.82)</f>
+        <v>1.7338760680446716</v>
       </c>
       <c r="E25">
         <v>0.19496490315846879</v>
       </c>
       <c r="F25">
+        <v>0.29241456102538083</v>
+      </c>
+      <c r="G25">
         <v>-2.5231155205905326E-2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.12301694311777518</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.15789965996547956</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
+      <c r="J25">
+        <f>+G25/A25</f>
         <v>-2.5759487024596635E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.97939477483877901</v>
       </c>
@@ -1264,27 +1342,30 @@
         <v>0.79523967525011863</v>
       </c>
       <c r="D26">
-        <f>0.795239675250119+(1.74-0.82)</f>
-        <v>1.7152396752501187</v>
+        <f>0.795239675250119+(1.74412-0.82)</f>
+        <v>1.7193596752501186</v>
       </c>
       <c r="E26">
         <v>0.20202392556199461</v>
       </c>
       <c r="F26">
+        <v>0.29947358342890662</v>
+      </c>
+      <c r="G26">
         <v>-1.7868825973334224E-2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.13208673152585859</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.1570580365135234</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
+      <c r="J26">
+        <f>+G26/A26</f>
         <v>-1.824476343186093E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98743286734366897</v>
       </c>
@@ -1295,27 +1376,30 @@
         <v>0.81639570167422715</v>
       </c>
       <c r="D27">
-        <f>0.816395701674227+(1.74-0.82)</f>
-        <v>1.7363957016742271</v>
+        <f>0.816395701674227+(1.74412-0.82)</f>
+        <v>1.740515701674227</v>
       </c>
       <c r="E27">
         <v>0.19030958849175494</v>
       </c>
       <c r="F27">
+        <v>0.28775924635866701</v>
+      </c>
+      <c r="G27">
         <v>-1.9272422822313118E-2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.12530570121312001</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.15003395951372525</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
+      <c r="J27">
+        <f>+G27/A27</f>
         <v>-1.9517704402688765E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.97857433731934762</v>
       </c>
@@ -1326,27 +1410,30 @@
         <v>0.80617271345593355</v>
       </c>
       <c r="D28">
-        <f>0.806172713455934+(1.74-0.82)</f>
-        <v>1.7261727134559335</v>
+        <f>0.806172713455934+(1.74412-0.82)</f>
+        <v>1.7302927134559334</v>
       </c>
       <c r="E28">
         <v>0.18805257440973994</v>
       </c>
       <c r="F28">
+        <v>0.28550223227665195</v>
+      </c>
+      <c r="G28">
         <v>-1.565095054632587E-2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.13098453312191363</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.15010444149640742</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
+      <c r="J28">
+        <f>+G28/A28</f>
         <v>-1.5993624550996521E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.99315369803617415</v>
       </c>
@@ -1357,27 +1444,30 @@
         <v>0.80938535260635225</v>
       </c>
       <c r="D29">
-        <f>0.809385352606352+(1.74-0.82)</f>
-        <v>1.7293853526063523</v>
+        <f>0.809385352606352+(1.74412-0.82)</f>
+        <v>1.7335053526063522</v>
       </c>
       <c r="E29">
         <v>0.20185857246900521</v>
       </c>
       <c r="F29">
+        <v>0.29930823033591725</v>
+      </c>
+      <c r="G29">
         <v>-1.809022703918331E-2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.12037395941023557</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.14408176907001449</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
+      <c r="J29">
+        <f>+G29/A29</f>
         <v>-1.821493196365705E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98788969600293264</v>
       </c>
@@ -1388,27 +1478,30 @@
         <v>0.801289384213973</v>
       </c>
       <c r="D30">
-        <f>0.801289384213973+(1.74-0.82)</f>
-        <v>1.7212893842139732</v>
+        <f>0.801289384213973+(1.74412-0.82)</f>
+        <v>1.7254093842139731</v>
       </c>
       <c r="E30">
         <v>0.20244044534662228</v>
       </c>
       <c r="F30">
+        <v>0.29989010321353432</v>
+      </c>
+      <c r="G30">
         <v>-1.5840133557662645E-2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.13364699490787921</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.15499212768127363</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
+      <c r="J30">
+        <f>+G30/A30</f>
         <v>-1.6034313974275547E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98162325205403356</v>
       </c>
@@ -1419,27 +1512,30 @@
         <v>0.79688956134304956</v>
       </c>
       <c r="D31">
-        <f>0.79688956134305+(1.74-0.82)</f>
-        <v>1.7168895613430495</v>
+        <f>0.79688956134305+(1.74412-0.82)</f>
+        <v>1.7210095613430494</v>
       </c>
       <c r="E31">
         <v>0.19968008461897147</v>
       </c>
       <c r="F31">
+        <v>0.29712974248588353</v>
+      </c>
+      <c r="G31">
         <v>-1.4946393907987465E-2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.13570873051885299</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.15550694615313149</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
+      <c r="J31">
+        <f>+G31/A31</f>
         <v>-1.5226201984022216E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98782484000172843</v>
       </c>
@@ -1450,27 +1546,30 @@
         <v>0.80990445494015118</v>
       </c>
       <c r="D32">
-        <f>0.809904454940151+(1.74-0.82)</f>
-        <v>1.7299044549401512</v>
+        <f>0.809904454940151+(1.74412-0.82)</f>
+        <v>1.7340244549401511</v>
       </c>
       <c r="E32">
         <v>0.19321743486611956</v>
       </c>
       <c r="F32">
+        <v>0.2906670927330316</v>
+      </c>
+      <c r="G32">
         <v>-1.5297049804542301E-2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.12684804645059694</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.14382369912029214</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
+      <c r="J32">
+        <f>+G32/A32</f>
         <v>-1.5485589332330957E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.99447375586110986</v>
       </c>
@@ -1481,27 +1580,30 @@
         <v>0.81744560219283002</v>
       </c>
       <c r="D33">
-        <f>0.81744560219283+(1.74-0.82)</f>
-        <v>1.73744560219283</v>
+        <f>0.81744560219283+(1.74412-0.82)</f>
+        <v>1.7415656021928299</v>
       </c>
       <c r="E33">
         <v>0.18525532465762987</v>
       </c>
       <c r="F33">
+        <v>0.2827049825245419</v>
+      </c>
+      <c r="G33">
         <v>-8.2271709893500244E-3</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.1325341430536523</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.13625799400517885</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
+      <c r="J33">
+        <f>+G33/A33</f>
         <v>-8.2728889936629427E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98714161153130675</v>
       </c>
@@ -1512,27 +1614,30 @@
         <v>0.80036735604872156</v>
       </c>
       <c r="D34">
-        <f>0.800367356048722+(1.74-0.82)</f>
-        <v>1.7203673560487216</v>
+        <f>0.800367356048722+(1.74412-0.82)</f>
+        <v>1.7244873560487215</v>
       </c>
       <c r="E34">
         <v>0.17951717928366695</v>
       </c>
       <c r="F34">
+        <v>0.27696683715057901</v>
+      </c>
+      <c r="G34">
         <v>7.2570761989182442E-3</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.13607795665851438</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.10873380032335246</v>
       </c>
-      <c r="I34">
-        <f t="shared" ref="I34:I65" si="1">+F34/A34</f>
+      <c r="J34">
+        <f>+G34/A34</f>
         <v>7.3516060047966979E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98182201244932088</v>
       </c>
@@ -1543,27 +1648,30 @@
         <v>0.8037530117980628</v>
       </c>
       <c r="D35">
-        <f>0.803753011798063+(1.74-0.82)</f>
-        <v>1.7237530117980628</v>
+        <f>0.803753011798063+(1.74412-0.82)</f>
+        <v>1.7278730117980627</v>
       </c>
       <c r="E35">
         <v>0.17369226610541449</v>
       </c>
       <c r="F35">
+        <v>0.2711419239723265</v>
+      </c>
+      <c r="G35">
         <v>4.3767345458435858E-3</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.14657684932003573</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.13255732986569674</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
+      <c r="J35">
+        <f>+G35/A35</f>
         <v>4.4577677932939007E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.97780867404248717</v>
       </c>
@@ -1574,27 +1682,30 @@
         <v>0.80526305052208491</v>
       </c>
       <c r="D36">
-        <f>0.805263050522085+(1.74-0.82)</f>
-        <v>1.725263050522085</v>
+        <f>0.805263050522085+(1.74412-0.82)</f>
+        <v>1.7293830505220849</v>
       </c>
       <c r="E36">
         <v>0.18389320877764204</v>
       </c>
       <c r="F36">
+        <v>0.2813428666445541</v>
+      </c>
+      <c r="G36">
         <v>-1.1347585257239778E-2</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.13497571596061289</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.14517123251298761</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
+      <c r="J36">
+        <f>+G36/A36</f>
         <v>-1.1605118218399758E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98866883006908601</v>
       </c>
@@ -1605,27 +1716,30 @@
         <v>0.81542895793112091</v>
       </c>
       <c r="D37">
-        <f>0.815428957931121+(1.74-0.82)</f>
-        <v>1.7354289579311208</v>
+        <f>0.815428957931121+(1.74412-0.82)</f>
+        <v>1.7395489579311207</v>
       </c>
       <c r="E37">
         <v>0.19347299688351791</v>
       </c>
       <c r="F37">
+        <v>0.29092265475042994</v>
+      </c>
+      <c r="G37">
         <v>-2.0233124745552805E-2</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.13812294761928784</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.16450526223325981</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
+      <c r="J37">
+        <f>+G37/A37</f>
         <v>-2.0465017334610376E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.0023704466433649</v>
       </c>
@@ -1636,27 +1750,30 @@
         <v>0.82663904185617987</v>
       </c>
       <c r="D38">
-        <f>0.82663904185618+(1.74-0.82)</f>
-        <v>1.7466390418561799</v>
+        <f>0.82663904185618+(1.74412-0.82)</f>
+        <v>1.7507590418561798</v>
       </c>
       <c r="E38">
         <v>0.18954981019882963</v>
       </c>
       <c r="F38">
+        <v>0.28699946806574167</v>
+      </c>
+      <c r="G38">
         <v>-1.3818405411644558E-2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.13868024357085512</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.15268655481725579</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
+      <c r="J38">
+        <f>+G38/A38</f>
         <v>-1.378572708115868E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.0109311888955954</v>
       </c>
@@ -1667,27 +1784,30 @@
         <v>0.84043365053411867</v>
       </c>
       <c r="D39">
-        <f>0.840433650534119+(1.74-0.82)</f>
-        <v>1.7604336505341187</v>
+        <f>0.840433650534119+(1.74412-0.82)</f>
+        <v>1.7645536505341186</v>
       </c>
       <c r="E39">
         <v>0.19236365040877101</v>
       </c>
       <c r="F39">
+        <v>0.28981330827568308</v>
+      </c>
+      <c r="G39">
         <v>-2.1866112047294273E-2</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.12658535030971144</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.149751793256169</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
+      <c r="J39">
+        <f>+G39/A39</f>
         <v>-2.1629673995103647E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.0052630874281565</v>
       </c>
@@ -1698,27 +1818,30 @@
         <v>0.79069876679393891</v>
       </c>
       <c r="D40">
-        <f>0.790698766793939+(1.74-0.82)</f>
-        <v>1.7106987667939388</v>
+        <f>0.790698766793939+(1.74412-0.82)</f>
+        <v>1.7148187667939387</v>
       </c>
       <c r="E40">
         <v>0.20121394721441019</v>
       </c>
       <c r="F40">
+        <v>0.29866360508132223</v>
+      </c>
+      <c r="G40">
         <v>1.335037341980741E-2</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.16470474179679107</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.14593678322352857</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
+      <c r="J40">
+        <f>+G40/A40</f>
         <v>1.3280477107701943E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.986010283788195</v>
       </c>
@@ -1729,27 +1852,30 @@
         <v>0.77221942913509123</v>
       </c>
       <c r="D41">
-        <f>0.772219429135091+(1.74-0.82)</f>
-        <v>1.6922194291350912</v>
+        <f>0.772219429135091+(1.74412-0.82)</f>
+        <v>1.6963394291350911</v>
       </c>
       <c r="E41">
         <v>0.19510269225141139</v>
       </c>
       <c r="F41">
+        <v>0.29255235011832342</v>
+      </c>
+      <c r="G41">
         <v>1.8688162401692382E-2</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.16575975136387497</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.14065097790918643</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
+      <c r="J41">
+        <f>+G41/A41</f>
         <v>1.8953313884205684E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.0109547040243054</v>
       </c>
@@ -1760,27 +1886,30 @@
         <v>0.81934210436987742</v>
       </c>
       <c r="D42">
-        <f>0.819342104369877+(1.74-0.82)</f>
-        <v>1.7393421043698774</v>
+        <f>0.819342104369877+(1.74412-0.82)</f>
+        <v>1.7434621043698773</v>
       </c>
       <c r="E42">
         <v>0.19374087092712386</v>
       </c>
       <c r="F42">
+        <v>0.2911905287940359</v>
+      </c>
+      <c r="G42">
         <v>-2.128271272695853E-3</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.14932117239117412</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.14595226036086972</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
+      <c r="J42">
+        <f>+G42/A42</f>
         <v>-2.1052093276027577E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1.0121330823890826</v>
       </c>
@@ -1791,27 +1920,30 @@
         <v>0.82292550780957407</v>
       </c>
       <c r="D43">
-        <f>0.822925507809574+(1.74-0.82)</f>
-        <v>1.742925507809574</v>
+        <f>0.822925507809574+(1.74412-0.82)</f>
+        <v>1.7470455078095739</v>
       </c>
       <c r="E43">
         <v>0.1973227267017888</v>
       </c>
       <c r="F43">
+        <v>0.29477238456870081</v>
+      </c>
+      <c r="G43">
         <v>-8.1151521222802558E-3</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.14615671610844727</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.15194431398408215</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
+      <c r="J43">
+        <f>+G43/A43</f>
         <v>-8.017870637253453E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.01443672223939</v>
       </c>
@@ -1822,27 +1954,30 @@
         <v>0.81535714005325488</v>
       </c>
       <c r="D44">
-        <f>0.815357140053255+(1.74-0.82)</f>
-        <v>1.7353571400532548</v>
+        <f>0.815357140053255+(1.74412-0.82)</f>
+        <v>1.7394771400532547</v>
       </c>
       <c r="E44">
         <v>0.19153538908287712</v>
       </c>
       <c r="F44">
+        <v>0.28898504694978916</v>
+      </c>
+      <c r="G44">
         <v>7.5441931032579623E-3</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.1638265163139272</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.154582808098196</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
+      <c r="J44">
+        <f>+G44/A44</f>
         <v>7.4368296591274816E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.0092887840082909</v>
       </c>
@@ -1853,27 +1988,30 @@
         <v>0.84130169202451377</v>
       </c>
       <c r="D45">
-        <f>0.841301692024514+(1.74-0.82)</f>
-        <v>1.7613016920245137</v>
+        <f>0.841301692024514+(1.74412-0.82)</f>
+        <v>1.7654216920245136</v>
       </c>
       <c r="E45">
         <v>0.19246839890949724</v>
       </c>
       <c r="F45">
+        <v>0.28991805677640925</v>
+      </c>
+      <c r="G45">
         <v>-2.4481306925720092E-2</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.13050183578068694</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.15766549295431215</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
+      <c r="J45">
+        <f>+G45/A45</f>
         <v>-2.4255998197557489E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.0138048632898684</v>
       </c>
@@ -1884,27 +2022,30 @@
         <v>0.81638244278360095</v>
       </c>
       <c r="D46">
-        <f>0.816382442783601+(1.74-0.82)</f>
-        <v>1.736382442783601</v>
+        <f>0.816382442783601+(1.74412-0.82)</f>
+        <v>1.7405024427836009</v>
       </c>
       <c r="E46">
         <v>0.20765373456438407</v>
       </c>
       <c r="F46">
+        <v>0.30510339243129614</v>
+      </c>
+      <c r="G46">
         <v>-1.0231314058116614E-2</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.14383889412197437</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.1522402256774017</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
+      <c r="J46">
+        <f>+G46/A46</f>
         <v>-1.0091995440735288E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.0116898463800919</v>
       </c>
@@ -1915,27 +2056,30 @@
         <v>0.80838327918368513</v>
       </c>
       <c r="D47">
-        <f>0.808383279183685+(1.74-0.82)</f>
-        <v>1.7283832791836851</v>
+        <f>0.808383279183685+(1.74412-0.82)</f>
+        <v>1.732503279183685</v>
       </c>
       <c r="E47">
         <v>0.21763098135115314</v>
       </c>
       <c r="F47">
+        <v>0.31508063921806517</v>
+      </c>
+      <c r="G47">
         <v>-1.4324414154746418E-2</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.14061860591416167</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.15613502163141124</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
+      <c r="J47">
+        <f>+G47/A47</f>
         <v>-1.4158898802830068E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.0095352344548729</v>
       </c>
@@ -1946,27 +2090,30 @@
         <v>0.82688461985519202</v>
       </c>
       <c r="D48">
-        <f>0.826884619855192+(1.74-0.82)</f>
-        <v>1.7468846198551922</v>
+        <f>0.826884619855192+(1.74412-0.82)</f>
+        <v>1.7510046198551921</v>
       </c>
       <c r="E48">
         <v>0.21074300507637359</v>
       </c>
       <c r="F48">
+        <v>0.30819266294328562</v>
+      </c>
+      <c r="G48">
         <v>-2.809239047669268E-2</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.12828615379187983</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.16010473313982135</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
+      <c r="J48">
+        <f>+G48/A48</f>
         <v>-2.7827053002129204E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1.0042859611965671</v>
       </c>
@@ -1977,27 +2124,30 @@
         <v>0.82337400702121999</v>
       </c>
       <c r="D49">
-        <f>0.82337400702122+(1.74-0.82)</f>
-        <v>1.74337400702122</v>
+        <f>0.82337400702122+(1.74412-0.82)</f>
+        <v>1.7474940070212199</v>
       </c>
       <c r="E49">
         <v>0.2082394200261731</v>
       </c>
       <c r="F49">
+        <v>0.30568907789308514</v>
+      </c>
+      <c r="G49">
         <v>-2.7327465850825988E-2</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.12850212866760313</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.15903660336753087</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
+      <c r="J49">
+        <f>+G49/A49</f>
         <v>-2.7210841241140513E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.99475859520436316</v>
       </c>
@@ -2008,27 +2158,30 @@
         <v>0.83800022291643594</v>
       </c>
       <c r="D50">
-        <f>0.838000222916436+(1.74-0.82)</f>
-        <v>1.758000222916436</v>
+        <f>0.838000222916436+(1.74412-0.82)</f>
+        <v>1.7621202229164359</v>
       </c>
       <c r="E50">
         <v>0.19193243292663575</v>
       </c>
       <c r="F50">
+        <v>0.28938209079354782</v>
+      </c>
+      <c r="G50">
         <v>-3.5174060638708537E-2</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.10812495373991746</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.14362030953817095</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
+      <c r="J50">
+        <f>+G50/A50</f>
         <v>-3.5359393533546078E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1.0078678401254795</v>
       </c>
@@ -2039,27 +2192,30 @@
         <v>0.83866130409533513</v>
       </c>
       <c r="D51">
-        <f>0.838661304095335+(1.74-0.82)</f>
-        <v>1.7586613040953352</v>
+        <f>0.838661304095335+(1.74412-0.82)</f>
+        <v>1.7627813040953351</v>
       </c>
       <c r="E51">
         <v>0.20017319764933872</v>
       </c>
       <c r="F51">
+        <v>0.29762285551625078</v>
+      </c>
+      <c r="G51">
         <v>-3.0966661619194369E-2</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.11573226223633254</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.14491175677898979</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
+      <c r="J51">
+        <f>+G51/A51</f>
         <v>-3.072492283843388E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.0105986699904008</v>
       </c>
@@ -2070,27 +2226,30 @@
         <v>0.80274890828900691</v>
       </c>
       <c r="D52">
-        <f>0.802748908289007+(1.74-0.82)</f>
-        <v>1.7227489082890068</v>
+        <f>0.802748908289007+(1.74412-0.82)</f>
+        <v>1.7268689082890067</v>
       </c>
       <c r="E52">
         <v>0.20604348064498967</v>
       </c>
       <c r="F52">
+        <v>0.30349313851190174</v>
+      </c>
+      <c r="G52">
         <v>1.8062810564042353E-3</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.15300549807416525</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.14918092651929094</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
+      <c r="J52">
+        <f>+G52/A52</f>
         <v>1.7873376544433729E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.99936940448038314</v>
       </c>
@@ -2101,27 +2260,30 @@
         <v>0.80883993363063778</v>
       </c>
       <c r="D53">
-        <f>0.808839933630638+(1.74-0.82)</f>
-        <v>1.7288399336306379</v>
+        <f>0.808839933630638+(1.74412-0.82)</f>
+        <v>1.7329599336306378</v>
       </c>
       <c r="E53">
         <v>0.19117815568852214</v>
       </c>
       <c r="F53">
+        <v>0.28862781355543421</v>
+      </c>
+      <c r="G53">
         <v>-6.4868483877678074E-4</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.14224166054419146</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>0.13465010829918589</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
+      <c r="J53">
+        <f>+G53/A53</f>
         <v>-6.490941546425078E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.0162943545600918</v>
       </c>
@@ -2132,27 +2294,30 @@
         <v>0.82881767304561615</v>
       </c>
       <c r="D54">
-        <f>0.828817673045616+(1.74-0.82)</f>
-        <v>1.7488176730456162</v>
+        <f>0.828817673045616+(1.74412-0.82)</f>
+        <v>1.7529376730456161</v>
       </c>
       <c r="E54">
         <v>0.19932256252549369</v>
       </c>
       <c r="F54">
+        <v>0.29677222039240569</v>
+      </c>
+      <c r="G54">
         <v>-1.1845881011018078E-2</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.14925005833320351</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>0.16654983808873758</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
+      <c r="J54">
+        <f>+G54/A54</f>
         <v>-1.1655954751559776E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1.0046647498638368</v>
       </c>
@@ -2163,27 +2328,30 @@
         <v>0.81309996672265927</v>
       </c>
       <c r="D55">
-        <f>0.813099966722659+(1.74-0.82)</f>
-        <v>1.7330999667226594</v>
+        <f>0.813099966722659+(1.74412-0.82)</f>
+        <v>1.7372199667226593</v>
       </c>
       <c r="E55">
         <v>0.18581151514698604</v>
       </c>
       <c r="F55">
+        <v>0.28326117301389808</v>
+      </c>
+      <c r="G55">
         <v>5.7532679941914855E-3</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.15108960889958256</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.14286046744636982</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
+      <c r="J55">
+        <f>+G55/A55</f>
         <v>5.7265550473142727E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.99725261266564758</v>
       </c>
@@ -2194,27 +2362,30 @@
         <v>0.8206773789918016</v>
       </c>
       <c r="D56">
-        <f>0.820677378991802+(1.74-0.82)</f>
-        <v>1.7406773789918017</v>
+        <f>0.820677378991802+(1.74412-0.82)</f>
+        <v>1.7447973789918017</v>
       </c>
       <c r="E56">
         <v>0.17937594746125235</v>
       </c>
       <c r="F56">
+        <v>0.27682560532816436</v>
+      </c>
+      <c r="G56">
         <v>-2.8007137874063726E-3</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.13782758143120385</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.13549187272215402</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
+      <c r="J56">
+        <f>+G56/A56</f>
         <v>-2.8084296314051151E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.99450540068145266</v>
       </c>
@@ -2225,27 +2396,30 @@
         <v>0.80901087213744116</v>
       </c>
       <c r="D57">
-        <f>0.809010872137441+(1.74-0.82)</f>
-        <v>1.7290108721374411</v>
+        <f>0.809010872137441+(1.74412-0.82)</f>
+        <v>1.733130872137441</v>
       </c>
       <c r="E57">
         <v>0.17756913437376312</v>
       </c>
       <c r="F57">
+        <v>0.27501879224067516</v>
+      </c>
+      <c r="G57">
         <v>7.9253941702483732E-3</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.13418936970764214</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.10764553535026437</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="1"/>
+      <c r="J57">
+        <f>+G57/A57</f>
         <v>7.9691816302030673E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.97328034232133476</v>
       </c>
@@ -2256,27 +2430,30 @@
         <v>0.80249595734565116</v>
       </c>
       <c r="D58">
-        <f>0.802495957345651+(1.74-0.82)</f>
-        <v>1.7224959573456511</v>
+        <f>0.802495957345651+(1.74412-0.82)</f>
+        <v>1.726615957345651</v>
       </c>
       <c r="E58">
         <v>0.16218120147337425</v>
       </c>
       <c r="F58">
+        <v>0.25963085934028629</v>
+      </c>
+      <c r="G58">
         <v>8.6031835023093473E-3</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.13988960881580945</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.12728161380184311</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="1"/>
+      <c r="J58">
+        <f>+G58/A58</f>
         <v>8.8393684000544117E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.0086085811867509</v>
       </c>
@@ -2287,27 +2464,30 @@
         <v>0.83025898297345446</v>
       </c>
       <c r="D59">
-        <f>0.830258982973454+(1.74-0.82)</f>
-        <v>1.7502589829734545</v>
+        <f>0.830258982973454+(1.74412-0.82)</f>
+        <v>1.7543789829734544</v>
       </c>
       <c r="E59">
         <v>0.16221171982333144</v>
       </c>
       <c r="F59">
+        <v>0.25966137769024344</v>
+      </c>
+      <c r="G59">
         <v>1.6137878389964999E-2</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.14602908176066323</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.12359786201173077</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="1"/>
+      <c r="J59">
+        <f>+G59/A59</f>
         <v>1.6000139886750534E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.96713192304290097</v>
       </c>
@@ -2318,27 +2498,30 @@
         <v>0.77270764498769384</v>
       </c>
       <c r="D60">
-        <f>0.772707644987694+(1.74-0.82)</f>
-        <v>1.6927076449876939</v>
+        <f>0.772707644987694+(1.74412-0.82)</f>
+        <v>1.6968276449876938</v>
       </c>
       <c r="E60">
         <v>0.16580895240621477</v>
       </c>
       <c r="F60">
+        <v>0.2632586102731268</v>
+      </c>
+      <c r="G60">
         <v>2.8615325648992357E-2</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.14919918223736134</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.11190853360660812</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="1"/>
+      <c r="J60">
+        <f>+G60/A60</f>
         <v>2.9587820407126621E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.99966540598149045</v>
       </c>
@@ -2349,27 +2532,30 @@
         <v>0.81766281549713771</v>
       </c>
       <c r="D61">
-        <f>0.817662815497138+(1.74-0.82)</f>
-        <v>1.7376628154971376</v>
+        <f>0.817662815497138+(1.74412-0.82)</f>
+        <v>1.7417828154971375</v>
       </c>
       <c r="E61">
         <v>0.15627130582256488</v>
       </c>
       <c r="F61">
+        <v>0.25372096368947694</v>
+      </c>
+      <c r="G61">
         <v>2.5731284661787868E-2</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.15278195832728425</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0.12531875406268261</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="1"/>
+      <c r="J61">
+        <f>+G61/A61</f>
         <v>2.5739897077387011E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98727447104913857</v>
       </c>
@@ -2380,27 +2566,30 @@
         <v>0.8137893685603913</v>
       </c>
       <c r="D62">
-        <f>0.813789368560391+(1.74-0.82)</f>
-        <v>1.7337893685603913</v>
+        <f>0.813789368560391+(1.74412-0.82)</f>
+        <v>1.7379093685603912</v>
       </c>
       <c r="E62">
         <v>0.15882249588521619</v>
       </c>
       <c r="F62">
+        <v>0.2562721537521282</v>
+      </c>
+      <c r="G62">
         <v>1.4662606603531081E-2</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.14527690670137985</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>0.13030338139730005</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="1"/>
+      <c r="J62">
+        <f>+G62/A62</f>
         <v>1.4851601083080467E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98822995487133092</v>
       </c>
@@ -2411,27 +2600,30 @@
         <v>0.81575140917937639</v>
       </c>
       <c r="D63">
-        <f>0.815751409179376+(1.74-0.82)</f>
-        <v>1.7357514091793764</v>
+        <f>0.815751409179376+(1.74412-0.82)</f>
+        <v>1.7398714091793763</v>
       </c>
       <c r="E63">
         <v>0.15887862874177264</v>
       </c>
       <c r="F63">
+        <v>0.25632828660868467</v>
+      </c>
+      <c r="G63">
         <v>1.3599916950181895E-2</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.14780089444063016</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.13670373881393263</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="1"/>
+      <c r="J63">
+        <f>+G63/A63</f>
         <v>1.3761895076285788E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98164239675575082</v>
       </c>
@@ -2442,27 +2634,30 @@
         <v>0.81473556110539835</v>
       </c>
       <c r="D64">
-        <f>0.814735561105398+(1.74-0.82)</f>
-        <v>1.7347355611053983</v>
+        <f>0.814735561105398+(1.74412-0.82)</f>
+        <v>1.7388555611053982</v>
       </c>
       <c r="E64">
         <v>0.16966067655430195</v>
       </c>
       <c r="F64">
+        <v>0.26711033442121401</v>
+      </c>
+      <c r="G64">
         <v>-2.7538409039494782E-3</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.14737486575909356</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.15696350412056745</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="1"/>
+      <c r="J64">
+        <f>+G64/A64</f>
         <v>-2.8053402267981709E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98050187659570121</v>
       </c>
@@ -2473,27 +2668,30 @@
         <v>0.80472373202056202</v>
       </c>
       <c r="D65">
-        <f>0.804723732020562+(1.74-0.82)</f>
-        <v>1.724723732020562</v>
+        <f>0.804723732020562+(1.74412-0.82)</f>
+        <v>1.7288437320205619</v>
       </c>
       <c r="E65">
         <v>0.17581378279050286</v>
       </c>
       <c r="F65">
+        <v>0.27326344065741492</v>
+      </c>
+      <c r="G65">
         <v>-3.563821536367584E-5</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.14739561427004577</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.15236357261177866</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="1"/>
+      <c r="J65">
+        <f>+G65/A65</f>
         <v>-3.634691193800831E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.99790576983397195</v>
       </c>
@@ -2504,27 +2702,30 @@
         <v>0.78770070781083013</v>
       </c>
       <c r="D66">
-        <f>0.78770070781083+(1.74-0.82)</f>
-        <v>1.7077007078108302</v>
+        <f>0.78770070781083+(1.74412-0.82)</f>
+        <v>1.7118207078108301</v>
       </c>
       <c r="E66">
         <v>0.20500479283397324</v>
       </c>
       <c r="F66">
+        <v>0.30245445070088528</v>
+      </c>
+      <c r="G66">
         <v>5.2002691891685771E-3</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.16178250106221995</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.16676062199488575</v>
       </c>
-      <c r="I66">
-        <f t="shared" ref="I66:I97" si="2">+F66/A66</f>
+      <c r="J66">
+        <f>+G66/A66</f>
         <v>5.2111826049806081E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.99345574030920503</v>
       </c>
@@ -2535,27 +2736,30 @@
         <v>0.79838562973419913</v>
       </c>
       <c r="D67">
-        <f>0.798385629734199+(1.74-0.82)</f>
-        <v>1.7183856297341991</v>
+        <f>0.798385629734199+(1.74412-0.82)</f>
+        <v>1.722505629734199</v>
       </c>
       <c r="E67">
         <v>0.20845359795583412</v>
       </c>
       <c r="F67">
+        <v>0.30590325582274613</v>
+      </c>
+      <c r="G67">
         <v>-1.338348738082823E-2</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.14711929542026136</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.16774769749574875</v>
       </c>
-      <c r="I67">
-        <f t="shared" si="2"/>
+      <c r="J67">
+        <f>+G67/A67</f>
         <v>-1.3471649352655336E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.99562737123098621</v>
       </c>
@@ -2566,27 +2770,30 @@
         <v>0.80397324384840674</v>
       </c>
       <c r="D68">
-        <f>0.803973243848407+(1.74-0.82)</f>
-        <v>1.7239732438484068</v>
+        <f>0.803973243848407+(1.74412-0.82)</f>
+        <v>1.7280932438484067</v>
       </c>
       <c r="E68">
         <v>0.19731501338095411</v>
       </c>
       <c r="F68">
+        <v>0.29476467124786615</v>
+      </c>
+      <c r="G68">
         <v>-5.6608859983746374E-3</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>0.14253094656899556</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.1512603116925299</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="2"/>
+      <c r="J68">
+        <f>+G68/A68</f>
         <v>-5.6857476621756196E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.9918636797719298</v>
       </c>
@@ -2597,27 +2804,30 @@
         <v>0.79251645047515895</v>
       </c>
       <c r="D69">
-        <f>0.792516450475159+(1.74-0.82)</f>
-        <v>1.7125164504751589</v>
+        <f>0.792516450475159+(1.74412-0.82)</f>
+        <v>1.7166364504751588</v>
       </c>
       <c r="E69">
         <v>0.20631866928486903</v>
       </c>
       <c r="F69">
+        <v>0.30376832715178104</v>
+      </c>
+      <c r="G69">
         <v>-6.9714399880981825E-3</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.15047145675793205</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0.16367503035356826</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="2"/>
+      <c r="J69">
+        <f>+G69/A69</f>
         <v>-7.0286271493489941E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.99263008164669486</v>
       </c>
@@ -2628,27 +2838,30 @@
         <v>0.80763369293584697</v>
       </c>
       <c r="D70">
-        <f>0.807633692935847+(1.74-0.82)</f>
-        <v>1.7276336929358469</v>
+        <f>0.807633692935847+(1.74412-0.82)</f>
+        <v>1.7317536929358468</v>
       </c>
       <c r="E70">
         <v>0.21485405800675461</v>
       </c>
       <c r="F70">
+        <v>0.31230371587366668</v>
+      </c>
+      <c r="G70">
         <v>-2.9857669295906719E-2</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0.12631796627028893</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.162303186496499</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="2"/>
+      <c r="J70">
+        <f>+G70/A70</f>
         <v>-3.0079351661774348E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.99981442627439243</v>
       </c>
@@ -2659,27 +2872,30 @@
         <v>0.81478535238385519</v>
       </c>
       <c r="D71">
-        <f>0.814785352383855+(1.74-0.82)</f>
-        <v>1.7347853523838552</v>
+        <f>0.814785352383855+(1.74412-0.82)</f>
+        <v>1.7389053523838551</v>
       </c>
       <c r="E71">
         <v>0.21910236360527291</v>
       </c>
       <c r="F71">
+        <v>0.31655202147218497</v>
+      </c>
+      <c r="G71">
         <v>-3.4073289714735666E-2</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.12808636325904185</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.1684447991514921</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="2"/>
+      <c r="J71">
+        <f>+G71/A71</f>
         <v>-3.4079613995672109E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1.0100431837391319</v>
       </c>
@@ -2690,27 +2906,30 @@
         <v>0.8254730603260555</v>
       </c>
       <c r="D72">
-        <f>0.825473060326055+(1.74-0.82)</f>
-        <v>1.7454730603260555</v>
+        <f>0.825473060326055+(1.74412-0.82)</f>
+        <v>1.7495930603260554</v>
       </c>
       <c r="E72">
         <v>0.22420430979475919</v>
       </c>
       <c r="F72">
+        <v>0.3216539676616712</v>
+      </c>
+      <c r="G72">
         <v>-3.9634186381682757E-2</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.12932811701263</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.17509208959208009</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="2"/>
+      <c r="J72">
+        <f>+G72/A72</f>
         <v>-3.9240090938447679E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1.0041970368260742</v>
       </c>
@@ -2721,27 +2940,30 @@
         <v>0.81621750633183299</v>
       </c>
       <c r="D73">
-        <f>0.816217506331833+(1.74-0.82)</f>
-        <v>1.736217506331833</v>
+        <f>0.816217506331833+(1.74412-0.82)</f>
+        <v>1.7403375063318329</v>
       </c>
       <c r="E73">
         <v>0.21682245954294077</v>
       </c>
       <c r="F73">
+        <v>0.31427211740985284</v>
+      </c>
+      <c r="G73">
         <v>-2.8842929048699562E-2</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.13360967037169499</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.16672428830965424</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="2"/>
+      <c r="J73">
+        <f>+G73/A73</f>
         <v>-2.8722380161429539E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.0143842169856203</v>
       </c>
@@ -2752,27 +2974,30 @@
         <v>0.83833538519866468</v>
       </c>
       <c r="D74">
-        <f>0.838335385198665+(1.74-0.82)</f>
-        <v>1.7583353851986647</v>
+        <f>0.838335385198665+(1.74412-0.82)</f>
+        <v>1.7624553851986646</v>
       </c>
       <c r="E74">
         <v>0.21195151115759361</v>
       </c>
       <c r="F74">
+        <v>0.30940116902450565</v>
+      </c>
+      <c r="G74">
         <v>-3.5902679370637985E-2</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>0.1236406989704202</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>0.1626825723199026</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="2"/>
+      <c r="J74">
+        <f>+G74/A74</f>
         <v>-3.5393570571639658E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1.0171598549940839</v>
       </c>
@@ -2783,27 +3008,30 @@
         <v>0.83838157996546714</v>
       </c>
       <c r="D75">
-        <f>0.838381579965467+(1.74-0.82)</f>
-        <v>1.7583815799654672</v>
+        <f>0.838381579965467+(1.74412-0.82)</f>
+        <v>1.7625015799654671</v>
       </c>
       <c r="E75">
         <v>0.21075864622230697</v>
       </c>
       <c r="F75">
+        <v>0.30820830408921901</v>
+      </c>
+      <c r="G75">
         <v>-3.198037119369021E-2</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.13030105968518799</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0.16377585175172898</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="2"/>
+      <c r="J75">
+        <f>+G75/A75</f>
         <v>-3.1440850753863284E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.0133084739219225</v>
       </c>
@@ -2814,27 +3042,30 @@
         <v>0.8308555547294042</v>
       </c>
       <c r="D76">
-        <f>0.830855554729404+(1.74-0.82)</f>
-        <v>1.7508555547294042</v>
+        <f>0.830855554729404+(1.74412-0.82)</f>
+        <v>1.7549755547294041</v>
       </c>
       <c r="E76">
         <v>0.20633434611891271</v>
       </c>
       <c r="F76">
+        <v>0.30378400398582472</v>
+      </c>
+      <c r="G76">
         <v>-2.3881426926394445E-2</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.13451312701060469</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.15857636036767325</v>
       </c>
-      <c r="I76">
-        <f t="shared" si="2"/>
+      <c r="J76">
+        <f>+G76/A76</f>
         <v>-2.3567775796804951E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.0222151720644543</v>
       </c>
@@ -2845,27 +3076,30 @@
         <v>0.83397068676982067</v>
       </c>
       <c r="D77">
-        <f>0.833970686769821+(1.74-0.82)</f>
-        <v>1.7539706867698208</v>
+        <f>0.833970686769821+(1.74412-0.82)</f>
+        <v>1.7580906867698207</v>
       </c>
       <c r="E77">
         <v>0.21114092656833341</v>
       </c>
       <c r="F77">
+        <v>0.30859058443524545</v>
+      </c>
+      <c r="G77">
         <v>-2.2896441273699747E-2</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.13511559932574177</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.15828772048760936</v>
       </c>
-      <c r="I77">
-        <f t="shared" si="2"/>
+      <c r="J77">
+        <f>+G77/A77</f>
         <v>-2.2398847032820253E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1.0128283788381651</v>
       </c>
@@ -2876,27 +3110,30 @@
         <v>0.81492741734551499</v>
       </c>
       <c r="D78">
-        <f>0.814927417345515+(1.74-0.82)</f>
-        <v>1.7349274173455149</v>
+        <f>0.814927417345515+(1.74412-0.82)</f>
+        <v>1.7390474173455148</v>
       </c>
       <c r="E78">
         <v>0.20984413716375883</v>
       </c>
       <c r="F78">
+        <v>0.30729379503067089</v>
+      </c>
+      <c r="G78">
         <v>-1.1943175671108697E-2</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.14224829143837467</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.15400486892355941</v>
       </c>
-      <c r="I78">
-        <f t="shared" si="2"/>
+      <c r="J78">
+        <f>+G78/A78</f>
         <v>-1.1791904651021867E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.0109090262287417</v>
       </c>
@@ -2907,27 +3144,30 @@
         <v>0.81659170853215002</v>
       </c>
       <c r="D79">
-        <f>0.81659170853215+(1.74-0.82)</f>
-        <v>1.7365917085321501</v>
+        <f>0.81659170853215+(1.74412-0.82)</f>
+        <v>1.74071170853215</v>
       </c>
       <c r="E79">
         <v>0.20825608583883332</v>
       </c>
       <c r="F79">
+        <v>0.30570574370574533</v>
+      </c>
+      <c r="G79">
         <v>-1.3938768142241653E-2</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.14020360352841696</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.15297571609874527</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="2"/>
+      <c r="J79">
+        <f>+G79/A79</f>
         <v>-1.3788350663205655E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1.0087902678681751</v>
       </c>
@@ -2938,27 +3178,30 @@
         <v>0.82375044415555687</v>
       </c>
       <c r="D80">
-        <f>0.823750444155557+(1.74-0.82)</f>
-        <v>1.7437504441555569</v>
+        <f>0.823750444155557+(1.74412-0.82)</f>
+        <v>1.7478704441555568</v>
       </c>
       <c r="E80">
         <v>0.20662968628678985</v>
       </c>
       <c r="F80">
+        <v>0.30407934415370186</v>
+      </c>
+      <c r="G80">
         <v>-2.158986257417167E-2</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>0.13619682091405674</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>0.15547889873136683</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="2"/>
+      <c r="J80">
+        <f>+G80/A80</f>
         <v>-2.1401735585530997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.0064093674606216</v>
       </c>
@@ -2969,27 +3212,30 @@
         <v>0.82279493978391804</v>
       </c>
       <c r="D81">
-        <f>0.822794939783918+(1.74-0.82)</f>
-        <v>1.7427949397839182</v>
+        <f>0.822794939783918+(1.74412-0.82)</f>
+        <v>1.7469149397839181</v>
       </c>
       <c r="E81">
         <v>0.20442446242494691</v>
       </c>
       <c r="F81">
+        <v>0.30187412029185895</v>
+      </c>
+      <c r="G81">
         <v>-2.0810034748243361E-2</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>0.13880984664185167</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.1562397419340622</v>
       </c>
-      <c r="I81">
-        <f t="shared" si="2"/>
+      <c r="J81">
+        <f>+G81/A81</f>
         <v>-2.0677505020398779E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.99917005153652383</v>
       </c>
@@ -3000,27 +3246,30 @@
         <v>0.8212238488184096</v>
       </c>
       <c r="D82">
-        <f>0.82122384881841+(1.74-0.82)</f>
-        <v>1.7412238488184095</v>
+        <f>0.82122384881841+(1.74412-0.82)</f>
+        <v>1.7453438488184094</v>
       </c>
       <c r="E82">
         <v>0.19341355077746258</v>
       </c>
       <c r="F82">
+        <v>0.29086320864437465</v>
+      </c>
+      <c r="G82">
         <v>-1.5467348059348351E-2</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>0.13451665504690707</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>0.14579448920146049</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="2"/>
+      <c r="J82">
+        <f>+G82/A82</f>
         <v>-1.5480195824086863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1.0288863719360286</v>
       </c>
@@ -3031,27 +3280,30 @@
         <v>0.84397408429829412</v>
       </c>
       <c r="D83">
-        <f>0.843974084298294+(1.74-0.82)</f>
-        <v>1.7639740842982943</v>
+        <f>0.843974084298294+(1.74412-0.82)</f>
+        <v>1.7680940842982942</v>
       </c>
       <c r="E83">
         <v>0.20796025987620292</v>
       </c>
       <c r="F83">
+        <v>0.30540991774311499</v>
+      </c>
+      <c r="G83">
         <v>-2.3047972238468439E-2</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.14010237550435109</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.15858753707337059</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="2"/>
+      <c r="J83">
+        <f>+G83/A83</f>
         <v>-2.2400891747744379E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.0333045423658138</v>
       </c>
@@ -3062,27 +3314,30 @@
         <v>0.84506205252122946</v>
       </c>
       <c r="D84">
-        <f>0.845062052521229+(1.74-0.82)</f>
-        <v>1.7650620525212295</v>
+        <f>0.845062052521229+(1.74412-0.82)</f>
+        <v>1.7691820525212294</v>
       </c>
       <c r="E84">
         <v>0.21848291540337572</v>
       </c>
       <c r="F84">
+        <v>0.31593257327028779</v>
+      </c>
+      <c r="G84">
         <v>-3.0240425558791362E-2</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>0.14092464407449889</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>0.16619381653440232</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="2"/>
+      <c r="J84">
+        <f>+G84/A84</f>
         <v>-2.9265743368894963E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1.0394155618061696</v>
       </c>
@@ -3093,27 +3348,30 @@
         <v>0.8504283064311422</v>
       </c>
       <c r="D85">
-        <f>0.850428306431142+(1.74-0.82)</f>
-        <v>1.7704283064311421</v>
+        <f>0.850428306431142+(1.74412-0.82)</f>
+        <v>1.774548306431142</v>
       </c>
       <c r="E85">
         <v>0.23229119330025411</v>
       </c>
       <c r="F85">
+        <v>0.32974085116716612</v>
+      </c>
+      <c r="G85">
         <v>-4.3303937925226743E-2</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>0.13699076685738806</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.1750969221311604</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="2"/>
+      <c r="J85">
+        <f>+G85/A85</f>
         <v>-4.166181411598114E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1.04148683411211</v>
       </c>
@@ -3124,27 +3382,30 @@
         <v>0.84909633191519895</v>
       </c>
       <c r="D86">
-        <f>0.849096331915199+(1.74-0.82)</f>
-        <v>1.7690963319151991</v>
+        <f>0.849096331915199+(1.74412-0.82)</f>
+        <v>1.773216331915199</v>
       </c>
       <c r="E86">
         <v>0.23299469714923277</v>
       </c>
       <c r="F86">
+        <v>0.33044435501614478</v>
+      </c>
+      <c r="G86">
         <v>-4.0604194952321759E-2</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.13649932172364776</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.17165864118672647</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="2"/>
+      <c r="J86">
+        <f>+G86/A86</f>
         <v>-3.8986757798947801E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1.0404646195979783</v>
       </c>
@@ -3155,27 +3416,30 @@
         <v>0.83579557635716728</v>
       </c>
       <c r="D87">
-        <f>0.835795576357167+(1.74-0.82)</f>
-        <v>1.7557955763571673</v>
+        <f>0.835795576357167+(1.74412-0.82)</f>
+        <v>1.7599155763571672</v>
       </c>
       <c r="E87">
         <v>0.23445179259582011</v>
       </c>
       <c r="F87">
+        <v>0.33190145046273212</v>
+      </c>
+      <c r="G87">
         <v>-2.9782749355009075E-2</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>0.14146450700844038</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.16576482436150072</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="2"/>
+      <c r="J87">
+        <f>+G87/A87</f>
         <v>-2.8624471023836192E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1.0150976511913328</v>
       </c>
@@ -3186,27 +3450,30 @@
         <v>0.8260781472430031</v>
       </c>
       <c r="D88">
-        <f>0.826078147243003+(1.74-0.82)</f>
-        <v>1.7460781472430031</v>
+        <f>0.826078147243003+(1.74412-0.82)</f>
+        <v>1.750198147243003</v>
       </c>
       <c r="E88">
         <v>0.20934649380436832</v>
       </c>
       <c r="F88">
+        <v>0.30679615167128038</v>
+      </c>
+      <c r="G88">
         <v>-2.0326989856038646E-2</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.14403100534879057</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>0.15827529500102175</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="2"/>
+      <c r="J88">
+        <f>+G88/A88</f>
         <v>-2.0024664456845712E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98734034028146311</v>
       </c>
@@ -3217,27 +3484,30 @@
         <v>0.79816422209723192</v>
       </c>
       <c r="D89">
-        <f>0.798164222097232+(1.74-0.82)</f>
-        <v>1.718164222097232</v>
+        <f>0.798164222097232+(1.74412-0.82)</f>
+        <v>1.7222842220972319</v>
       </c>
       <c r="E89">
         <v>0.18839475725375587</v>
       </c>
       <c r="F89">
+        <v>0.28584441512066794</v>
+      </c>
+      <c r="G89">
         <v>7.8136093047531663E-4</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.14561704065507733</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.14047196867867423</v>
       </c>
-      <c r="I89">
-        <f t="shared" si="2"/>
+      <c r="J89">
+        <f>+G89/A89</f>
         <v>7.913795259824717E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.97417288185202544</v>
       </c>
@@ -3248,27 +3518,30 @@
         <v>0.79042276551907165</v>
       </c>
       <c r="D90">
-        <f>0.790422765519072+(1.74-0.82)</f>
-        <v>1.7104227655190716</v>
+        <f>0.790422765519072+(1.74412-0.82)</f>
+        <v>1.7145427655190715</v>
       </c>
       <c r="E90">
         <v>0.16835265678005559</v>
       </c>
       <c r="F90">
+        <v>0.26580231464696763</v>
+      </c>
+      <c r="G90">
         <v>1.5397459552898202E-2</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.14343472653751974</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.12585439215698682</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="2"/>
+      <c r="J90">
+        <f>+G90/A90</f>
         <v>1.5805674577622907E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.96396656624098753</v>
       </c>
@@ -3279,27 +3552,30 @@
         <v>0.78290799050046733</v>
       </c>
       <c r="D91">
-        <f>0.782907990500467+(1.74-0.82)</f>
-        <v>1.7029079905004674</v>
+        <f>0.782907990500467+(1.74412-0.82)</f>
+        <v>1.7070279905004673</v>
       </c>
       <c r="E91">
         <v>0.15394094376669357</v>
       </c>
       <c r="F91">
+        <v>0.2513906016336056</v>
+      </c>
+      <c r="G91">
         <v>2.7117631973826634E-2</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.14373972309657967</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.11745493358352818</v>
       </c>
-      <c r="I91">
-        <f t="shared" si="2"/>
+      <c r="J91">
+        <f>+G91/A91</f>
         <v>2.813129928309914E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.97680965868767444</v>
       </c>
@@ -3310,27 +3586,30 @@
         <v>0.79492419498051281</v>
       </c>
       <c r="D92">
-        <f>0.794924194980513+(1.74-0.82)</f>
-        <v>1.714924194980513</v>
+        <f>0.794924194980513+(1.74412-0.82)</f>
+        <v>1.7190441949805129</v>
       </c>
       <c r="E92">
         <v>0.15409194509470051</v>
       </c>
       <c r="F92">
+        <v>0.25154160296161254</v>
+      </c>
+      <c r="G92">
         <v>2.7793518612461127E-2</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.14540446930633444</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>0.12016856019422389</v>
       </c>
-      <c r="I92">
-        <f t="shared" si="2"/>
+      <c r="J92">
+        <f>+G92/A92</f>
         <v>2.8453361783708404E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.97394271413145539</v>
       </c>
@@ -3341,27 +3620,30 @@
         <v>0.81130616416040602</v>
       </c>
       <c r="D93">
-        <f>0.811306164160406+(1.74-0.82)</f>
-        <v>1.7313061641604062</v>
+        <f>0.811306164160406+(1.74412-0.82)</f>
+        <v>1.7354261641604061</v>
       </c>
       <c r="E93">
         <v>0.13615732402664249</v>
       </c>
       <c r="F93">
+        <v>0.23360698189355453</v>
+      </c>
+      <c r="G93">
         <v>2.6479225944406881E-2</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>0.14333293798500807</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.12833296859962046</v>
       </c>
-      <c r="I93">
-        <f t="shared" si="2"/>
+      <c r="J93">
+        <f>+G93/A93</f>
         <v>2.7187662641966145E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.99146458372667468</v>
       </c>
@@ -3372,27 +3654,30 @@
         <v>0.81282206423502523</v>
       </c>
       <c r="D94">
-        <f>0.812822064235025+(1.74-0.82)</f>
-        <v>1.7328220642350254</v>
+        <f>0.812822064235025+(1.74412-0.82)</f>
+        <v>1.7369420642350253</v>
       </c>
       <c r="E94">
         <v>0.16327937639723472</v>
       </c>
       <c r="F94">
+        <v>0.26072903426414673</v>
+      </c>
+      <c r="G94">
         <v>1.5363143094414722E-2</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>0.14636896359913237</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.13543568233908151</v>
       </c>
-      <c r="I94">
-        <f t="shared" si="2"/>
+      <c r="J94">
+        <f>+G94/A94</f>
         <v>1.5495402807701307E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.98912120199896236</v>
       </c>
@@ -3403,27 +3688,30 @@
         <v>0.81587287156483945</v>
       </c>
       <c r="D95">
-        <f>0.815872871564839+(1.74-0.82)</f>
-        <v>1.7358728715648395</v>
+        <f>0.815872871564839+(1.74412-0.82)</f>
+        <v>1.7399928715648394</v>
       </c>
       <c r="E95">
         <v>0.16537623438823201</v>
       </c>
       <c r="F95">
+        <v>0.26282589225514408</v>
+      </c>
+      <c r="G95">
         <v>7.8720960458908973E-3</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>0.14169072740963379</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.13797141387466549</v>
       </c>
-      <c r="I95">
-        <f t="shared" si="2"/>
+      <c r="J95">
+        <f>+G95/A95</f>
         <v>7.9586768840682037E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.99161546243514742</v>
       </c>
@@ -3434,27 +3722,30 @@
         <v>0.81816142617220378</v>
       </c>
       <c r="D96">
-        <f>0.818161426172204+(1.74-0.82)</f>
-        <v>1.7381614261722038</v>
+        <f>0.818161426172204+(1.74412-0.82)</f>
+        <v>1.7422814261722037</v>
       </c>
       <c r="E96">
         <v>0.16794431894716755</v>
       </c>
       <c r="F96">
+        <v>0.26539397681407961</v>
+      </c>
+      <c r="G96">
         <v>5.509717315776097E-3</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.14068765797599694</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.13919587554798621</v>
       </c>
-      <c r="I96">
-        <f t="shared" si="2"/>
+      <c r="J96">
+        <f>+G96/A96</f>
         <v>5.5563043583907786E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.98673198658701899</v>
       </c>
@@ -3465,27 +3756,30 @@
         <v>0.81767044846589643</v>
       </c>
       <c r="D97">
-        <f>0.817670448465896+(1.74-0.82)</f>
-        <v>1.7376704484658965</v>
+        <f>0.817670448465896+(1.74412-0.82)</f>
+        <v>1.7417904484658964</v>
       </c>
       <c r="E97">
         <v>0.1617974744425324</v>
       </c>
       <c r="F97">
+        <v>0.25924713230944441</v>
+      </c>
+      <c r="G97">
         <v>7.2640636785901713E-3</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>0.14351715614040733</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0.14389732571582767</v>
       </c>
-      <c r="I97">
-        <f t="shared" si="2"/>
+      <c r="J97">
+        <f>+G97/A97</f>
         <v>7.3617393348275328E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.98980545422181088</v>
       </c>
@@ -3496,27 +3790,30 @@
         <v>0.82116978172336752</v>
       </c>
       <c r="D98">
-        <f>0.821169781723368+(1.74-0.82)</f>
-        <v>1.7411697817233676</v>
+        <f>0.821169781723368+(1.74412-0.82)</f>
+        <v>1.7452897817233675</v>
       </c>
       <c r="E98">
         <v>0.17161035707590808</v>
       </c>
       <c r="F98">
+        <v>0.26906001494282011</v>
+      </c>
+      <c r="G98">
         <v>-2.9746845774647201E-3</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>0.1435939283233576</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.15224662360301452</v>
       </c>
-      <c r="I98">
-        <f t="shared" ref="I98:I129" si="3">+F98/A98</f>
+      <c r="J98">
+        <f>+G98/A98</f>
         <v>-3.005322475014476E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.9875732605515104</v>
       </c>
@@ -3527,27 +3824,30 @@
         <v>0.81699433901789886</v>
       </c>
       <c r="D99">
-        <f>0.816994339017899+(1.74-0.82)</f>
-        <v>1.7369943390178988</v>
+        <f>0.816994339017899+(1.74412-0.82)</f>
+        <v>1.7411143390178987</v>
       </c>
       <c r="E99">
         <v>0.18412026266023895</v>
       </c>
       <c r="F99">
+        <v>0.28156992052715102</v>
+      </c>
+      <c r="G99">
         <v>-1.3541341126627415E-2</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>0.13931142184656786</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.15441712516736367</v>
       </c>
-      <c r="I99">
-        <f t="shared" si="3"/>
+      <c r="J99">
+        <f>+G99/A99</f>
         <v>-1.3711733263277352E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.99041389108451305</v>
       </c>
@@ -3558,27 +3858,30 @@
         <v>0.80355023242186419</v>
       </c>
       <c r="D100">
-        <f>0.803550232421864+(1.74-0.82)</f>
-        <v>1.7235502324218643</v>
+        <f>0.803550232421864+(1.74412-0.82)</f>
+        <v>1.7276702324218642</v>
       </c>
       <c r="E100">
         <v>0.19054533134730042</v>
       </c>
       <c r="F100">
+        <v>0.28799498921421246</v>
+      </c>
+      <c r="G100">
         <v>-3.6816726846515546E-3</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>0.14488603828113866</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0.14910776821932167</v>
       </c>
-      <c r="I100">
-        <f t="shared" si="3"/>
+      <c r="J100">
+        <f>+G100/A100</f>
         <v>-3.7173071963076836E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.99060466042223538</v>
       </c>
@@ -3589,27 +3892,30 @@
         <v>0.81124787851521607</v>
       </c>
       <c r="D101">
-        <f>0.811247878515216+(1.74-0.82)</f>
-        <v>1.7312478785152161</v>
+        <f>0.811247878515216+(1.74412-0.82)</f>
+        <v>1.735367878515216</v>
       </c>
       <c r="E101">
         <v>0.18602990482186998</v>
       </c>
       <c r="F101">
+        <v>0.28347956268878205</v>
+      </c>
+      <c r="G101">
         <v>-6.673122914850671E-3</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>0.13858652091634988</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.14579457891576869</v>
       </c>
-      <c r="I101">
-        <f t="shared" si="3"/>
+      <c r="J101">
+        <f>+G101/A101</f>
         <v>-6.7364138101332158E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97516424710084415</v>
       </c>
@@ -3620,27 +3926,30 @@
         <v>0.79349368898277672</v>
       </c>
       <c r="D102">
-        <f>0.793493688982777+(1.74-0.82)</f>
-        <v>1.7134936889827768</v>
+        <f>0.793493688982777+(1.74412-0.82)</f>
+        <v>1.7176136889827767</v>
       </c>
       <c r="E102">
         <v>0.17843468935085305</v>
       </c>
       <c r="F102">
+        <v>0.27588434721776511</v>
+      </c>
+      <c r="G102">
         <v>3.2358687672143782E-3</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>0.13773239484967675</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0.13555869424919961</v>
       </c>
-      <c r="I102">
-        <f t="shared" si="3"/>
+      <c r="J102">
+        <f>+G102/A102</f>
         <v>3.3182807684291045E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.0018348198690195</v>
       </c>
@@ -3651,27 +3960,30 @@
         <v>0.81389766519996154</v>
       </c>
       <c r="D103">
-        <f>0.813897665199962+(1.74-0.82)</f>
-        <v>1.7338976651999616</v>
+        <f>0.813897665199962+(1.74412-0.82)</f>
+        <v>1.7380176651999615</v>
       </c>
       <c r="E103">
         <v>0.20596474367957401</v>
       </c>
       <c r="F103">
+        <v>0.30341440154648602</v>
+      </c>
+      <c r="G103">
         <v>-1.8027589010516099E-2</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>0.13396700874136311</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.14790113278917533</v>
       </c>
-      <c r="I103">
-        <f t="shared" si="3"/>
+      <c r="J103">
+        <f>+G103/A103</f>
         <v>-1.7994572211887223E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.9903839407989512</v>
       </c>
@@ -3682,27 +3994,30 @@
         <v>0.81674827013896112</v>
       </c>
       <c r="D104">
-        <f>0.816748270138961+(1.74-0.82)</f>
-        <v>1.7367482701389612</v>
+        <f>0.816748270138961+(1.74412-0.82)</f>
+        <v>1.7408682701389611</v>
       </c>
       <c r="E104">
         <v>0.19743231973024344</v>
       </c>
       <c r="F104">
+        <v>0.29488197759715551</v>
+      </c>
+      <c r="G104">
         <v>-2.3796649070253362E-2</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>0.12743515353076518</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>0.14830403710333404</v>
       </c>
-      <c r="I104">
-        <f t="shared" si="3"/>
+      <c r="J104">
+        <f>+G104/A104</f>
         <v>-2.4027700864228878E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.98462012137793664</v>
       </c>
@@ -3713,27 +4028,30 @@
         <v>0.80940784879105154</v>
       </c>
       <c r="D105">
-        <f>0.809407848791052+(1.74-0.82)</f>
-        <v>1.7294078487910516</v>
+        <f>0.809407848791052+(1.74412-0.82)</f>
+        <v>1.7335278487910515</v>
       </c>
       <c r="E105">
         <v>0.19562742805498018</v>
       </c>
       <c r="F105">
+        <v>0.29307708592189219</v>
+      </c>
+      <c r="G105">
         <v>-2.0415155468095081E-2</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>0.13043653747750483</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>0.14847690587274573</v>
       </c>
-      <c r="I105">
-        <f t="shared" si="3"/>
+      <c r="J105">
+        <f>+G105/A105</f>
         <v>-2.0734042525481691E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.98372634984856688</v>
       </c>
@@ -3744,27 +4062,30 @@
         <v>0.80921599717871961</v>
       </c>
       <c r="D106">
-        <f>0.80921599717872+(1.74-0.82)</f>
-        <v>1.7292159971787195</v>
+        <f>0.80921599717872+(1.74412-0.82)</f>
+        <v>1.7333359971787194</v>
       </c>
       <c r="E106">
         <v>0.20024374814528065</v>
       </c>
       <c r="F106">
+        <v>0.29769340601219269</v>
+      </c>
+      <c r="G106">
         <v>-2.5733395475433379E-2</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>0.12779038588461339</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.15013674807342145</v>
       </c>
-      <c r="I106">
-        <f t="shared" si="3"/>
+      <c r="J106">
+        <f>+G106/A106</f>
         <v>-2.6159099509121347E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.9908720098167727</v>
       </c>
@@ -3775,27 +4096,30 @@
         <v>0.79993366727365089</v>
       </c>
       <c r="D107">
-        <f>0.799933667273651+(1.74-0.82)</f>
-        <v>1.7199336672736509</v>
+        <f>0.799933667273651+(1.74412-0.82)</f>
+        <v>1.7240536672736508</v>
       </c>
       <c r="E107">
         <v>0.20125072212158887</v>
       </c>
       <c r="F107">
+        <v>0.29870037998850091</v>
+      </c>
+      <c r="G107">
         <v>-1.0312379578467062E-2</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>0.13438932463923953</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.14139220247910472</v>
       </c>
-      <c r="I107">
-        <f t="shared" si="3"/>
+      <c r="J107">
+        <f>+G107/A107</f>
         <v>-1.0407378022893167E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.99261404997770519</v>
       </c>
@@ -3806,27 +4130,30 @@
         <v>0.80471310272696006</v>
       </c>
       <c r="D108">
-        <f>0.80471310272696+(1.74-0.82)</f>
-        <v>1.7247131027269602</v>
+        <f>0.80471310272696+(1.74412-0.82)</f>
+        <v>1.7288331027269601</v>
       </c>
       <c r="E108">
         <v>0.19122113789873493</v>
       </c>
       <c r="F108">
+        <v>0.28867079576564697</v>
+      </c>
+      <c r="G108">
         <v>-3.3201906479898013E-3</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>0.14504010942317361</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>0.14950444670347876</v>
       </c>
-      <c r="I108">
-        <f t="shared" si="3"/>
+      <c r="J108">
+        <f>+G108/A108</f>
         <v>-3.344895881802575E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.99454390409132287</v>
       </c>
@@ -3837,27 +4164,30 @@
         <v>0.80487444533903563</v>
       </c>
       <c r="D109">
-        <f>0.804874445339036+(1.74-0.82)</f>
-        <v>1.7248744453390357</v>
+        <f>0.804874445339036+(1.74412-0.82)</f>
+        <v>1.7289944453390356</v>
       </c>
       <c r="E109">
         <v>0.20787511738168377</v>
       </c>
       <c r="F109">
+        <v>0.3053247752485958</v>
+      </c>
+      <c r="G109">
         <v>-1.8205658629396521E-2</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>0.13292400562538362</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0.14745635457449802</v>
       </c>
-      <c r="I109">
-        <f t="shared" si="3"/>
+      <c r="J109">
+        <f>+G109/A109</f>
         <v>-1.8305535386122888E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1.0022243754564588</v>
       </c>
@@ -3868,27 +4198,30 @@
         <v>0.81054773763000609</v>
       </c>
       <c r="D110">
-        <f>0.810547737630006+(1.74-0.82)</f>
-        <v>1.730547737630006</v>
+        <f>0.810547737630006+(1.74412-0.82)</f>
+        <v>1.7346677376300059</v>
       </c>
       <c r="E110">
         <v>0.20460907675718962</v>
       </c>
       <c r="F110">
+        <v>0.30205873462410165</v>
+      </c>
+      <c r="G110">
         <v>-1.2932438930736895E-2</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>0.13825810257724633</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>0.14892829848555644</v>
       </c>
-      <c r="I110">
-        <f t="shared" si="3"/>
+      <c r="J110">
+        <f>+G110/A110</f>
         <v>-1.2903736176688848E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.99053577258163727</v>
       </c>
@@ -3899,27 +4232,30 @@
         <v>0.80375520961212454</v>
       </c>
       <c r="D111">
-        <f>0.803755209612125+(1.74-0.82)</f>
-        <v>1.7237552096121247</v>
+        <f>0.803755209612125+(1.74412-0.82)</f>
+        <v>1.7278752096121246</v>
       </c>
       <c r="E111">
         <v>0.19406028891808724</v>
       </c>
       <c r="F111">
+        <v>0.29150994678499931</v>
+      </c>
+      <c r="G111">
         <v>-7.2797259485745114E-3</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>0.14018138109761158</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.14708778492201363</v>
       </c>
-      <c r="I111">
-        <f t="shared" si="3"/>
+      <c r="J111">
+        <f>+G111/A111</f>
         <v>-7.3492812173772716E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.99044123441004572</v>
       </c>
@@ -3930,27 +4266,30 @@
         <v>0.79460181911811267</v>
       </c>
       <c r="D112">
-        <f>0.794601819118113+(1.74-0.82)</f>
-        <v>1.7146018191181127</v>
+        <f>0.794601819118113+(1.74412-0.82)</f>
+        <v>1.7187218191181126</v>
       </c>
       <c r="E112">
         <v>0.19938493604898391</v>
       </c>
       <c r="F112">
+        <v>0.29683459391589595</v>
+      </c>
+      <c r="G112">
         <v>-3.5455207570508629E-3</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>0.14100852079117496</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>0.14384672908711754</v>
       </c>
-      <c r="I112">
-        <f t="shared" si="3"/>
+      <c r="J112">
+        <f>+G112/A112</f>
         <v>-3.5797386395799093E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.009648118300289</v>
       </c>
@@ -3961,27 +4300,30 @@
         <v>0.81691521364972552</v>
       </c>
       <c r="D113">
-        <f>0.816915213649726+(1.74-0.82)</f>
-        <v>1.7369152136497257</v>
+        <f>0.816915213649726+(1.74412-0.82)</f>
+        <v>1.7410352136497256</v>
       </c>
       <c r="E113">
         <v>0.20845945080072087</v>
       </c>
       <c r="F113">
+        <v>0.30590910866763288</v>
+      </c>
+      <c r="G113">
         <v>-1.5726546150157394E-2</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>0.14053948975854341</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>0.15444891477977379</v>
       </c>
-      <c r="I113">
-        <f t="shared" si="3"/>
+      <c r="J113">
+        <f>+G113/A113</f>
         <v>-1.5576264507512323E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.99514824799110357</v>
       </c>
@@ -3992,27 +4334,30 @@
         <v>0.79823275212396216</v>
       </c>
       <c r="D114">
-        <f>0.798232752123962+(1.74-0.82)</f>
-        <v>1.7182327521239622</v>
+        <f>0.798232752123962+(1.74412-0.82)</f>
+        <v>1.7223527521239621</v>
       </c>
       <c r="E114">
         <v>0.20327606474420776</v>
       </c>
       <c r="F114">
+        <v>0.30072572261111979</v>
+      </c>
+      <c r="G114">
         <v>-6.3605688770663471E-3</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>0.13878544034748694</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>0.14396198716298586</v>
       </c>
-      <c r="I114">
-        <f t="shared" si="3"/>
+      <c r="J114">
+        <f>+G114/A114</f>
         <v>-6.3915792344571452E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.0040718308854188</v>
       </c>
@@ -4023,27 +4368,30 @@
         <v>0.82763858512652122</v>
       </c>
       <c r="D115">
-        <f>0.827638585126521+(1.74-0.82)</f>
-        <v>1.7476385851265213</v>
+        <f>0.827638585126521+(1.74412-0.82)</f>
+        <v>1.7517585851265212</v>
       </c>
       <c r="E115">
         <v>0.17884394303893314</v>
       </c>
       <c r="F115">
+        <v>0.2762936009058452</v>
+      </c>
+      <c r="G115">
         <v>-2.410697280035512E-3</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>0.14304724102424457</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>0.14803963357129699</v>
       </c>
-      <c r="I115">
-        <f t="shared" si="3"/>
+      <c r="J115">
+        <f>+G115/A115</f>
         <v>-2.4009211352037344E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.98920758462858416</v>
       </c>
@@ -4054,27 +4402,30 @@
         <v>0.81561328771255903</v>
       </c>
       <c r="D116">
-        <f>0.815613287712559+(1.74-0.82)</f>
-        <v>1.735613287712559</v>
+        <f>0.815613287712559+(1.74412-0.82)</f>
+        <v>1.7397332877125589</v>
       </c>
       <c r="E116">
         <v>0.17349500728772382</v>
       </c>
       <c r="F116">
+        <v>0.27094466515463589</v>
+      </c>
+      <c r="G116">
         <v>9.928962830130228E-5</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>0.141438204552085</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>0.14437118737451415</v>
       </c>
-      <c r="I116">
-        <f t="shared" si="3"/>
+      <c r="J116">
+        <f>+G116/A116</f>
         <v>1.0037289426827672E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.99681234110535755</v>
       </c>
@@ -4085,27 +4436,30 @@
         <v>0.82378032179604932</v>
       </c>
       <c r="D117">
-        <f>0.823780321796049+(1.74-0.82)</f>
-        <v>1.7437803217960495</v>
+        <f>0.823780321796049+(1.74412-0.82)</f>
+        <v>1.7479003217960494</v>
       </c>
       <c r="E117">
         <v>0.18245347202765766</v>
       </c>
       <c r="F117">
+        <v>0.27990312989456967</v>
+      </c>
+      <c r="G117">
         <v>-9.4214527183494323E-3</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>0.13683263086042566</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>0.14672672273637591</v>
       </c>
-      <c r="I117">
-        <f t="shared" si="3"/>
+      <c r="J117">
+        <f>+G117/A117</f>
         <v>-9.4515811350229222E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.0063810691351414</v>
       </c>
@@ -4116,27 +4470,30 @@
         <v>0.81696866251975819</v>
       </c>
       <c r="D118">
-        <f>0.816968662519758+(1.74-0.82)</f>
-        <v>1.7369686625197582</v>
+        <f>0.816968662519758+(1.74412-0.82)</f>
+        <v>1.7410886625197581</v>
       </c>
       <c r="E118">
         <v>0.19440300577616063</v>
       </c>
       <c r="F118">
+        <v>0.29185266364307266</v>
+      </c>
+      <c r="G118">
         <v>-4.9905991607774591E-3</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>0.14341161741698494</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>0.14899024462570745</v>
       </c>
-      <c r="I118">
-        <f t="shared" si="3"/>
+      <c r="J118">
+        <f>+G118/A118</f>
         <v>-4.9589557214805863E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1.0044668696839665</v>
       </c>
@@ -4147,27 +4504,30 @@
         <v>0.82325309096105515</v>
       </c>
       <c r="D119">
-        <f>0.823253090961055+(1.74-0.82)</f>
-        <v>1.7432530909610553</v>
+        <f>0.823253090961055+(1.74412-0.82)</f>
+        <v>1.7473730909610552</v>
       </c>
       <c r="E119">
         <v>0.19099348153761261</v>
       </c>
       <c r="F119">
+        <v>0.28844313940452465</v>
+      </c>
+      <c r="G119">
         <v>-9.7797028147012799E-3</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>0.14568416242540788</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>0.15604220788064785</v>
       </c>
-      <c r="I119">
-        <f t="shared" si="3"/>
+      <c r="J119">
+        <f>+G119/A119</f>
         <v>-9.7362124225941361E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1.0118328718508725</v>
       </c>
@@ -4178,27 +4538,30 @@
         <v>0.82855296594256511</v>
       </c>
       <c r="D120">
-        <f>0.828552965942565+(1.74-0.82)</f>
-        <v>1.7485529659425652</v>
+        <f>0.828552965942565+(1.74412-0.82)</f>
+        <v>1.7526729659425651</v>
       </c>
       <c r="E120">
         <v>0.19748581629124265</v>
       </c>
       <c r="F120">
+        <v>0.29493547415815469</v>
+      </c>
+      <c r="G120">
         <v>-1.4205910382935311E-2</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>0.14399741782404296</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>0.15763670508174946</v>
       </c>
-      <c r="I120">
-        <f t="shared" si="3"/>
+      <c r="J120">
+        <f>+G120/A120</f>
         <v>-1.4039779471632968E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1.0176062969954884</v>
       </c>
@@ -4209,27 +4572,30 @@
         <v>0.81752923751388251</v>
       </c>
       <c r="D121">
-        <f>0.817529237513883+(1.74-0.82)</f>
-        <v>1.7375292375138827</v>
+        <f>0.817529237513883+(1.74412-0.82)</f>
+        <v>1.7416492375138826</v>
       </c>
       <c r="E121">
         <v>0.20636143651666222</v>
       </c>
       <c r="F121">
+        <v>0.30381109438357423</v>
+      </c>
+      <c r="G121">
         <v>-6.2843770350562989E-3</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>0.14579125439246626</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>0.1527775316935798</v>
       </c>
-      <c r="I121">
-        <f t="shared" si="3"/>
+      <c r="J121">
+        <f>+G121/A121</f>
         <v>-6.175646763990259E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.0214112992739803</v>
       </c>
@@ -4240,27 +4606,30 @@
         <v>0.81589263795184452</v>
       </c>
       <c r="D122">
-        <f>0.815892637951845+(1.74-0.82)</f>
-        <v>1.7358926379518445</v>
+        <f>0.815892637951845+(1.74412-0.82)</f>
+        <v>1.7400126379518444</v>
       </c>
       <c r="E122">
         <v>0.22123829530427014</v>
       </c>
       <c r="F122">
+        <v>0.31868795317118215</v>
+      </c>
+      <c r="G122">
         <v>-1.5719633982134329E-2</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>0.13835270766436406</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>0.15407730590817048</v>
       </c>
-      <c r="I122">
-        <f t="shared" si="3"/>
+      <c r="J122">
+        <f>+G122/A122</f>
         <v>-1.5390111694777464E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.0199388784548589</v>
       </c>
@@ -4271,27 +4640,30 @@
         <v>0.82064611698807277</v>
       </c>
       <c r="D123">
-        <f>0.820646116988073+(1.74-0.82)</f>
-        <v>1.7406461169880729</v>
+        <f>0.820646116988073+(1.74412-0.82)</f>
+        <v>1.7447661169880728</v>
       </c>
       <c r="E123">
         <v>0.21498676948849621</v>
       </c>
       <c r="F123">
+        <v>0.31243642735540822</v>
+      </c>
+      <c r="G123">
         <v>-1.5694008021710115E-2</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>0.14050332288443512</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>0.15583120971338163</v>
       </c>
-      <c r="I123">
-        <f t="shared" si="3"/>
+      <c r="J123">
+        <f>+G123/A123</f>
         <v>-1.5387204422960637E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.0291815825608186</v>
       </c>
@@ -4302,27 +4674,30 @@
         <v>0.82776574542958714</v>
       </c>
       <c r="D124">
-        <f>0.827765745429587+(1.74-0.82)</f>
-        <v>1.7477657454295872</v>
+        <f>0.827765745429587+(1.74412-0.82)</f>
+        <v>1.7518857454295871</v>
       </c>
       <c r="E124">
         <v>0.21208387220181291</v>
       </c>
       <c r="F124">
+        <v>0.30953353006872497</v>
+      </c>
+      <c r="G124">
         <v>-1.066803507058145E-2</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>0.1492601727709934</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>0.16041073839316816</v>
       </c>
-      <c r="I124">
-        <f t="shared" si="3"/>
+      <c r="J124">
+        <f>+G124/A124</f>
         <v>-1.0365551863099952E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.033027403960757</v>
       </c>
@@ -4333,27 +4708,30 @@
         <v>0.82641282918083103</v>
       </c>
       <c r="D125">
-        <f>0.826412829180831+(1.74-0.82)</f>
-        <v>1.746412829180831</v>
+        <f>0.826412829180831+(1.74412-0.82)</f>
+        <v>1.7505328291808309</v>
       </c>
       <c r="E125">
         <v>0.20782773593957274</v>
       </c>
       <c r="F125">
+        <v>0.30527739380648478</v>
+      </c>
+      <c r="G125">
         <v>-1.2131611596467862E-3</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>0.15682197065540684</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>0.1605340392262109</v>
       </c>
-      <c r="I125">
-        <f t="shared" si="3"/>
+      <c r="J125">
+        <f>+G125/A125</f>
         <v>-1.1743746148411686E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.0242510153577467</v>
       </c>
@@ -4364,27 +4742,30 @@
         <v>0.83506009126778669</v>
       </c>
       <c r="D126">
-        <f>0.835060091267787+(1.74-0.82)</f>
-        <v>1.7550600912677867</v>
+        <f>0.835060091267787+(1.74412-0.82)</f>
+        <v>1.7591800912677866</v>
       </c>
       <c r="E126">
         <v>0.19717400709249924</v>
       </c>
       <c r="F126">
+        <v>0.29462366495941128</v>
+      </c>
+      <c r="G126">
         <v>-7.9830830025392763E-3</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>0.15242470237247724</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>0.16086509927561465</v>
       </c>
-      <c r="I126">
-        <f t="shared" si="3"/>
+      <c r="J126">
+        <f>+G126/A126</f>
         <v>-7.7940689175211358E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.0181074345078969</v>
       </c>
@@ -4395,27 +4776,30 @@
         <v>0.83376682651914757</v>
       </c>
       <c r="D127">
-        <f>0.833766826519148+(1.74-0.82)</f>
-        <v>1.7537668265191475</v>
+        <f>0.833766826519148+(1.74412-0.82)</f>
+        <v>1.7578868265191474</v>
       </c>
       <c r="E127">
         <v>0.19516557755588793</v>
       </c>
       <c r="F127">
+        <v>0.29261523542279999</v>
+      </c>
+      <c r="G127">
         <v>-1.0824969567138631E-2</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>0.1474321566847776</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>0.15796999043694418</v>
       </c>
-      <c r="I127">
-        <f t="shared" si="3"/>
+      <c r="J127">
+        <f>+G127/A127</f>
         <v>-1.0632443296488539E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.0164555292763939</v>
       </c>
@@ -4426,27 +4810,30 @@
         <v>0.84432901564077234</v>
       </c>
       <c r="D128">
-        <f>0.844329015640772+(1.74-0.82)</f>
-        <v>1.7643290156407723</v>
+        <f>0.844329015640772+(1.74412-0.82)</f>
+        <v>1.7684490156407722</v>
       </c>
       <c r="E128">
         <v>0.19085220342582679</v>
       </c>
       <c r="F128">
+        <v>0.28830186129273883</v>
+      </c>
+      <c r="G128">
         <v>-1.8725689790205197E-2</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>0.1445284151522323</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>0.16123984012198658</v>
       </c>
-      <c r="I128">
-        <f t="shared" si="3"/>
+      <c r="J128">
+        <f>+G128/A128</f>
         <v>-1.8422537190127597E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.99196011383068239</v>
       </c>
@@ -4457,27 +4844,30 @@
         <v>0.84354716951747288</v>
       </c>
       <c r="D129">
-        <f>0.843547169517473+(1.74-0.82)</f>
-        <v>1.7635471695174729</v>
+        <f>0.843547169517473+(1.74412-0.82)</f>
+        <v>1.7676671695174728</v>
       </c>
       <c r="E129">
         <v>0.18801691307704615</v>
       </c>
       <c r="F129">
+        <v>0.28546657094395822</v>
+      </c>
+      <c r="G129">
         <v>-3.960396876383665E-2</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>0.13214830797525012</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>0.16561992578911541</v>
       </c>
-      <c r="I129">
-        <f t="shared" si="3"/>
+      <c r="J129">
+        <f>+G129/A129</f>
         <v>-3.9924960904825904E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98186294456148993</v>
       </c>
@@ -4488,27 +4878,30 @@
         <v>0.8053041847974669</v>
       </c>
       <c r="D130">
-        <f>0.805304184797467+(1.74-0.82)</f>
-        <v>1.7253041847974671</v>
+        <f>0.805304184797467+(1.74412-0.82)</f>
+        <v>1.729424184797467</v>
       </c>
       <c r="E130">
         <v>0.19022700946166674</v>
       </c>
       <c r="F130">
+        <v>0.28767666732857877</v>
+      </c>
+      <c r="G130">
         <v>-1.3668249697643714E-2</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>0.13553519322966598</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>0.14851085773942335</v>
       </c>
-      <c r="I130">
-        <f t="shared" ref="I130:I161" si="4">+F130/A130</f>
+      <c r="J130">
+        <f>+G130/A130</f>
         <v>-1.3920730763241192E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.97997521939410426</v>
       </c>
@@ -4519,27 +4912,30 @@
         <v>0.78912715197005556</v>
       </c>
       <c r="D131">
-        <f>0.789127151970056+(1.74-0.82)</f>
-        <v>1.7091271519700557</v>
+        <f>0.789127151970056+(1.74412-0.82)</f>
+        <v>1.7132471519700556</v>
       </c>
       <c r="E131">
         <v>0.18918112970823164</v>
       </c>
       <c r="F131">
+        <v>0.28663078757514371</v>
+      </c>
+      <c r="G131">
         <v>1.6669377158170517E-3</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>0.13099559554821913</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>0.13159027518179037</v>
       </c>
-      <c r="I131">
-        <f t="shared" si="4"/>
+      <c r="J131">
+        <f>+G131/A131</f>
         <v>1.7009998649227889E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98035877012917716</v>
       </c>
@@ -4550,27 +4946,30 @@
         <v>0.7855433014645492</v>
       </c>
       <c r="D132">
-        <f>0.785543301464549+(1.74-0.82)</f>
-        <v>1.7055433014645494</v>
+        <f>0.785543301464549+(1.74412-0.82)</f>
+        <v>1.7096633014645493</v>
       </c>
       <c r="E132">
         <v>0.18904379899497764</v>
       </c>
       <c r="F132">
+        <v>0.28649345686188965</v>
+      </c>
+      <c r="G132">
         <v>5.7716696696503145E-3</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>0.13080708147024578</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>0.1280709631390024</v>
       </c>
-      <c r="I132">
-        <f t="shared" si="4"/>
+      <c r="J132">
+        <f>+G132/A132</f>
         <v>5.8873035520351485E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98041714726655727</v>
       </c>
@@ -4581,27 +4980,30 @@
         <v>0.79767118886578103</v>
       </c>
       <c r="D133">
-        <f>0.797671188865781+(1.74-0.82)</f>
-        <v>1.717671188865781</v>
+        <f>0.797671188865781+(1.74412-0.82)</f>
+        <v>1.7217911888657809</v>
       </c>
       <c r="E133">
         <v>0.18015424471588939</v>
       </c>
       <c r="F133">
+        <v>0.27760390258280143</v>
+      </c>
+      <c r="G133">
         <v>2.5917136848868372E-3</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>0.13285632210516143</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>0.13265287419721419</v>
       </c>
-      <c r="I133">
-        <f t="shared" si="4"/>
+      <c r="J133">
+        <f>+G133/A133</f>
         <v>2.6434805757045762E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.97626565473703053</v>
       </c>
@@ -4612,27 +5014,30 @@
         <v>0.79801272333889772</v>
       </c>
       <c r="D134">
-        <f>0.798012723338898+(1.74-0.82)</f>
-        <v>1.7180127233388978</v>
+        <f>0.798012723338898+(1.74412-0.82)</f>
+        <v>1.7221327233388977</v>
       </c>
       <c r="E134">
         <v>0.1825811637783516</v>
       </c>
       <c r="F134">
+        <v>0.28003082164526361</v>
+      </c>
+      <c r="G134">
         <v>-4.3282323802187883E-3</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>0.12891040137043958</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>0.1348889240880686</v>
       </c>
-      <c r="I134">
-        <f t="shared" si="4"/>
+      <c r="J134">
+        <f>+G134/A134</f>
         <v>-4.4334575934504754E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.97949865137126579</v>
       </c>
@@ -4643,27 +5048,30 @@
         <v>0.79339825846826495</v>
       </c>
       <c r="D135">
-        <f>0.793398258468265+(1.74-0.82)</f>
-        <v>1.713398258468265</v>
+        <f>0.793398258468265+(1.74412-0.82)</f>
+        <v>1.7175182584682649</v>
       </c>
       <c r="E135">
         <v>0.18780618353715273</v>
       </c>
       <c r="F135">
+        <v>0.28525584140406479</v>
+      </c>
+      <c r="G135">
         <v>-1.7057906341518825E-3</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>0.13272979068831114</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>0.1366696317222223</v>
       </c>
-      <c r="I135">
-        <f t="shared" si="4"/>
+      <c r="J135">
+        <f>+G135/A135</f>
         <v>-1.7414936016132659E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.97748923828150858</v>
       </c>
@@ -4674,27 +5082,30 @@
         <v>0.80046156217874787</v>
       </c>
       <c r="D136">
-        <f>0.800461562178748+(1.74-0.82)</f>
-        <v>1.7204615621787478</v>
+        <f>0.800461562178748+(1.74412-0.82)</f>
+        <v>1.7245815621787477</v>
       </c>
       <c r="E136">
         <v>0.18392904371368105</v>
       </c>
       <c r="F136">
+        <v>0.28137870158059308</v>
+      </c>
+      <c r="G136">
         <v>-6.9013676109203337E-3</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>0.12960282256895284</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>0.13791577970104651</v>
       </c>
-      <c r="I136">
-        <f t="shared" si="4"/>
+      <c r="J136">
+        <f>+G136/A136</f>
         <v>-7.0603003497546422E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98930798204308523</v>
       </c>
@@ -4705,27 +5116,30 @@
         <v>0.80405674401097482</v>
       </c>
       <c r="D137">
-        <f>0.804056744010975+(1.74-0.82)</f>
-        <v>1.7240567440109749</v>
+        <f>0.804056744010975+(1.74412-0.82)</f>
+        <v>1.7281767440109748</v>
       </c>
       <c r="E137">
         <v>0.19254320559135732</v>
       </c>
       <c r="F137">
+        <v>0.28999286345826936</v>
+      </c>
+      <c r="G137">
         <v>-7.2919675592469091E-3</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>0.13154761060304998</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>0.14064096538848003</v>
       </c>
-      <c r="I137">
-        <f t="shared" si="4"/>
+      <c r="J137">
+        <f>+G137/A137</f>
         <v>-7.370776028904351E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.99637507447039475</v>
       </c>
@@ -4736,27 +5150,30 @@
         <v>0.80909137657341812</v>
       </c>
       <c r="D138">
-        <f>0.809091376573418+(1.74-0.82)</f>
-        <v>1.7290913765734182</v>
+        <f>0.809091376573418+(1.74412-0.82)</f>
+        <v>1.7332113765734181</v>
       </c>
       <c r="E138">
         <v>0.19320547318425277</v>
       </c>
       <c r="F138">
+        <v>0.29065513105116481</v>
+      </c>
+      <c r="G138">
         <v>-5.9217752872761376E-3</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>0.14042278580308057</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>0.14747848495521279</v>
       </c>
-      <c r="I138">
-        <f t="shared" si="4"/>
+      <c r="J138">
+        <f>+G138/A138</f>
         <v>-5.943319377417937E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.99853084064452879</v>
       </c>
@@ -4767,27 +5184,30 @@
         <v>0.815809150904241</v>
       </c>
       <c r="D139">
-        <f>0.815809150904241+(1.74-0.82)</f>
-        <v>1.735809150904241</v>
+        <f>0.815809150904241+(1.74412-0.82)</f>
+        <v>1.7399291509042409</v>
       </c>
       <c r="E139">
         <v>0.19308909126697757</v>
       </c>
       <c r="F139">
+        <v>0.29053874913388961</v>
+      </c>
+      <c r="G139">
         <v>-1.0367401526689773E-2</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>0.14243459174361528</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>0.15243576841359249</v>
       </c>
-      <c r="I139">
-        <f t="shared" si="4"/>
+      <c r="J139">
+        <f>+G139/A139</f>
         <v>-1.0382655301861136E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.0098049707748622</v>
       </c>
@@ -4798,27 +5218,30 @@
         <v>0.82191903214550499</v>
       </c>
       <c r="D140">
-        <f>0.821919032145505+(1.74-0.82)</f>
-        <v>1.7419190321455051</v>
+        <f>0.821919032145505+(1.74412-0.82)</f>
+        <v>1.746039032145505</v>
       </c>
       <c r="E140">
         <v>0.19869919895389213</v>
       </c>
       <c r="F140">
+        <v>0.29614885682080416</v>
+      </c>
+      <c r="G140">
         <v>-1.0813260324534918E-2</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>0.14024563717072819</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>0.15146356441759135</v>
       </c>
-      <c r="I140">
-        <f t="shared" si="4"/>
+      <c r="J140">
+        <f>+G140/A140</f>
         <v>-1.0708266088487847E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.0059446554721099</v>
       </c>
@@ -4829,27 +5252,30 @@
         <v>0.82156156501018041</v>
       </c>
       <c r="D141">
-        <f>0.82156156501018+(1.74-0.82)</f>
-        <v>1.7415615650101803</v>
+        <f>0.82156156501018+(1.74412-0.82)</f>
+        <v>1.7456815650101802</v>
       </c>
       <c r="E141">
         <v>0.19716535162416238</v>
       </c>
       <c r="F141">
+        <v>0.29461500949107444</v>
+      </c>
+      <c r="G141">
         <v>-1.2782261162232911E-2</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>0.14255284111825667</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>0.15454237513065486</v>
       </c>
-      <c r="I141">
-        <f t="shared" si="4"/>
+      <c r="J141">
+        <f>+G141/A141</f>
         <v>-1.2706724065484438E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.0096541533610708</v>
       </c>
@@ -4860,27 +5286,30 @@
         <v>0.82864259326383194</v>
       </c>
       <c r="D142">
-        <f>0.828642593263832+(1.74-0.82)</f>
-        <v>1.7486425932638321</v>
+        <f>0.828642593263832+(1.74412-0.82)</f>
+        <v>1.752762593263832</v>
       </c>
       <c r="E142">
         <v>0.18869793553535583</v>
       </c>
       <c r="F142">
+        <v>0.28614759340226786</v>
+      </c>
+      <c r="G142">
         <v>-7.6863754381169824E-3</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>0.14595503183948583</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>0.15319787012212577</v>
       </c>
-      <c r="I142">
-        <f t="shared" si="4"/>
+      <c r="J142">
+        <f>+G142/A142</f>
         <v>-7.6128795315995633E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.99996290524835452</v>
       </c>
@@ -4891,27 +5320,30 @@
         <v>0.8212004470008788</v>
       </c>
       <c r="D143">
-        <f>0.821200447000879+(1.74-0.82)</f>
-        <v>1.7412004470008788</v>
+        <f>0.821200447000879+(1.74412-0.82)</f>
+        <v>1.7453204470008787</v>
       </c>
       <c r="E143">
         <v>0.19306366551821114</v>
       </c>
       <c r="F143">
+        <v>0.29051332338512315</v>
+      </c>
+      <c r="G143">
         <v>-1.4301207270735417E-2</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>0.1398378608588686</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>0.15288854301322488</v>
       </c>
-      <c r="I143">
-        <f t="shared" si="4"/>
+      <c r="J143">
+        <f>+G143/A143</f>
         <v>-1.430173779014684E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.98770277442342547</v>
       </c>
@@ -4922,27 +5354,30 @@
         <v>0.80901118363478575</v>
       </c>
       <c r="D144">
-        <f>0.809011183634786+(1.74-0.82)</f>
-        <v>1.7290111836347859</v>
+        <f>0.809011183634786+(1.74412-0.82)</f>
+        <v>1.7331311836347858</v>
       </c>
       <c r="E144">
         <v>0.1897566008302019</v>
       </c>
       <c r="F144">
+        <v>0.28720625869711391</v>
+      </c>
+      <c r="G144">
         <v>-1.1065010041562184E-2</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>0.14445266593823411</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>0.15382155411283491</v>
       </c>
-      <c r="I144">
-        <f t="shared" si="4"/>
+      <c r="J144">
+        <f>+G144/A144</f>
         <v>-1.1202773069075784E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.98900487535266279</v>
       </c>
@@ -4953,27 +5388,30 @@
         <v>0.81697603754039361</v>
       </c>
       <c r="D145">
-        <f>0.816976037540394+(1.74-0.82)</f>
-        <v>1.7369760375403938</v>
+        <f>0.816976037540394+(1.74412-0.82)</f>
+        <v>1.7410960375403937</v>
       </c>
       <c r="E145">
         <v>0.18454606226560433</v>
       </c>
       <c r="F145">
+        <v>0.28199572013251639</v>
+      </c>
+      <c r="G145">
         <v>-1.2517224453335141E-2</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>0.13795151924431739</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>0.14928439521082268</v>
       </c>
-      <c r="I145">
-        <f t="shared" si="4"/>
+      <c r="J145">
+        <f>+G145/A145</f>
         <v>-1.2656382961582172E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.99002318171023163</v>
       </c>
@@ -4984,27 +5422,30 @@
         <v>0.80867095184356175</v>
       </c>
       <c r="D146">
-        <f>0.808670951843562+(1.74-0.82)</f>
-        <v>1.7286709518435619</v>
+        <f>0.808670951843562+(1.74412-0.82)</f>
+        <v>1.7327909518435618</v>
       </c>
       <c r="E146">
         <v>0.19548815520615825</v>
       </c>
       <c r="F146">
+        <v>0.29293781307307032</v>
+      </c>
+      <c r="G146">
         <v>-1.4135925339488375E-2</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>0.14011404751971099</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>0.15287423010922443</v>
       </c>
-      <c r="I146">
-        <f t="shared" si="4"/>
+      <c r="J146">
+        <f>+G146/A146</f>
         <v>-1.4278378123499131E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.0106718500420815</v>
       </c>
@@ -5015,27 +5456,30 @@
         <v>0.83384559557935012</v>
       </c>
       <c r="D147">
-        <f>0.83384559557935+(1.74-0.82)</f>
-        <v>1.7538455955793502</v>
+        <f>0.83384559557935+(1.74412-0.82)</f>
+        <v>1.7579655955793501</v>
       </c>
       <c r="E147">
         <v>0.18994539160225263</v>
       </c>
       <c r="F147">
+        <v>0.28739504946916467</v>
+      </c>
+      <c r="G147">
         <v>-1.3119137139521259E-2</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>0.14406070598442663</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>0.1551221072488207</v>
       </c>
-      <c r="I147">
-        <f t="shared" si="4"/>
+      <c r="J147">
+        <f>+G147/A147</f>
         <v>-1.2980610015976021E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.0070102624617405</v>
       </c>
@@ -5046,27 +5490,30 @@
         <v>0.83804421452384259</v>
       </c>
       <c r="D148">
-        <f>0.838044214523843+(1.74-0.82)</f>
-        <v>1.7580442145238426</v>
+        <f>0.838044214523843+(1.74412-0.82)</f>
+        <v>1.7621642145238425</v>
       </c>
       <c r="E148">
         <v>0.18573643407081644</v>
       </c>
       <c r="F148">
+        <v>0.28318609193772848</v>
+      </c>
+      <c r="G148">
         <v>-1.6770386132918508E-2</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>0.14167534448091071</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>0.15538686822592174</v>
       </c>
-      <c r="I148">
-        <f t="shared" si="4"/>
+      <c r="J148">
+        <f>+G148/A148</f>
         <v>-1.6653639747346335E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.0102212341738461</v>
       </c>
@@ -5077,27 +5524,30 @@
         <v>0.8123280404003036</v>
       </c>
       <c r="D149">
-        <f>0.812328040400304+(1.74-0.82)</f>
-        <v>1.7323280404003036</v>
+        <f>0.812328040400304+(1.74412-0.82)</f>
+        <v>1.7364480404003035</v>
       </c>
       <c r="E149">
         <v>0.2007514715895887</v>
       </c>
       <c r="F149">
+        <v>0.29820112945650074</v>
+      </c>
+      <c r="G149">
         <v>-2.8582778160461675E-3</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>0.14895422075373566</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>0.15301733570439074</v>
       </c>
-      <c r="I149">
-        <f t="shared" si="4"/>
+      <c r="J149">
+        <f>+G149/A149</f>
         <v>-2.8293582824792363E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1.0153478651582173</v>
       </c>
@@ -5108,27 +5558,30 @@
         <v>0.83319470623116243</v>
       </c>
       <c r="D150">
-        <f>0.833194706231162+(1.74-0.82)</f>
-        <v>1.7531947062311626</v>
+        <f>0.833194706231162+(1.74412-0.82)</f>
+        <v>1.7573147062311625</v>
       </c>
       <c r="E150">
         <v>0.19924545265625834</v>
       </c>
       <c r="F150">
+        <v>0.29669511052317038</v>
+      </c>
+      <c r="G150">
         <v>-1.7092293729203484E-2</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>0.14103246213004036</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>0.15624501613147079</v>
       </c>
-      <c r="I150">
-        <f t="shared" si="4"/>
+      <c r="J150">
+        <f>+G150/A150</f>
         <v>-1.6833928858992642E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.006799569846466</v>
       </c>
@@ -5139,27 +5592,30 @@
         <v>0.82807775943736905</v>
       </c>
       <c r="D151">
-        <f>0.828077759437369+(1.74-0.82)</f>
-        <v>1.7480777594373691</v>
+        <f>0.828077759437369+(1.74412-0.82)</f>
+        <v>1.752197759437369</v>
       </c>
       <c r="E151">
         <v>0.19966005646091964</v>
       </c>
       <c r="F151">
+        <v>0.29710971432783168</v>
+      </c>
+      <c r="G151">
         <v>-2.0938246051822679E-2</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>0.13945025126814137</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>0.15747815196670967</v>
       </c>
-      <c r="I151">
-        <f t="shared" si="4"/>
+      <c r="J151">
+        <f>+G151/A151</f>
         <v>-2.0796836509391535E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.0117149458901196</v>
       </c>
@@ -5170,27 +5626,30 @@
         <v>0.82275757356778323</v>
       </c>
       <c r="D152">
-        <f>0.822757573567783+(1.74-0.82)</f>
-        <v>1.7427575735677832</v>
+        <f>0.822757573567783+(1.74412-0.82)</f>
+        <v>1.7468775735677831</v>
       </c>
       <c r="E152">
         <v>0.20191615850495342</v>
       </c>
       <c r="F152">
+        <v>0.29936581637186543</v>
+      </c>
+      <c r="G152">
         <v>-1.2958786182617088E-2</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>0.14295583713370996</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>0.1551567966593754</v>
       </c>
-      <c r="I152">
-        <f t="shared" si="4"/>
+      <c r="J152">
+        <f>+G152/A152</f>
         <v>-1.2808732573596394E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1.0117035129913337</v>
       </c>
@@ -5201,27 +5660,30 @@
         <v>0.84189258848447956</v>
       </c>
       <c r="D153">
-        <f>0.84189258848448+(1.74-0.82)</f>
-        <v>1.7618925884844796</v>
+        <f>0.84189258848448+(1.74412-0.82)</f>
+        <v>1.7660125884844795</v>
       </c>
       <c r="E153">
         <v>0.20185707637237499</v>
       </c>
       <c r="F153">
+        <v>0.299306734239287</v>
+      </c>
+      <c r="G153">
         <v>-3.20461518655209E-2</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>0.13619198193420298</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>0.16276742522317786</v>
       </c>
-      <c r="I153">
-        <f t="shared" si="4"/>
+      <c r="J153">
+        <f>+G153/A153</f>
         <v>-3.1675437965782184E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.0109716833510696</v>
       </c>
@@ -5232,27 +5694,30 @@
         <v>0.82252477730533402</v>
       </c>
       <c r="D154">
-        <f>0.822524777305334+(1.74-0.82)</f>
-        <v>1.7425247773053341</v>
+        <f>0.822524777305334+(1.74412-0.82)</f>
+        <v>1.746644777305334</v>
       </c>
       <c r="E154">
         <v>0.20192078445120015</v>
       </c>
       <c r="F154">
+        <v>0.29937044231811216</v>
+      </c>
+      <c r="G154">
         <v>-1.3473878405464601E-2</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>0.13943556355137929</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>0.15288592267876247</v>
       </c>
-      <c r="I154">
-        <f t="shared" si="4"/>
+      <c r="J154">
+        <f>+G154/A154</f>
         <v>-1.3327651631945528E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.0093690747398369</v>
       </c>
@@ -5263,27 +5728,30 @@
         <v>0.8051126948302173</v>
       </c>
       <c r="D155">
-        <f>0.805112694830217+(1.74-0.82)</f>
-        <v>1.7251126948302173</v>
+        <f>0.805112694830217+(1.74412-0.82)</f>
+        <v>1.7292326948302172</v>
       </c>
       <c r="E155">
         <v>0.20284515990584639</v>
       </c>
       <c r="F155">
+        <v>0.30029481777275846</v>
+      </c>
+      <c r="G155">
         <v>1.4112200037732503E-3</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>0.14595736529141448</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>0.14789955023942949</v>
       </c>
-      <c r="I155">
-        <f t="shared" si="4"/>
+      <c r="J155">
+        <f>+G155/A155</f>
         <v>1.3981209045234417E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.0152343736749341</v>
       </c>
@@ -5294,27 +5762,30 @@
         <v>0.83516841891387394</v>
       </c>
       <c r="D156">
-        <f>0.835168418913874+(1.74-0.82)</f>
-        <v>1.7551684189138741</v>
+        <f>0.835168418913874+(1.74412-0.82)</f>
+        <v>1.759288418913874</v>
       </c>
       <c r="E156">
         <v>0.20280668945272232</v>
       </c>
       <c r="F156">
+        <v>0.30025634731963435</v>
+      </c>
+      <c r="G156">
         <v>-2.2740734691662184E-2</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>0.13697383429134782</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>0.15749174641131836</v>
       </c>
-      <c r="I156">
-        <f t="shared" si="4"/>
+      <c r="J156">
+        <f>+G156/A156</f>
         <v>-2.2399492453496751E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.0032871032612896</v>
       </c>
@@ -5325,27 +5796,30 @@
         <v>0.82428610574132921</v>
       </c>
       <c r="D157">
-        <f>0.824286105741329+(1.74-0.82)</f>
-        <v>1.7442861057413293</v>
+        <f>0.824286105741329+(1.74412-0.82)</f>
+        <v>1.7484061057413292</v>
       </c>
       <c r="E157">
         <v>0.19181693106409786</v>
       </c>
       <c r="F157">
+        <v>0.28926658893100987</v>
+      </c>
+      <c r="G157">
         <v>-1.2815933544137514E-2</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>0.13801045620803953</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>0.15014521671737172</v>
       </c>
-      <c r="I157">
-        <f t="shared" si="4"/>
+      <c r="J157">
+        <f>+G157/A157</f>
         <v>-1.2773944270267188E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.0092659338085355</v>
       </c>
@@ -5356,27 +5830,30 @@
         <v>0.82343252740968964</v>
       </c>
       <c r="D158">
-        <f>0.82343252740969+(1.74-0.82)</f>
-        <v>1.7434325274096896</v>
+        <f>0.82343252740969+(1.74412-0.82)</f>
+        <v>1.7475525274096895</v>
       </c>
       <c r="E158">
         <v>0.19026527232389728</v>
       </c>
       <c r="F158">
+        <v>0.28771493019080929</v>
+      </c>
+      <c r="G158">
         <v>-4.4318659250514592E-3</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>0.13972118675645509</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>0.14554281419775997</v>
       </c>
-      <c r="I158">
-        <f t="shared" si="4"/>
+      <c r="J158">
+        <f>+G158/A158</f>
         <v>-4.3911775643982196E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.0057548527718847</v>
       </c>
@@ -5387,27 +5864,30 @@
         <v>0.82074210410377579</v>
       </c>
       <c r="D159">
-        <f>0.820742104103776+(1.74-0.82)</f>
-        <v>1.7407421041037758</v>
+        <f>0.820742104103776+(1.74412-0.82)</f>
+        <v>1.7448621041037757</v>
       </c>
       <c r="E159">
         <v>0.19130546383118718</v>
       </c>
       <c r="F159">
+        <v>0.28875512169809925</v>
+      </c>
+      <c r="G159">
         <v>-6.2927151630782774E-3</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>0.13549352539601217</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>0.14365585448406229</v>
       </c>
-      <c r="I159">
-        <f t="shared" si="4"/>
+      <c r="J159">
+        <f>+G159/A159</f>
         <v>-6.2567087255263071E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.0050434512903763</v>
       </c>
@@ -5418,27 +5898,30 @@
         <v>0.82090222850824668</v>
       </c>
       <c r="D160">
-        <f>0.820902228508247+(1.74-0.82)</f>
-        <v>1.7409022285082467</v>
+        <f>0.820902228508247+(1.74412-0.82)</f>
+        <v>1.7450222285082466</v>
       </c>
       <c r="E160">
         <v>0.18716279650327045</v>
       </c>
       <c r="F160">
+        <v>0.28461245437018245</v>
+      </c>
+      <c r="G160">
         <v>-3.0215737211408134E-3</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>0.13800671413269258</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>0.14282567141773267</v>
       </c>
-      <c r="I160">
-        <f t="shared" si="4"/>
+      <c r="J160">
+        <f>+G160/A160</f>
         <v>-3.0064110335343329E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.0036734218595402</v>
       </c>
@@ -5449,27 +5932,30 @@
         <v>0.80923593495718449</v>
       </c>
       <c r="D161">
-        <f>0.809235934957184+(1.74-0.82)</f>
-        <v>1.7292359349571846</v>
+        <f>0.809235934957184+(1.74412-0.82)</f>
+        <v>1.7333559349571845</v>
       </c>
       <c r="E161">
         <v>0.19697039798570648</v>
       </c>
       <c r="F161">
+        <v>0.29442005585261855</v>
+      </c>
+      <c r="G161">
         <v>-2.5329110833507418E-3</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>0.14252189180923705</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>0.14666726044690723</v>
       </c>
-      <c r="I161">
-        <f t="shared" si="4"/>
+      <c r="J161">
+        <f>+G161/A161</f>
         <v>-2.5236406864873741E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.99993372852459395</v>
       </c>
@@ -5480,27 +5966,30 @@
         <v>0.81554928622145495</v>
       </c>
       <c r="D162">
-        <f>0.815549286221455+(1.74-0.82)</f>
-        <v>1.735549286221455</v>
+        <f>0.815549286221455+(1.74412-0.82)</f>
+        <v>1.7396692862214549</v>
       </c>
       <c r="E162">
         <v>0.19200298020830139</v>
       </c>
       <c r="F162">
+        <v>0.28945263807521343</v>
+      </c>
+      <c r="G162">
         <v>-7.618537905162398E-3</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>0.14130324797641847</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>0.14869756142757465</v>
       </c>
-      <c r="I162">
-        <f t="shared" ref="I162:I189" si="5">+F162/A162</f>
+      <c r="J162">
+        <f>+G162/A162</f>
         <v>-7.6190428303719486E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.99832821198296351</v>
       </c>
@@ -5511,27 +6000,30 @@
         <v>0.80591906080359099</v>
       </c>
       <c r="D163">
-        <f>0.805919060803591+(1.74-0.82)</f>
-        <v>1.725919060803591</v>
+        <f>0.805919060803591+(1.74412-0.82)</f>
+        <v>1.7300390608035909</v>
       </c>
       <c r="E163">
         <v>0.19327630094158385</v>
       </c>
       <c r="F163">
+        <v>0.29072595880849589</v>
+      </c>
+      <c r="G163">
         <v>-8.6714976221133333E-4</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>0.14314401485025088</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>0.14530279933105883</v>
       </c>
-      <c r="I163">
-        <f t="shared" si="5"/>
+      <c r="J163">
+        <f>+G163/A163</f>
         <v>-8.6860188042660585E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.0019122965638534</v>
       </c>
@@ -5542,27 +6034,30 @@
         <v>0.80220825948799745</v>
       </c>
       <c r="D164">
-        <f>0.802208259487997+(1.74-0.82)</f>
-        <v>1.7222082594879975</v>
+        <f>0.802208259487997+(1.74412-0.82)</f>
+        <v>1.7263282594879974</v>
       </c>
       <c r="E164">
         <v>0.19734837637609051</v>
       </c>
       <c r="F164">
+        <v>0.29479803424300255</v>
+      </c>
+      <c r="G164">
         <v>2.3556606997654217E-3</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>0.14308863066986088</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>0.14324863149710704</v>
       </c>
-      <c r="I164">
-        <f t="shared" si="5"/>
+      <c r="J164">
+        <f>+G164/A164</f>
         <v>2.351164575826016E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.99899492013592095</v>
       </c>
@@ -5573,27 +6068,30 @@
         <v>0.79657767139661373</v>
       </c>
       <c r="D165">
-        <f>0.796577671396614+(1.74-0.82)</f>
-        <v>1.7165776713966139</v>
+        <f>0.796577671396614+(1.74412-0.82)</f>
+        <v>1.7206976713966138</v>
       </c>
       <c r="E165">
         <v>0.19774136327798544</v>
       </c>
       <c r="F165">
+        <v>0.29519102114489748</v>
+      </c>
+      <c r="G165">
         <v>4.6758854613217771E-3</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>0.14341456279333231</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>0.14165661380521916</v>
       </c>
-      <c r="I165">
-        <f t="shared" si="5"/>
+      <c r="J165">
+        <f>+G165/A165</f>
         <v>4.6805898279098221E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.99968713852673474</v>
       </c>
@@ -5604,27 +6102,30 @@
         <v>0.81007679579813996</v>
       </c>
       <c r="D166">
-        <f>0.81007679579814+(1.74-0.82)</f>
-        <v>1.73007679579814</v>
+        <f>0.81007679579814+(1.74412-0.82)</f>
+        <v>1.7341967957981399</v>
       </c>
       <c r="E166">
         <v>0.19075141089886041</v>
       </c>
       <c r="F166">
+        <v>0.28820106876577245</v>
+      </c>
+      <c r="G166">
         <v>-1.14106817026563E-3</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>0.14273871229599269</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>0.14470080196005619</v>
       </c>
-      <c r="I166">
-        <f t="shared" si="5"/>
+      <c r="J166">
+        <f>+G166/A166</f>
         <v>-1.1414252782598086E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.0081971287066214</v>
       </c>
@@ -5635,27 +6136,30 @@
         <v>0.81759413322731433</v>
       </c>
       <c r="D167">
-        <f>0.817594133227314+(1.74-0.82)</f>
-        <v>1.7375941332273144</v>
+        <f>0.817594133227314+(1.74412-0.82)</f>
+        <v>1.7417141332273143</v>
       </c>
       <c r="E167">
         <v>0.20022719051579699</v>
       </c>
       <c r="F167">
+        <v>0.29767684838270903</v>
+      </c>
+      <c r="G167">
         <v>-9.624195036489952E-3</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>0.14119796715130109</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>0.15033629320490965</v>
       </c>
-      <c r="I167">
-        <f t="shared" si="5"/>
+      <c r="J167">
+        <f>+G167/A167</f>
         <v>-9.5459456910341276E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1.0131346283180935</v>
       </c>
@@ -5666,27 +6170,30 @@
         <v>0.81236613925051659</v>
       </c>
       <c r="D168">
-        <f>0.812366139250517+(1.74-0.82)</f>
-        <v>1.7323661392505167</v>
+        <f>0.812366139250517+(1.74412-0.82)</f>
+        <v>1.7364861392505166</v>
       </c>
       <c r="E168">
         <v>0.20259429232572254</v>
       </c>
       <c r="F168">
+        <v>0.30004395019263458</v>
+      </c>
+      <c r="G168">
         <v>-1.825803258145603E-3</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>0.14664347764184987</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>0.14895750337836774</v>
       </c>
-      <c r="I168">
-        <f t="shared" si="5"/>
+      <c r="J168">
+        <f>+G168/A168</f>
         <v>-1.8021329121645185E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.0105376647235502</v>
       </c>
@@ -5697,27 +6204,30 @@
         <v>0.82267416652476166</v>
       </c>
       <c r="D169">
-        <f>0.822674166524762+(1.74-0.82)</f>
-        <v>1.7426741665247616</v>
+        <f>0.822674166524762+(1.74412-0.82)</f>
+        <v>1.7467941665247615</v>
       </c>
       <c r="E169">
         <v>0.20422190692663564</v>
       </c>
       <c r="F169">
+        <v>0.30167156479354768</v>
+      </c>
+      <c r="G169">
         <v>-1.6358408727847079E-2</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>0.14904804972275634</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>0.16062096457746905</v>
       </c>
-      <c r="I169">
-        <f t="shared" si="5"/>
+      <c r="J169">
+        <f>+G169/A169</f>
         <v>-1.618782683604594E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1.0175711013959639</v>
       </c>
@@ -5728,27 +6238,30 @@
         <v>0.82029871870093751</v>
       </c>
       <c r="D170">
-        <f>0.820298718700938+(1.74-0.82)</f>
-        <v>1.7402987187009376</v>
+        <f>0.820298718700938+(1.74412-0.82)</f>
+        <v>1.7444187187009375</v>
       </c>
       <c r="E170">
         <v>0.20779768181079319</v>
       </c>
       <c r="F170">
+        <v>0.30524733967770523</v>
+      </c>
+      <c r="G170">
         <v>-1.0525299115766856E-2</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>0.15125271936381632</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>0.15852362047999663</v>
       </c>
-      <c r="I170">
-        <f t="shared" si="5"/>
+      <c r="J170">
+        <f>+G170/A170</f>
         <v>-1.0343551523159052E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.0208713907984581</v>
       </c>
@@ -5759,27 +6272,30 @@
         <v>0.81731121813153307</v>
       </c>
       <c r="D171">
-        <f>0.817311218131533+(1.74-0.82)</f>
-        <v>1.7373112181315331</v>
+        <f>0.817311218131533+(1.74412-0.82)</f>
+        <v>1.741431218131533</v>
       </c>
       <c r="E171">
         <v>0.21255319644835091</v>
       </c>
       <c r="F171">
+        <v>0.31000285431526298</v>
+      </c>
+      <c r="G171">
         <v>-8.9930237814258573E-3</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>0.15519622367461508</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>0.16054985495878024</v>
       </c>
-      <c r="I171">
-        <f t="shared" si="5"/>
+      <c r="J171">
+        <f>+G171/A171</f>
         <v>-8.8091642713115006E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.0265791285709742</v>
       </c>
@@ -5790,27 +6306,30 @@
         <v>0.83088856803834343</v>
       </c>
       <c r="D172">
-        <f>0.830888568038343+(1.74-0.82)</f>
-        <v>1.7508885680383435</v>
+        <f>0.830888568038343+(1.74412-0.82)</f>
+        <v>1.7550085680383434</v>
       </c>
       <c r="E172">
         <v>0.21039061817059201</v>
       </c>
       <c r="F172">
+        <v>0.30784027603750408</v>
+      </c>
+      <c r="G172">
         <v>-1.4700057637961228E-2</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>0.15118326103507576</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>0.1614236703095733</v>
       </c>
-      <c r="I172">
-        <f t="shared" si="5"/>
+      <c r="J172">
+        <f>+G172/A172</f>
         <v>-1.431945889882264E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.0222191339474254</v>
       </c>
@@ -5821,27 +6340,30 @@
         <v>0.83405460551310473</v>
       </c>
       <c r="D173">
-        <f>0.834054605513105+(1.74-0.82)</f>
-        <v>1.7540546055131048</v>
+        <f>0.834054605513105+(1.74412-0.82)</f>
+        <v>1.7581746055131047</v>
       </c>
       <c r="E173">
         <v>0.19998554361182883</v>
       </c>
       <c r="F173">
+        <v>0.29743520147874086</v>
+      </c>
+      <c r="G173">
         <v>-1.1821015177508193E-2</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>0.14667718336353214</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>0.15583284604750597</v>
       </c>
-      <c r="I173">
-        <f t="shared" si="5"/>
+      <c r="J173">
+        <f>+G173/A173</f>
         <v>-1.1564071523353201E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.0034543697626361</v>
       </c>
@@ -5852,27 +6374,30 @@
         <v>0.82001086333929729</v>
       </c>
       <c r="D174">
-        <f>0.820010863339297+(1.74-0.82)</f>
-        <v>1.7400108633392972</v>
+        <f>0.820010863339297+(1.74412-0.82)</f>
+        <v>1.7441308633392971</v>
       </c>
       <c r="E174">
         <v>0.18651970187818734</v>
       </c>
       <c r="F174">
+        <v>0.2839693597450994</v>
+      </c>
+      <c r="G174">
         <v>-3.076195454848496E-3</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>0.14291349772187395</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>0.14633443519529249</v>
       </c>
-      <c r="I174">
-        <f t="shared" si="5"/>
+      <c r="J174">
+        <f>+G174/A174</f>
         <v>-3.0656057191481064E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.81621388798288308</v>
       </c>
@@ -5883,27 +6408,30 @@
         <v>0.68181539901661548</v>
       </c>
       <c r="D175">
-        <f>0.681815399016615+(1.74-0.82)</f>
-        <v>1.6018153990166155</v>
+        <f>0.681815399016615+(1.74412-0.82)</f>
+        <v>1.6059353990166154</v>
       </c>
       <c r="E175">
         <v>0.11299540525006002</v>
       </c>
       <c r="F175">
+        <v>0.21044506311697206</v>
+      </c>
+      <c r="G175">
         <v>2.1403083716207583E-2</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>0.10349250949694858</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>9.580515682387325E-2</v>
       </c>
-      <c r="I175">
-        <f t="shared" si="5"/>
+      <c r="J175">
+        <f>+G175/A175</f>
         <v>2.6222395907892746E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.90957481318961442</v>
       </c>
@@ -5914,27 +6442,30 @@
         <v>0.74796171867971051</v>
       </c>
       <c r="D176">
-        <f>0.747961718679711+(1.74-0.82)</f>
-        <v>1.6679617186797104</v>
+        <f>0.747961718679711+(1.74412-0.82)</f>
+        <v>1.6720817186797103</v>
       </c>
       <c r="E176">
         <v>0.1583970672625972</v>
       </c>
       <c r="F176">
+        <v>0.25584672512950923</v>
+      </c>
+      <c r="G176">
         <v>3.2160272473067131E-3</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>0.10557044334890948</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>0.112830681078081</v>
       </c>
-      <c r="I176">
-        <f t="shared" si="5"/>
+      <c r="J176">
+        <f>+G176/A176</f>
         <v>3.5357479128396711E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.96272030604095882</v>
       </c>
@@ -5945,27 +6476,30 @@
         <v>0.79518841688726238</v>
       </c>
       <c r="D177">
-        <f>0.795188416887262+(1.74-0.82)</f>
-        <v>1.7151884168872624</v>
+        <f>0.795188416887262+(1.74412-0.82)</f>
+        <v>1.7193084168872623</v>
       </c>
       <c r="E177">
         <v>0.17159260575850141</v>
       </c>
       <c r="F177">
+        <v>0.26904226362541345</v>
+      </c>
+      <c r="G177">
         <v>-4.0607166048049759E-3</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>0.11106594652839397</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>0.12534137616186738</v>
       </c>
-      <c r="I177">
-        <f t="shared" si="5"/>
+      <c r="J177">
+        <f>+G177/A177</f>
         <v>-4.217960896144444E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.99055749177960273</v>
       </c>
@@ -5976,27 +6510,30 @@
         <v>0.79429702949129377</v>
       </c>
       <c r="D178">
-        <f>0.794297029491294+(1.74-0.82)</f>
-        <v>1.7142970294912938</v>
+        <f>0.794297029491294+(1.74412-0.82)</f>
+        <v>1.7184170294912937</v>
       </c>
       <c r="E178">
         <v>0.19582800869725606</v>
       </c>
       <c r="F178">
+        <v>0.29327766656416809</v>
+      </c>
+      <c r="G178">
         <v>4.3245359105290038E-4</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>0.128223592484948</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>0.13303465869586525</v>
       </c>
-      <c r="I178">
-        <f t="shared" si="5"/>
+      <c r="J178">
+        <f>+G178/A178</f>
         <v>4.365759631739987E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.95839130032092967</v>
       </c>
@@ -6007,27 +6544,30 @@
         <v>0.79866858264310503</v>
       </c>
       <c r="D179">
-        <f>0.798668582643105+(1.74-0.82)</f>
-        <v>1.718668582643105</v>
+        <f>0.798668582643105+(1.74412-0.82)</f>
+        <v>1.7227885826431049</v>
       </c>
       <c r="E179">
         <v>0.18268428726907984</v>
       </c>
       <c r="F179">
+        <v>0.28013394513599188</v>
+      </c>
+      <c r="G179">
         <v>-2.2961569591255199E-2</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>0.12128897953581297</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>0.14541550316340796</v>
       </c>
-      <c r="I179">
-        <f t="shared" si="5"/>
+      <c r="J179">
+        <f>+G179/A179</f>
         <v>-2.3958449522200609E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1.0040712810223305</v>
       </c>
@@ -6038,27 +6578,30 @@
         <v>0.8368698499304642</v>
       </c>
       <c r="D180">
-        <f>0.836869849930464+(1.74-0.82)</f>
-        <v>1.7568698499304642</v>
+        <f>0.836869849930464+(1.74412-0.82)</f>
+        <v>1.7609898499304641</v>
       </c>
       <c r="E180">
         <v>0.18657219855178822</v>
       </c>
       <c r="F180">
+        <v>0.28402185641870026</v>
+      </c>
+      <c r="G180">
         <v>-1.9370767459921973E-2</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>0.13653468580374661</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>0.15527836733751102</v>
       </c>
-      <c r="I180">
-        <f t="shared" si="5"/>
+      <c r="J180">
+        <f>+G180/A180</f>
         <v>-1.9292223396927502E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.035492726408874</v>
       </c>
@@ -6069,27 +6612,30 @@
         <v>0.85482031309092077</v>
       </c>
       <c r="D181">
-        <f>0.854820313090921+(1.74-0.82)</f>
-        <v>1.7748203130909208</v>
+        <f>0.854820313090921+(1.74412-0.82)</f>
+        <v>1.7789403130909207</v>
       </c>
       <c r="E181">
         <v>0.19580555387188966</v>
       </c>
       <c r="F181">
+        <v>0.2932552117388017</v>
+      </c>
+      <c r="G181">
         <v>-1.5133140553936414E-2</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>0.14889379644406567</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>0.16147110959659375</v>
       </c>
-      <c r="I181">
-        <f t="shared" si="5"/>
+      <c r="J181">
+        <f>+G181/A181</f>
         <v>-1.4614434431054566E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.0337651059286568</v>
       </c>
@@ -6100,27 +6646,30 @@
         <v>0.86175413974784687</v>
       </c>
       <c r="D182">
-        <f>0.861754139747847+(1.74-0.82)</f>
-        <v>1.7817541397478469</v>
+        <f>0.861754139747847+(1.74412-0.82)</f>
+        <v>1.7858741397478468</v>
       </c>
       <c r="E182">
         <v>0.21136749807998029</v>
       </c>
       <c r="F182">
+        <v>0.3088171559468923</v>
+      </c>
+      <c r="G182">
         <v>-3.9356531899170377E-2</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>0.14599729474381498</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>0.17475213516419341</v>
       </c>
-      <c r="I182">
-        <f t="shared" si="5"/>
+      <c r="J182">
+        <f>+G182/A182</f>
         <v>-3.8071058573616132E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1.0375260988390202</v>
       </c>
@@ -6131,27 +6680,30 @@
         <v>0.86425334642397245</v>
       </c>
       <c r="D183">
-        <f>0.864253346423972+(1.74-0.82)</f>
-        <v>1.7842533464239725</v>
+        <f>0.864253346423972+(1.74412-0.82)</f>
+        <v>1.7883733464239724</v>
       </c>
       <c r="E183">
         <v>0.2067240992118371</v>
       </c>
       <c r="F183">
+        <v>0.30417375707874916</v>
+      </c>
+      <c r="G183">
         <v>-3.3451346796789294E-2</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>0.1475206933781287</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>0.17242266953034915</v>
       </c>
-      <c r="I183">
-        <f t="shared" si="5"/>
+      <c r="J183">
+        <f>+G183/A183</f>
         <v>-3.2241450922748799E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.0383838096986544</v>
       </c>
@@ -6162,27 +6714,30 @@
         <v>0.86813953480215722</v>
       </c>
       <c r="D184">
-        <f>0.868139534802157+(1.74-0.82)</f>
-        <v>1.7881395348021574</v>
+        <f>0.868139534802157+(1.74412-0.82)</f>
+        <v>1.7922595348021573</v>
       </c>
       <c r="E184">
         <v>0.21125401353742262</v>
       </c>
       <c r="F184">
+        <v>0.30870367140433463</v>
+      </c>
+      <c r="G184">
         <v>-4.1009738640925442E-2</v>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>0.14962891646766824</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>0.17823356722041162</v>
       </c>
-      <c r="I184">
-        <f t="shared" si="5"/>
+      <c r="J184">
+        <f>+G184/A184</f>
         <v>-3.9493815540928678E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1.019921871303751</v>
       </c>
@@ -6193,27 +6748,30 @@
         <v>0.83701276919640311</v>
       </c>
       <c r="D185">
-        <f>0.837012769196403+(1.74-0.82)</f>
-        <v>1.757012769196403</v>
+        <f>0.837012769196403+(1.74412-0.82)</f>
+        <v>1.7611327691964029</v>
       </c>
       <c r="E185">
         <v>0.21368796420213917</v>
       </c>
       <c r="F185">
+        <v>0.31113762206905121</v>
+      </c>
+      <c r="G185">
         <v>-3.0778862094791276E-2</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>0.14145471661524875</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>0.16542028796736702</v>
       </c>
-      <c r="I185">
-        <f t="shared" si="5"/>
+      <c r="J185">
+        <f>+G185/A185</f>
         <v>-3.0177666506403196E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1.0247298858377043</v>
       </c>
@@ -6224,27 +6782,30 @@
         <v>0.82942595029313571</v>
       </c>
       <c r="D186">
-        <f>0.829425950293136+(1.74-0.82)</f>
-        <v>1.7494259502931357</v>
+        <f>0.829425950293136+(1.74412-0.82)</f>
+        <v>1.7535459502931356</v>
       </c>
       <c r="E186">
         <v>0.20537108450399022</v>
       </c>
       <c r="F186">
+        <v>0.30282074237090228</v>
+      </c>
+      <c r="G186">
         <v>-1.0067148959421623E-2</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>0.14552484799123863</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>0.15463582886904725</v>
       </c>
-      <c r="I186">
-        <f t="shared" si="5"/>
+      <c r="J186">
+        <f>+G186/A186</f>
         <v>-9.8241976725328452E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1.0011648638225168</v>
       </c>
@@ -6255,27 +6816,30 @@
         <v>0.79971004855821815</v>
       </c>
       <c r="D187">
-        <f>0.799710048558218+(1.74-0.82)</f>
-        <v>1.7197100485582182</v>
+        <f>0.799710048558218+(1.74412-0.82)</f>
+        <v>1.7238300485582181</v>
       </c>
       <c r="E187">
         <v>0.19335699894868374</v>
       </c>
       <c r="F187">
+        <v>0.29080665681559581</v>
+      </c>
+      <c r="G187">
         <v>8.097816315614903E-3</v>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>0.14601758299535589</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>0.14144602989659183</v>
       </c>
-      <c r="I187">
-        <f t="shared" si="5"/>
+      <c r="J187">
+        <f>+G187/A187</f>
         <v>8.0883944375523525E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.99547600470232922</v>
       </c>
@@ -6286,27 +6850,30 @@
         <v>0.78763682277923919</v>
       </c>
       <c r="D188">
-        <f>0.787636822779239+(1.74-0.82)</f>
-        <v>1.7076368227792393</v>
+        <f>0.787636822779239+(1.74412-0.82)</f>
+        <v>1.7117568227792392</v>
       </c>
       <c r="E188">
         <v>0.18849966998266077</v>
       </c>
       <c r="F188">
+        <v>0.28594932784957283</v>
+      </c>
+      <c r="G188">
         <v>1.9339511940429266E-2</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>0.14381680958972665</v>
       </c>
-      <c r="H188">
+      <c r="I188">
         <v>0.13171137186686693</v>
       </c>
-      <c r="I188">
-        <f t="shared" si="5"/>
+      <c r="J188">
+        <f>+G188/A188</f>
         <v>1.9427401413067948E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.98677779604600069</v>
       </c>
@@ -6317,33 +6884,39 @@
         <v>0.79237736116528723</v>
       </c>
       <c r="D189">
-        <f>0.792377361165287+(1.74-0.82)</f>
-        <v>1.7123773611652873</v>
+        <f>0.792377361165287+(1.74412-0.82)</f>
+        <v>1.7164973611652872</v>
       </c>
       <c r="E189">
         <v>0.18035855664844572</v>
       </c>
       <c r="F189">
+        <v>0.27780821451535775</v>
+      </c>
+      <c r="G189">
         <v>1.404187823226774E-2</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>0.14546396562306776</v>
       </c>
-      <c r="H189">
+      <c r="I189">
         <v>0.13779614815317057</v>
       </c>
-      <c r="I189">
-        <f t="shared" si="5"/>
+      <c r="J189">
+        <f>+G189/A189</f>
         <v>1.4230030599120969E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D191">
-        <f>1.74-0.82</f>
-        <v>0.92</v>
+        <f>1.74412-0.82</f>
+        <v>0.92411999999999994</v>
+      </c>
+      <c r="E191">
+        <v>9.7449657866912037E-2</v>
       </c>
     </row>
   </sheetData>
